--- a/学习日志.xlsx
+++ b/学习日志.xlsx
@@ -1,38 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\35612\Desktop\Notes\my_note\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{572BAE91-3BBF-45A0-A88C-04727EFA87BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="18575" windowHeight="10020"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="22">
   <si>
     <t>学习日志记录表</t>
   </si>
@@ -43,6 +27,9 @@
     <t>邓明维</t>
   </si>
   <si>
+    <t>日期：</t>
+  </si>
+  <si>
     <t>备注：</t>
   </si>
   <si>
@@ -61,54 +48,61 @@
     <t>上午</t>
   </si>
   <si>
+    <t>1.gateway 复习与笔记整理</t>
+  </si>
+  <si>
+    <t>1.报表处理技术</t>
+  </si>
+  <si>
+    <t>2.seata 复习与笔记整理</t>
+  </si>
+  <si>
     <t>下午</t>
   </si>
   <si>
     <t>晚上</t>
   </si>
   <si>
+    <t>1.report日志处理技术复习与笔记整理</t>
+  </si>
+  <si>
     <t>今日总结</t>
-  </si>
-  <si>
-    <t>明日计划</t>
-  </si>
-  <si>
-    <t>日期：</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.gateway 复习与笔记整理</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.seata 复习与笔记整理</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.report日志处理技术复习与笔记整理</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>1.完成cloud的全面笔记整理
 2.复习了部分报表处理技术</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.只完成了报表处理技术的第一点的五分之四
+2.对于其它的并没有任何进度</t>
+  </si>
+  <si>
+    <t>明日计划</t>
   </si>
   <si>
     <t>1.学习consul和Apollo
 2.完成报表处理技术
 3.对微信支付做总结
 4.做好网约车项目的笔记</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.必须完成报表技术
+2.必须完成今天为完成的计划
+3.优化简历</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="179" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -124,22 +118,158 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -154,7 +284,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39994506668294322"/>
+        <fgColor theme="6" tint="0.399945066682943"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -166,13 +296,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.59999389629810485"/>
+        <fgColor theme="3" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -182,8 +312,200 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -271,56 +593,289 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -329,63 +884,119 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -672,337 +1283,569 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" topLeftCell="D7" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19:L22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="3" max="4" width="20.77734375" customWidth="1"/>
-    <col min="6" max="6" width="15.77734375" customWidth="1"/>
+    <col min="3" max="4" width="20.7777777777778" customWidth="1"/>
+    <col min="6" max="6" width="15.7777777777778" customWidth="1"/>
+    <col min="10" max="11" width="20.7777777777778" customWidth="1"/>
+    <col min="13" max="13" width="15.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" ht="30" customHeight="1" spans="1:13">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="10"/>
-    </row>
-    <row r="2" spans="1:6" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="3"/>
+      <c r="H1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="3"/>
+    </row>
+    <row r="2" ht="16.95" customHeight="1" spans="1:13">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="22">
+      <c r="C2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="7">
         <f ca="1">TODAY()</f>
         <v>44733</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="8"/>
+      <c r="H2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="K2" s="7">
+        <f ca="1">TODAY()</f>
+        <v>44733</v>
+      </c>
+      <c r="L2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12" t="s">
+      <c r="M2" s="8"/>
+    </row>
+    <row r="3" ht="16.95" customHeight="1" spans="1:13">
+      <c r="A3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="3" t="s">
+      <c r="B3" s="10"/>
+      <c r="C3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="D3" s="10"/>
+      <c r="E3" s="10" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
+      <c r="F3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="23" t="s">
+      <c r="H3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="M3" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" ht="16.95" customHeight="1" spans="1:13">
+      <c r="A4" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="15"/>
+      <c r="E4" s="16">
+        <v>1</v>
+      </c>
+      <c r="F4" s="8"/>
+      <c r="H4" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="13"/>
+      <c r="J4" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="15"/>
+      <c r="L4" s="16">
+        <v>0.7</v>
+      </c>
+      <c r="M4" s="8"/>
+    </row>
+    <row r="5" ht="16.95" customHeight="1" spans="1:13">
+      <c r="A5" s="12"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="15"/>
+      <c r="E5" s="16">
+        <v>1</v>
+      </c>
+      <c r="F5" s="8"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="8"/>
+    </row>
+    <row r="6" ht="16.95" customHeight="1" spans="1:13">
+      <c r="A6" s="12"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="8"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="8"/>
+    </row>
+    <row r="7" ht="16.95" customHeight="1" spans="1:13">
+      <c r="A7" s="12"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="8"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="8"/>
+    </row>
+    <row r="8" ht="16.95" customHeight="1" spans="1:13">
+      <c r="A8" s="18"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="21"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="21"/>
+    </row>
+    <row r="9" ht="16.95" customHeight="1" spans="1:13">
+      <c r="A9" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="13"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="8"/>
+      <c r="H9" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="13"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="8"/>
+    </row>
+    <row r="10" ht="16.95" customHeight="1" spans="1:13">
+      <c r="A10" s="12"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="8"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="8"/>
+    </row>
+    <row r="11" ht="16.95" customHeight="1" spans="1:13">
+      <c r="A11" s="12"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="8"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="8"/>
+    </row>
+    <row r="12" ht="16.95" customHeight="1" spans="1:13">
+      <c r="A12" s="12"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="8"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="8"/>
+    </row>
+    <row r="13" ht="16.95" customHeight="1" spans="1:13">
+      <c r="A13" s="18"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="8"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="8"/>
+    </row>
+    <row r="14" ht="16.95" customHeight="1" spans="1:13">
+      <c r="A14" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="24"/>
-      <c r="E4" s="26">
-        <v>1</v>
-      </c>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="1:6" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="15"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="23" t="s">
+      <c r="B14" s="13"/>
+      <c r="C14" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="24"/>
-      <c r="E5" s="26">
-        <v>1</v>
-      </c>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="1:6" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="15"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:6" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="15"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:6" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="13"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="6"/>
-    </row>
-    <row r="9" spans="1:6" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="16"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:6" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="15"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:6" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="15"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:6" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="15"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:6" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="13"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:6" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="16"/>
-      <c r="C14" s="23" t="s">
+      <c r="D14" s="15"/>
+      <c r="E14" s="24">
+        <v>0.4</v>
+      </c>
+      <c r="F14" s="8"/>
+      <c r="H14" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14" s="13"/>
+      <c r="J14" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K14" s="15"/>
+      <c r="L14" s="31">
+        <v>0.8</v>
+      </c>
+      <c r="M14" s="8"/>
+    </row>
+    <row r="15" ht="16.95" customHeight="1" spans="1:13">
+      <c r="A15" s="12"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="8"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="8"/>
+    </row>
+    <row r="16" ht="16.95" customHeight="1" spans="1:13">
+      <c r="A16" s="12"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="8"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="8"/>
+    </row>
+    <row r="17" ht="16.95" customHeight="1" spans="1:13">
+      <c r="A17" s="12"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="8"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="8"/>
+    </row>
+    <row r="18" ht="16.95" customHeight="1" spans="1:13">
+      <c r="A18" s="18"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="8"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="8"/>
+    </row>
+    <row r="19" ht="16.95" customHeight="1" spans="1:13">
+      <c r="A19" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="24"/>
-      <c r="E14" s="29">
-        <v>0.4</v>
-      </c>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="1:6" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="15"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="2"/>
-    </row>
-    <row r="16" spans="1:6" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="15"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="1:6" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="15"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="2"/>
-    </row>
-    <row r="18" spans="1:6" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="13"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="2"/>
-    </row>
-    <row r="19" spans="1:6" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" s="16"/>
-      <c r="C19" s="30" t="s">
+      <c r="B19" s="13"/>
+      <c r="C19" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="1:6" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="15"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="2"/>
-    </row>
-    <row r="21" spans="1:6" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="15"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="2"/>
-    </row>
-    <row r="22" spans="1:6" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="15"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="1:6" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B23" s="16"/>
-      <c r="C23" s="30" t="s">
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="8"/>
+      <c r="H19" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="I19" s="13"/>
+      <c r="J19" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="1:6" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="15"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="1:6" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="15"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="2"/>
-    </row>
-    <row r="26" spans="1:6" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="17"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="7"/>
+      <c r="K19" s="32"/>
+      <c r="L19" s="32"/>
+      <c r="M19" s="8"/>
+    </row>
+    <row r="20" ht="16.95" customHeight="1" spans="1:13">
+      <c r="A20" s="12"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="8"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="32"/>
+      <c r="K20" s="32"/>
+      <c r="L20" s="32"/>
+      <c r="M20" s="8"/>
+    </row>
+    <row r="21" ht="16.95" customHeight="1" spans="1:13">
+      <c r="A21" s="12"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="8"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="32"/>
+      <c r="K21" s="32"/>
+      <c r="L21" s="32"/>
+      <c r="M21" s="8"/>
+    </row>
+    <row r="22" ht="16.95" customHeight="1" spans="1:13">
+      <c r="A22" s="12"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="8"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="32"/>
+      <c r="K22" s="32"/>
+      <c r="L22" s="32"/>
+      <c r="M22" s="8"/>
+    </row>
+    <row r="23" ht="16.95" customHeight="1" spans="1:13">
+      <c r="A23" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="13"/>
+      <c r="C23" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="8"/>
+      <c r="H23" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="I23" s="13"/>
+      <c r="J23" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="K23" s="25"/>
+      <c r="L23" s="25"/>
+      <c r="M23" s="8"/>
+    </row>
+    <row r="24" ht="16.95" customHeight="1" spans="1:13">
+      <c r="A24" s="12"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="8"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="25"/>
+      <c r="L24" s="25"/>
+      <c r="M24" s="8"/>
+    </row>
+    <row r="25" ht="16.95" customHeight="1" spans="1:13">
+      <c r="A25" s="12"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="8"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="25"/>
+      <c r="K25" s="25"/>
+      <c r="L25" s="25"/>
+      <c r="M25" s="8"/>
+    </row>
+    <row r="26" ht="16.95" customHeight="1" spans="1:13">
+      <c r="A26" s="26"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="29"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="28"/>
+      <c r="L26" s="28"/>
+      <c r="M26" s="29"/>
     </row>
   </sheetData>
-  <mergeCells count="25">
+  <mergeCells count="50">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="H1:M1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="H19:I22"/>
+    <mergeCell ref="J19:L22"/>
+    <mergeCell ref="H23:I26"/>
+    <mergeCell ref="J23:L26"/>
+    <mergeCell ref="H14:I17"/>
+    <mergeCell ref="H9:I12"/>
+    <mergeCell ref="H4:I7"/>
     <mergeCell ref="A23:B26"/>
     <mergeCell ref="A9:B12"/>
     <mergeCell ref="A14:B17"/>
     <mergeCell ref="A4:B7"/>
     <mergeCell ref="C19:E22"/>
     <mergeCell ref="C23:E26"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="A18:D18"/>
     <mergeCell ref="A19:B22"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/学习日志.xlsx
+++ b/学习日志.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="29">
   <si>
     <t>学习日志记录表</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>1.报表处理技术</t>
+  </si>
+  <si>
+    <t>6点~7点</t>
   </si>
   <si>
     <t>2.seata 复习与笔记整理</t>
@@ -75,6 +78,15 @@
   <si>
     <t>1.只完成了报表处理技术的第一点的五分之四
 2.对于其它的并没有任何进度</t>
+  </si>
+  <si>
+    <t>总时长</t>
+  </si>
+  <si>
+    <t>1.整天基本没有任何进度，其余进度严重耽搁</t>
+  </si>
+  <si>
+    <t>1小时</t>
   </si>
   <si>
     <t>明日计划</t>
@@ -89,6 +101,16 @@
     <t>1.必须完成报表技术
 2.必须完成今天为完成的计划
 3.优化简历</t>
+  </si>
+  <si>
+    <t>预计时长</t>
+  </si>
+  <si>
+    <t>1.上午完成未完成的任务
+2.下午开始网约车学习</t>
+  </si>
+  <si>
+    <t>10小时</t>
   </si>
 </sst>
 </file>
@@ -96,11 +118,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -119,28 +141,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -153,6 +168,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -160,16 +176,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -184,17 +192,32 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -206,9 +229,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -216,7 +245,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -239,14 +276,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -255,21 +284,14 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="40">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -320,7 +342,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -332,13 +366,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -350,103 +504,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -458,54 +528,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="17">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -594,35 +622,39 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -642,13 +674,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -672,7 +708,27 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -691,6 +747,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -699,10 +764,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -711,16 +776,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -729,119 +794,119 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -860,7 +925,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -884,7 +949,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -917,7 +982,7 @@
     <xf numFmtId="9" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -926,19 +991,109 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="9" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="9" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1289,10 +1444,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M26"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D7" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19:L22"/>
+    <sheetView tabSelected="1" topLeftCell="K4" workbookViewId="0">
+      <selection activeCell="Q23" sqref="Q23:S26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1301,9 +1456,11 @@
     <col min="6" max="6" width="15.7777777777778" customWidth="1"/>
     <col min="10" max="11" width="20.7777777777778" customWidth="1"/>
     <col min="13" max="13" width="15.7777777777778" customWidth="1"/>
+    <col min="17" max="18" width="20.7777777777778" customWidth="1"/>
+    <col min="20" max="20" width="15.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="30" customHeight="1" spans="1:13">
+    <row r="1" ht="30" customHeight="1" spans="1:20">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1320,8 +1477,16 @@
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
       <c r="M1" s="3"/>
-    </row>
-    <row r="2" ht="16.95" customHeight="1" spans="1:13">
+      <c r="O1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="3"/>
+    </row>
+    <row r="2" ht="16.95" customHeight="1" spans="1:20">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1333,7 +1498,7 @@
       </c>
       <c r="D2" s="7">
         <f ca="1">TODAY()</f>
-        <v>44733</v>
+        <v>44735</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>4</v>
@@ -1350,14 +1515,31 @@
       </c>
       <c r="K2" s="7">
         <f ca="1">TODAY()</f>
-        <v>44733</v>
+        <v>44735</v>
       </c>
       <c r="L2" s="5" t="s">
         <v>4</v>
       </c>
       <c r="M2" s="8"/>
-    </row>
-    <row r="3" ht="16.95" customHeight="1" spans="1:13">
+      <c r="O2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="R2" s="7">
+        <f ca="1">TODAY()</f>
+        <v>44735</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="T2" s="8"/>
+    </row>
+    <row r="3" ht="16.95" customHeight="1" spans="1:20">
       <c r="A3" s="9" t="s">
         <v>5</v>
       </c>
@@ -1386,8 +1568,22 @@
       <c r="M3" s="11" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" ht="16.95" customHeight="1" spans="1:13">
+      <c r="O3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="T3" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" ht="16.95" customHeight="1" spans="1:20">
       <c r="A4" s="12" t="s">
         <v>9</v>
       </c>
@@ -1412,12 +1608,26 @@
         <v>0.7</v>
       </c>
       <c r="M4" s="8"/>
-    </row>
-    <row r="5" ht="16.95" customHeight="1" spans="1:13">
+      <c r="O4" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="P4" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="R4" s="15"/>
+      <c r="S4" s="16">
+        <v>0.85</v>
+      </c>
+      <c r="T4" s="8"/>
+    </row>
+    <row r="5" ht="16.95" customHeight="1" spans="1:20">
       <c r="A5" s="12"/>
       <c r="B5" s="13"/>
       <c r="C5" s="14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D5" s="15"/>
       <c r="E5" s="16">
@@ -1428,10 +1638,16 @@
       <c r="I5" s="13"/>
       <c r="J5" s="14"/>
       <c r="K5" s="15"/>
-      <c r="L5" s="30"/>
+      <c r="L5" s="32"/>
       <c r="M5" s="8"/>
-    </row>
-    <row r="6" ht="16.95" customHeight="1" spans="1:13">
+      <c r="O5" s="30"/>
+      <c r="P5" s="33"/>
+      <c r="Q5" s="47"/>
+      <c r="R5" s="48"/>
+      <c r="S5" s="49"/>
+      <c r="T5" s="50"/>
+    </row>
+    <row r="6" ht="16.95" customHeight="1" spans="1:20">
       <c r="A6" s="12"/>
       <c r="B6" s="13"/>
       <c r="C6" s="15"/>
@@ -1444,8 +1660,14 @@
       <c r="K6" s="15"/>
       <c r="L6" s="17"/>
       <c r="M6" s="8"/>
-    </row>
-    <row r="7" ht="16.95" customHeight="1" spans="1:13">
+      <c r="O6" s="30"/>
+      <c r="P6" s="33"/>
+      <c r="Q6" s="48"/>
+      <c r="R6" s="48"/>
+      <c r="S6" s="51"/>
+      <c r="T6" s="50"/>
+    </row>
+    <row r="7" ht="16.95" customHeight="1" spans="1:20">
       <c r="A7" s="12"/>
       <c r="B7" s="13"/>
       <c r="C7" s="15"/>
@@ -1458,8 +1680,14 @@
       <c r="K7" s="15"/>
       <c r="L7" s="17"/>
       <c r="M7" s="8"/>
-    </row>
-    <row r="8" ht="16.95" customHeight="1" spans="1:13">
+      <c r="O7" s="30"/>
+      <c r="P7" s="33"/>
+      <c r="Q7" s="48"/>
+      <c r="R7" s="48"/>
+      <c r="S7" s="51"/>
+      <c r="T7" s="50"/>
+    </row>
+    <row r="8" ht="16.95" customHeight="1" spans="1:20">
       <c r="A8" s="18"/>
       <c r="B8" s="19"/>
       <c r="C8" s="19"/>
@@ -1472,10 +1700,16 @@
       <c r="K8" s="19"/>
       <c r="L8" s="20"/>
       <c r="M8" s="21"/>
-    </row>
-    <row r="9" ht="16.95" customHeight="1" spans="1:13">
+      <c r="O8" s="34"/>
+      <c r="P8" s="35"/>
+      <c r="Q8" s="35"/>
+      <c r="R8" s="35"/>
+      <c r="S8" s="35"/>
+      <c r="T8" s="52"/>
+    </row>
+    <row r="9" ht="16.95" customHeight="1" spans="1:20">
       <c r="A9" s="12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9" s="13"/>
       <c r="C9" s="15"/>
@@ -1483,15 +1717,23 @@
       <c r="E9" s="22"/>
       <c r="F9" s="8"/>
       <c r="H9" s="12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I9" s="13"/>
       <c r="J9" s="14"/>
       <c r="K9" s="15"/>
       <c r="L9" s="22"/>
       <c r="M9" s="8"/>
-    </row>
-    <row r="10" ht="16.95" customHeight="1" spans="1:13">
+      <c r="O9" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="P9" s="31"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="15"/>
+      <c r="S9" s="53"/>
+      <c r="T9" s="8"/>
+    </row>
+    <row r="10" ht="16.95" customHeight="1" spans="1:20">
       <c r="A10" s="12"/>
       <c r="B10" s="13"/>
       <c r="C10" s="15"/>
@@ -1504,8 +1746,14 @@
       <c r="K10" s="15"/>
       <c r="L10" s="22"/>
       <c r="M10" s="8"/>
-    </row>
-    <row r="11" ht="16.95" customHeight="1" spans="1:13">
+      <c r="O10" s="30"/>
+      <c r="P10" s="33"/>
+      <c r="Q10" s="48"/>
+      <c r="R10" s="48"/>
+      <c r="S10" s="54"/>
+      <c r="T10" s="50"/>
+    </row>
+    <row r="11" ht="16.95" customHeight="1" spans="1:20">
       <c r="A11" s="12"/>
       <c r="B11" s="13"/>
       <c r="C11" s="15"/>
@@ -1518,8 +1766,14 @@
       <c r="K11" s="15"/>
       <c r="L11" s="17"/>
       <c r="M11" s="8"/>
-    </row>
-    <row r="12" ht="16.95" customHeight="1" spans="1:13">
+      <c r="O11" s="30"/>
+      <c r="P11" s="33"/>
+      <c r="Q11" s="48"/>
+      <c r="R11" s="48"/>
+      <c r="S11" s="51"/>
+      <c r="T11" s="50"/>
+    </row>
+    <row r="12" ht="16.95" customHeight="1" spans="1:20">
       <c r="A12" s="12"/>
       <c r="B12" s="13"/>
       <c r="C12" s="15"/>
@@ -1532,8 +1786,14 @@
       <c r="K12" s="15"/>
       <c r="L12" s="17"/>
       <c r="M12" s="8"/>
-    </row>
-    <row r="13" ht="16.95" customHeight="1" spans="1:13">
+      <c r="O12" s="30"/>
+      <c r="P12" s="33"/>
+      <c r="Q12" s="48"/>
+      <c r="R12" s="48"/>
+      <c r="S12" s="51"/>
+      <c r="T12" s="50"/>
+    </row>
+    <row r="13" ht="16.95" customHeight="1" spans="1:20">
       <c r="A13" s="18"/>
       <c r="B13" s="19"/>
       <c r="C13" s="19"/>
@@ -1546,14 +1806,20 @@
       <c r="K13" s="19"/>
       <c r="L13" s="23"/>
       <c r="M13" s="8"/>
-    </row>
-    <row r="14" ht="16.95" customHeight="1" spans="1:13">
+      <c r="O13" s="34"/>
+      <c r="P13" s="35"/>
+      <c r="Q13" s="35"/>
+      <c r="R13" s="35"/>
+      <c r="S13" s="35"/>
+      <c r="T13" s="52"/>
+    </row>
+    <row r="14" ht="16.95" customHeight="1" spans="1:20">
       <c r="A14" s="12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B14" s="13"/>
       <c r="C14" s="14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D14" s="15"/>
       <c r="E14" s="24">
@@ -1561,19 +1827,27 @@
       </c>
       <c r="F14" s="8"/>
       <c r="H14" s="12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I14" s="13"/>
       <c r="J14" s="14" t="s">
         <v>11</v>
       </c>
       <c r="K14" s="15"/>
-      <c r="L14" s="31">
+      <c r="L14" s="36">
         <v>0.8</v>
       </c>
       <c r="M14" s="8"/>
-    </row>
-    <row r="15" ht="16.95" customHeight="1" spans="1:13">
+      <c r="O14" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="P14" s="31"/>
+      <c r="Q14" s="55"/>
+      <c r="R14" s="56"/>
+      <c r="S14" s="57"/>
+      <c r="T14" s="8"/>
+    </row>
+    <row r="15" ht="16.95" customHeight="1" spans="1:20">
       <c r="A15" s="12"/>
       <c r="B15" s="13"/>
       <c r="C15" s="15"/>
@@ -1586,8 +1860,14 @@
       <c r="K15" s="15"/>
       <c r="L15" s="22"/>
       <c r="M15" s="8"/>
-    </row>
-    <row r="16" ht="16.95" customHeight="1" spans="1:13">
+      <c r="O15" s="30"/>
+      <c r="P15" s="33"/>
+      <c r="Q15" s="48"/>
+      <c r="R15" s="48"/>
+      <c r="S15" s="54"/>
+      <c r="T15" s="50"/>
+    </row>
+    <row r="16" ht="16.95" customHeight="1" spans="1:20">
       <c r="A16" s="12"/>
       <c r="B16" s="13"/>
       <c r="C16" s="15"/>
@@ -1600,8 +1880,14 @@
       <c r="K16" s="15"/>
       <c r="L16" s="17"/>
       <c r="M16" s="8"/>
-    </row>
-    <row r="17" ht="16.95" customHeight="1" spans="1:13">
+      <c r="O16" s="30"/>
+      <c r="P16" s="33"/>
+      <c r="Q16" s="58"/>
+      <c r="R16" s="58"/>
+      <c r="S16" s="59"/>
+      <c r="T16" s="60"/>
+    </row>
+    <row r="17" ht="16.95" customHeight="1" spans="1:20">
       <c r="A17" s="12"/>
       <c r="B17" s="13"/>
       <c r="C17" s="15"/>
@@ -1614,8 +1900,14 @@
       <c r="K17" s="15"/>
       <c r="L17" s="17"/>
       <c r="M17" s="8"/>
-    </row>
-    <row r="18" ht="16.95" customHeight="1" spans="1:13">
+      <c r="O17" s="30"/>
+      <c r="P17" s="33"/>
+      <c r="Q17" s="48"/>
+      <c r="R17" s="48"/>
+      <c r="S17" s="51"/>
+      <c r="T17" s="50"/>
+    </row>
+    <row r="18" ht="16.95" customHeight="1" spans="1:20">
       <c r="A18" s="18"/>
       <c r="B18" s="19"/>
       <c r="C18" s="19"/>
@@ -1628,30 +1920,48 @@
       <c r="K18" s="19"/>
       <c r="L18" s="23"/>
       <c r="M18" s="8"/>
-    </row>
-    <row r="19" ht="16.95" customHeight="1" spans="1:13">
+      <c r="O18" s="34"/>
+      <c r="P18" s="35"/>
+      <c r="Q18" s="35"/>
+      <c r="R18" s="35"/>
+      <c r="S18" s="35"/>
+      <c r="T18" s="52"/>
+    </row>
+    <row r="19" ht="16.95" customHeight="1" spans="1:20">
       <c r="A19" s="12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B19" s="13"/>
       <c r="C19" s="25" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D19" s="25"/>
       <c r="E19" s="25"/>
       <c r="F19" s="8"/>
       <c r="H19" s="12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I19" s="13"/>
-      <c r="J19" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="K19" s="32"/>
-      <c r="L19" s="32"/>
+      <c r="J19" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="K19" s="37"/>
+      <c r="L19" s="37"/>
       <c r="M19" s="8"/>
-    </row>
-    <row r="20" ht="16.95" customHeight="1" spans="1:13">
+      <c r="O19" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="P19" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q19" s="61" t="s">
+        <v>21</v>
+      </c>
+      <c r="R19" s="61"/>
+      <c r="S19" s="61"/>
+      <c r="T19" s="8"/>
+    </row>
+    <row r="20" ht="16.95" customHeight="1" spans="1:20">
       <c r="A20" s="12"/>
       <c r="B20" s="13"/>
       <c r="C20" s="25"/>
@@ -1660,12 +1970,20 @@
       <c r="F20" s="8"/>
       <c r="H20" s="12"/>
       <c r="I20" s="13"/>
-      <c r="J20" s="32"/>
-      <c r="K20" s="32"/>
-      <c r="L20" s="32"/>
+      <c r="J20" s="37"/>
+      <c r="K20" s="37"/>
+      <c r="L20" s="37"/>
       <c r="M20" s="8"/>
-    </row>
-    <row r="21" ht="16.95" customHeight="1" spans="1:13">
+      <c r="O20" s="30"/>
+      <c r="P20" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q20" s="61"/>
+      <c r="R20" s="61"/>
+      <c r="S20" s="61"/>
+      <c r="T20" s="8"/>
+    </row>
+    <row r="21" ht="16.95" customHeight="1" spans="1:20">
       <c r="A21" s="12"/>
       <c r="B21" s="13"/>
       <c r="C21" s="25"/>
@@ -1674,12 +1992,18 @@
       <c r="F21" s="8"/>
       <c r="H21" s="12"/>
       <c r="I21" s="13"/>
-      <c r="J21" s="32"/>
-      <c r="K21" s="32"/>
-      <c r="L21" s="32"/>
+      <c r="J21" s="37"/>
+      <c r="K21" s="37"/>
+      <c r="L21" s="37"/>
       <c r="M21" s="8"/>
-    </row>
-    <row r="22" ht="16.95" customHeight="1" spans="1:13">
+      <c r="O21" s="30"/>
+      <c r="P21" s="12"/>
+      <c r="Q21" s="61"/>
+      <c r="R21" s="61"/>
+      <c r="S21" s="61"/>
+      <c r="T21" s="8"/>
+    </row>
+    <row r="22" ht="16.95" customHeight="1" spans="1:20">
       <c r="A22" s="12"/>
       <c r="B22" s="13"/>
       <c r="C22" s="25"/>
@@ -1688,34 +2012,52 @@
       <c r="F22" s="8"/>
       <c r="H22" s="12"/>
       <c r="I22" s="13"/>
-      <c r="J22" s="32"/>
-      <c r="K22" s="32"/>
-      <c r="L22" s="32"/>
+      <c r="J22" s="37"/>
+      <c r="K22" s="37"/>
+      <c r="L22" s="37"/>
       <c r="M22" s="8"/>
-    </row>
-    <row r="23" ht="16.95" customHeight="1" spans="1:13">
+      <c r="O22" s="30"/>
+      <c r="P22" s="12"/>
+      <c r="Q22" s="61"/>
+      <c r="R22" s="61"/>
+      <c r="S22" s="61"/>
+      <c r="T22" s="8"/>
+    </row>
+    <row r="23" ht="16.95" customHeight="1" spans="1:20">
       <c r="A23" s="12" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B23" s="13"/>
       <c r="C23" s="25" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D23" s="25"/>
       <c r="E23" s="25"/>
       <c r="F23" s="8"/>
       <c r="H23" s="12" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="I23" s="13"/>
       <c r="J23" s="25" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="K23" s="25"/>
       <c r="L23" s="25"/>
       <c r="M23" s="8"/>
-    </row>
-    <row r="24" ht="16.95" customHeight="1" spans="1:13">
+      <c r="O23" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="P23" s="41" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q23" s="62" t="s">
+        <v>27</v>
+      </c>
+      <c r="R23" s="62"/>
+      <c r="S23" s="62"/>
+      <c r="T23" s="8"/>
+    </row>
+    <row r="24" ht="16.95" customHeight="1" spans="1:20">
       <c r="A24" s="12"/>
       <c r="B24" s="13"/>
       <c r="C24" s="25"/>
@@ -1728,8 +2070,16 @@
       <c r="K24" s="25"/>
       <c r="L24" s="25"/>
       <c r="M24" s="8"/>
-    </row>
-    <row r="25" ht="16.95" customHeight="1" spans="1:13">
+      <c r="O24" s="42"/>
+      <c r="P24" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q24" s="25"/>
+      <c r="R24" s="25"/>
+      <c r="S24" s="25"/>
+      <c r="T24" s="8"/>
+    </row>
+    <row r="25" ht="16.95" customHeight="1" spans="1:20">
       <c r="A25" s="12"/>
       <c r="B25" s="13"/>
       <c r="C25" s="25"/>
@@ -1742,8 +2092,14 @@
       <c r="K25" s="25"/>
       <c r="L25" s="25"/>
       <c r="M25" s="8"/>
-    </row>
-    <row r="26" ht="16.95" customHeight="1" spans="1:13">
+      <c r="O25" s="42"/>
+      <c r="P25" s="44"/>
+      <c r="Q25" s="25"/>
+      <c r="R25" s="25"/>
+      <c r="S25" s="25"/>
+      <c r="T25" s="8"/>
+    </row>
+    <row r="26" ht="16.95" customHeight="1" spans="1:20">
       <c r="A26" s="26"/>
       <c r="B26" s="27"/>
       <c r="C26" s="28"/>
@@ -1756,45 +2112,74 @@
       <c r="K26" s="28"/>
       <c r="L26" s="28"/>
       <c r="M26" s="29"/>
+      <c r="O26" s="45"/>
+      <c r="P26" s="46"/>
+      <c r="Q26" s="28"/>
+      <c r="R26" s="28"/>
+      <c r="S26" s="28"/>
+      <c r="T26" s="29"/>
     </row>
   </sheetData>
-  <mergeCells count="50">
+  <mergeCells count="75">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="H1:M1"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="Q3:R3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="J4:K4"/>
+    <mergeCell ref="Q4:R4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="J5:K5"/>
+    <mergeCell ref="Q5:R5"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="J6:K6"/>
+    <mergeCell ref="Q6:R6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="J7:K7"/>
+    <mergeCell ref="Q7:R7"/>
     <mergeCell ref="A8:D8"/>
     <mergeCell ref="H8:K8"/>
+    <mergeCell ref="O8:T8"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="J9:K9"/>
+    <mergeCell ref="Q9:R9"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="J10:K10"/>
+    <mergeCell ref="Q10:R10"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="J11:K11"/>
+    <mergeCell ref="Q11:R11"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="J12:K12"/>
+    <mergeCell ref="Q12:R12"/>
     <mergeCell ref="A13:D13"/>
     <mergeCell ref="H13:K13"/>
+    <mergeCell ref="O13:T13"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="J14:K14"/>
+    <mergeCell ref="Q14:R14"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="J15:K15"/>
+    <mergeCell ref="Q15:R15"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="J16:K16"/>
+    <mergeCell ref="Q16:R16"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="J17:K17"/>
+    <mergeCell ref="Q17:R17"/>
     <mergeCell ref="A18:D18"/>
     <mergeCell ref="H18:K18"/>
+    <mergeCell ref="O18:T18"/>
+    <mergeCell ref="O4:O7"/>
+    <mergeCell ref="O9:O12"/>
+    <mergeCell ref="O14:O17"/>
+    <mergeCell ref="O19:O22"/>
+    <mergeCell ref="O23:O26"/>
     <mergeCell ref="H19:I22"/>
     <mergeCell ref="J19:L22"/>
     <mergeCell ref="H23:I26"/>
@@ -1809,6 +2194,8 @@
     <mergeCell ref="C19:E22"/>
     <mergeCell ref="C23:E26"/>
     <mergeCell ref="A19:B22"/>
+    <mergeCell ref="Q19:S22"/>
+    <mergeCell ref="Q23:S26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/学习日志.xlsx
+++ b/学习日志.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="39">
   <si>
     <t>学习日志记录表</t>
   </si>
@@ -57,16 +57,37 @@
     <t>6点~7点</t>
   </si>
   <si>
+    <t>8点~11点</t>
+  </si>
+  <si>
     <t>2.seata 复习与笔记整理</t>
   </si>
   <si>
+    <t>11~12</t>
+  </si>
+  <si>
+    <t>2.Apollo，zipkin持久化与优化</t>
+  </si>
+  <si>
     <t>下午</t>
   </si>
   <si>
+    <t>12~14</t>
+  </si>
+  <si>
+    <t>1.Apollo，zipkin持久化与优化，bus消息总线</t>
+  </si>
+  <si>
     <t>晚上</t>
   </si>
   <si>
     <t>1.report日志处理技术复习与笔记整理</t>
+  </si>
+  <si>
+    <t>22~24</t>
+  </si>
+  <si>
+    <t>1.完成网约车的计价，派单，订单状态</t>
   </si>
   <si>
     <t>今日总结</t>
@@ -86,7 +107,13 @@
     <t>1.整天基本没有任何进度，其余进度严重耽搁</t>
   </si>
   <si>
+    <t>1.完成了三天前的任务</t>
+  </si>
+  <si>
     <t>1小时</t>
+  </si>
+  <si>
+    <t>5小时</t>
   </si>
   <si>
     <t>明日计划</t>
@@ -108,6 +135,9 @@
   <si>
     <t>1.上午完成未完成的任务
 2.下午开始网约车学习</t>
+  </si>
+  <si>
+    <t>1.完成到网约车第71节去</t>
   </si>
   <si>
     <t>10小时</t>
@@ -118,10 +148,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
   <fonts count="22">
@@ -147,27 +177,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -184,7 +193,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -192,38 +201,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -237,31 +215,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -283,6 +237,52 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -290,6 +290,36 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="41">
     <fill>
@@ -360,13 +390,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -376,164 +562,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="20">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -659,17 +689,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -685,50 +711,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -751,8 +733,67 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -764,10 +805,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -776,7 +817,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -785,128 +826,128 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -998,9 +1039,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1008,9 +1046,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1060,14 +1095,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1095,6 +1139,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1444,10 +1494,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:AA26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K4" workbookViewId="0">
-      <selection activeCell="Q23" sqref="Q23:S26"/>
+    <sheetView tabSelected="1" topLeftCell="S7" workbookViewId="0">
+      <selection activeCell="AC23" sqref="AC23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1458,9 +1508,12 @@
     <col min="13" max="13" width="15.7777777777778" customWidth="1"/>
     <col min="17" max="18" width="20.7777777777778" customWidth="1"/>
     <col min="20" max="20" width="15.7777777777778" customWidth="1"/>
+    <col min="23" max="23" width="9.66666666666667"/>
+    <col min="24" max="25" width="20.7777777777778" customWidth="1"/>
+    <col min="27" max="27" width="15.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="30" customHeight="1" spans="1:20">
+    <row r="1" ht="30" customHeight="1" spans="1:27">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1485,8 +1538,16 @@
       <c r="R1" s="2"/>
       <c r="S1" s="2"/>
       <c r="T1" s="3"/>
+      <c r="V1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="3"/>
     </row>
-    <row r="2" ht="16.95" customHeight="1" spans="1:20">
+    <row r="2" ht="16.95" customHeight="1" spans="1:27">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1497,8 +1558,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="7">
-        <f ca="1">TODAY()</f>
-        <v>44735</v>
+        <v>44732</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>4</v>
@@ -1514,8 +1574,7 @@
         <v>3</v>
       </c>
       <c r="K2" s="7">
-        <f ca="1">TODAY()</f>
-        <v>44735</v>
+        <v>44733</v>
       </c>
       <c r="L2" s="5" t="s">
         <v>4</v>
@@ -1531,15 +1590,30 @@
         <v>3</v>
       </c>
       <c r="R2" s="7">
-        <f ca="1">TODAY()</f>
-        <v>44735</v>
+        <v>44734</v>
       </c>
       <c r="S2" s="5" t="s">
         <v>4</v>
       </c>
       <c r="T2" s="8"/>
+      <c r="V2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="W2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="X2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y2" s="7">
+        <v>44735</v>
+      </c>
+      <c r="Z2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA2" s="8"/>
     </row>
-    <row r="3" ht="16.95" customHeight="1" spans="1:20">
+    <row r="3" ht="16.95" customHeight="1" spans="1:27">
       <c r="A3" s="9" t="s">
         <v>5</v>
       </c>
@@ -1582,8 +1656,22 @@
       <c r="T3" s="11" t="s">
         <v>8</v>
       </c>
+      <c r="V3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="W3" s="10"/>
+      <c r="X3" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y3" s="10"/>
+      <c r="Z3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA3" s="11" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="4" ht="16.95" customHeight="1" spans="1:20">
+    <row r="4" ht="16.95" customHeight="1" spans="1:27">
       <c r="A4" s="12" t="s">
         <v>9</v>
       </c>
@@ -1608,10 +1696,10 @@
         <v>0.7</v>
       </c>
       <c r="M4" s="8"/>
-      <c r="O4" s="30" t="s">
+      <c r="O4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="P4" s="31" t="s">
+      <c r="P4" s="30" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="14" t="s">
@@ -1622,12 +1710,26 @@
         <v>0.85</v>
       </c>
       <c r="T4" s="8"/>
+      <c r="V4" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="W4" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="X4" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y4" s="15"/>
+      <c r="Z4" s="64">
+        <v>1</v>
+      </c>
+      <c r="AA4" s="8"/>
     </row>
-    <row r="5" ht="16.95" customHeight="1" spans="1:20">
+    <row r="5" ht="16.95" customHeight="1" spans="1:27">
       <c r="A5" s="12"/>
       <c r="B5" s="13"/>
       <c r="C5" s="14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D5" s="15"/>
       <c r="E5" s="16">
@@ -1638,16 +1740,26 @@
       <c r="I5" s="13"/>
       <c r="J5" s="14"/>
       <c r="K5" s="15"/>
-      <c r="L5" s="32"/>
+      <c r="L5" s="31"/>
       <c r="M5" s="8"/>
-      <c r="O5" s="30"/>
-      <c r="P5" s="33"/>
-      <c r="Q5" s="47"/>
-      <c r="R5" s="48"/>
-      <c r="S5" s="49"/>
-      <c r="T5" s="50"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="32"/>
+      <c r="Q5" s="45"/>
+      <c r="R5" s="46"/>
+      <c r="S5" s="47"/>
+      <c r="T5" s="48"/>
+      <c r="V5" s="12"/>
+      <c r="W5" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="X5" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y5" s="46"/>
+      <c r="Z5" s="47"/>
+      <c r="AA5" s="48"/>
     </row>
-    <row r="6" ht="16.95" customHeight="1" spans="1:20">
+    <row r="6" ht="16.95" customHeight="1" spans="1:27">
       <c r="A6" s="12"/>
       <c r="B6" s="13"/>
       <c r="C6" s="15"/>
@@ -1660,14 +1772,20 @@
       <c r="K6" s="15"/>
       <c r="L6" s="17"/>
       <c r="M6" s="8"/>
-      <c r="O6" s="30"/>
-      <c r="P6" s="33"/>
-      <c r="Q6" s="48"/>
-      <c r="R6" s="48"/>
-      <c r="S6" s="51"/>
-      <c r="T6" s="50"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="32"/>
+      <c r="Q6" s="46"/>
+      <c r="R6" s="46"/>
+      <c r="S6" s="50"/>
+      <c r="T6" s="48"/>
+      <c r="V6" s="12"/>
+      <c r="W6" s="32"/>
+      <c r="X6" s="46"/>
+      <c r="Y6" s="65"/>
+      <c r="Z6" s="50"/>
+      <c r="AA6" s="48"/>
     </row>
-    <row r="7" ht="16.95" customHeight="1" spans="1:20">
+    <row r="7" ht="16.95" customHeight="1" spans="1:27">
       <c r="A7" s="12"/>
       <c r="B7" s="13"/>
       <c r="C7" s="15"/>
@@ -1680,14 +1798,20 @@
       <c r="K7" s="15"/>
       <c r="L7" s="17"/>
       <c r="M7" s="8"/>
-      <c r="O7" s="30"/>
-      <c r="P7" s="33"/>
-      <c r="Q7" s="48"/>
-      <c r="R7" s="48"/>
-      <c r="S7" s="51"/>
-      <c r="T7" s="50"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="32"/>
+      <c r="Q7" s="46"/>
+      <c r="R7" s="46"/>
+      <c r="S7" s="50"/>
+      <c r="T7" s="48"/>
+      <c r="V7" s="12"/>
+      <c r="W7" s="32"/>
+      <c r="X7" s="46"/>
+      <c r="Y7" s="46"/>
+      <c r="Z7" s="50"/>
+      <c r="AA7" s="48"/>
     </row>
-    <row r="8" ht="16.95" customHeight="1" spans="1:20">
+    <row r="8" ht="16.95" customHeight="1" spans="1:27">
       <c r="A8" s="18"/>
       <c r="B8" s="19"/>
       <c r="C8" s="19"/>
@@ -1700,16 +1824,22 @@
       <c r="K8" s="19"/>
       <c r="L8" s="20"/>
       <c r="M8" s="21"/>
-      <c r="O8" s="34"/>
-      <c r="P8" s="35"/>
-      <c r="Q8" s="35"/>
-      <c r="R8" s="35"/>
-      <c r="S8" s="35"/>
-      <c r="T8" s="52"/>
+      <c r="O8" s="18"/>
+      <c r="P8" s="33"/>
+      <c r="Q8" s="33"/>
+      <c r="R8" s="33"/>
+      <c r="S8" s="33"/>
+      <c r="T8" s="51"/>
+      <c r="V8" s="18"/>
+      <c r="W8" s="33"/>
+      <c r="X8" s="52"/>
+      <c r="Y8" s="33"/>
+      <c r="Z8" s="33"/>
+      <c r="AA8" s="51"/>
     </row>
-    <row r="9" ht="16.95" customHeight="1" spans="1:20">
+    <row r="9" ht="16.95" customHeight="1" spans="1:27">
       <c r="A9" s="12" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B9" s="13"/>
       <c r="C9" s="15"/>
@@ -1717,23 +1847,37 @@
       <c r="E9" s="22"/>
       <c r="F9" s="8"/>
       <c r="H9" s="12" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I9" s="13"/>
       <c r="J9" s="14"/>
       <c r="K9" s="15"/>
       <c r="L9" s="22"/>
       <c r="M9" s="8"/>
-      <c r="O9" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="P9" s="31"/>
+      <c r="O9" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="P9" s="30"/>
       <c r="Q9" s="14"/>
       <c r="R9" s="15"/>
       <c r="S9" s="53"/>
       <c r="T9" s="8"/>
+      <c r="V9" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="W9" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="X9" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y9" s="46"/>
+      <c r="Z9" s="64">
+        <v>1</v>
+      </c>
+      <c r="AA9" s="8"/>
     </row>
-    <row r="10" ht="16.95" customHeight="1" spans="1:20">
+    <row r="10" ht="16.95" customHeight="1" spans="1:27">
       <c r="A10" s="12"/>
       <c r="B10" s="13"/>
       <c r="C10" s="15"/>
@@ -1746,14 +1890,20 @@
       <c r="K10" s="15"/>
       <c r="L10" s="22"/>
       <c r="M10" s="8"/>
-      <c r="O10" s="30"/>
-      <c r="P10" s="33"/>
-      <c r="Q10" s="48"/>
-      <c r="R10" s="48"/>
-      <c r="S10" s="54"/>
-      <c r="T10" s="50"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="32"/>
+      <c r="Q10" s="46"/>
+      <c r="R10" s="46"/>
+      <c r="S10" s="55"/>
+      <c r="T10" s="48"/>
+      <c r="V10" s="12"/>
+      <c r="W10" s="32"/>
+      <c r="X10" s="46"/>
+      <c r="Y10" s="46"/>
+      <c r="Z10" s="55"/>
+      <c r="AA10" s="48"/>
     </row>
-    <row r="11" ht="16.95" customHeight="1" spans="1:20">
+    <row r="11" ht="16.95" customHeight="1" spans="1:27">
       <c r="A11" s="12"/>
       <c r="B11" s="13"/>
       <c r="C11" s="15"/>
@@ -1766,14 +1916,20 @@
       <c r="K11" s="15"/>
       <c r="L11" s="17"/>
       <c r="M11" s="8"/>
-      <c r="O11" s="30"/>
-      <c r="P11" s="33"/>
-      <c r="Q11" s="48"/>
-      <c r="R11" s="48"/>
-      <c r="S11" s="51"/>
-      <c r="T11" s="50"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="32"/>
+      <c r="Q11" s="46"/>
+      <c r="R11" s="46"/>
+      <c r="S11" s="50"/>
+      <c r="T11" s="48"/>
+      <c r="V11" s="12"/>
+      <c r="W11" s="32"/>
+      <c r="X11" s="46"/>
+      <c r="Y11" s="46"/>
+      <c r="Z11" s="50"/>
+      <c r="AA11" s="48"/>
     </row>
-    <row r="12" ht="16.95" customHeight="1" spans="1:20">
+    <row r="12" ht="16.95" customHeight="1" spans="1:27">
       <c r="A12" s="12"/>
       <c r="B12" s="13"/>
       <c r="C12" s="15"/>
@@ -1786,14 +1942,20 @@
       <c r="K12" s="15"/>
       <c r="L12" s="17"/>
       <c r="M12" s="8"/>
-      <c r="O12" s="30"/>
-      <c r="P12" s="33"/>
-      <c r="Q12" s="48"/>
-      <c r="R12" s="48"/>
-      <c r="S12" s="51"/>
-      <c r="T12" s="50"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="32"/>
+      <c r="Q12" s="46"/>
+      <c r="R12" s="46"/>
+      <c r="S12" s="50"/>
+      <c r="T12" s="48"/>
+      <c r="V12" s="12"/>
+      <c r="W12" s="32"/>
+      <c r="X12" s="46"/>
+      <c r="Y12" s="46"/>
+      <c r="Z12" s="50"/>
+      <c r="AA12" s="48"/>
     </row>
-    <row r="13" ht="16.95" customHeight="1" spans="1:20">
+    <row r="13" ht="16.95" customHeight="1" spans="1:27">
       <c r="A13" s="18"/>
       <c r="B13" s="19"/>
       <c r="C13" s="19"/>
@@ -1806,20 +1968,26 @@
       <c r="K13" s="19"/>
       <c r="L13" s="23"/>
       <c r="M13" s="8"/>
-      <c r="O13" s="34"/>
-      <c r="P13" s="35"/>
-      <c r="Q13" s="35"/>
-      <c r="R13" s="35"/>
-      <c r="S13" s="35"/>
-      <c r="T13" s="52"/>
+      <c r="O13" s="18"/>
+      <c r="P13" s="33"/>
+      <c r="Q13" s="33"/>
+      <c r="R13" s="33"/>
+      <c r="S13" s="33"/>
+      <c r="T13" s="51"/>
+      <c r="V13" s="18"/>
+      <c r="W13" s="33"/>
+      <c r="X13" s="33"/>
+      <c r="Y13" s="33"/>
+      <c r="Z13" s="33"/>
+      <c r="AA13" s="51"/>
     </row>
-    <row r="14" ht="16.95" customHeight="1" spans="1:20">
+    <row r="14" ht="16.95" customHeight="1" spans="1:27">
       <c r="A14" s="12" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B14" s="13"/>
       <c r="C14" s="14" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D14" s="15"/>
       <c r="E14" s="24">
@@ -1827,27 +1995,39 @@
       </c>
       <c r="F14" s="8"/>
       <c r="H14" s="12" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I14" s="13"/>
       <c r="J14" s="14" t="s">
         <v>11</v>
       </c>
       <c r="K14" s="15"/>
-      <c r="L14" s="36">
+      <c r="L14" s="34">
         <v>0.8</v>
       </c>
       <c r="M14" s="8"/>
-      <c r="O14" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="P14" s="31"/>
-      <c r="Q14" s="55"/>
-      <c r="R14" s="56"/>
-      <c r="S14" s="57"/>
+      <c r="O14" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="P14" s="30"/>
+      <c r="Q14" s="56"/>
+      <c r="R14" s="57"/>
+      <c r="S14" s="58"/>
       <c r="T14" s="8"/>
+      <c r="V14" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="W14" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="X14" s="56" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y14" s="57"/>
+      <c r="Z14" s="58"/>
+      <c r="AA14" s="8"/>
     </row>
-    <row r="15" ht="16.95" customHeight="1" spans="1:20">
+    <row r="15" ht="16.95" customHeight="1" spans="1:27">
       <c r="A15" s="12"/>
       <c r="B15" s="13"/>
       <c r="C15" s="15"/>
@@ -1860,14 +2040,20 @@
       <c r="K15" s="15"/>
       <c r="L15" s="22"/>
       <c r="M15" s="8"/>
-      <c r="O15" s="30"/>
-      <c r="P15" s="33"/>
-      <c r="Q15" s="48"/>
-      <c r="R15" s="48"/>
-      <c r="S15" s="54"/>
-      <c r="T15" s="50"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="32"/>
+      <c r="Q15" s="46"/>
+      <c r="R15" s="46"/>
+      <c r="S15" s="55"/>
+      <c r="T15" s="48"/>
+      <c r="V15" s="12"/>
+      <c r="W15" s="32"/>
+      <c r="X15" s="46"/>
+      <c r="Y15" s="46"/>
+      <c r="Z15" s="55"/>
+      <c r="AA15" s="48"/>
     </row>
-    <row r="16" ht="16.95" customHeight="1" spans="1:20">
+    <row r="16" ht="16.95" customHeight="1" spans="1:27">
       <c r="A16" s="12"/>
       <c r="B16" s="13"/>
       <c r="C16" s="15"/>
@@ -1880,14 +2066,20 @@
       <c r="K16" s="15"/>
       <c r="L16" s="17"/>
       <c r="M16" s="8"/>
-      <c r="O16" s="30"/>
-      <c r="P16" s="33"/>
-      <c r="Q16" s="58"/>
-      <c r="R16" s="58"/>
-      <c r="S16" s="59"/>
-      <c r="T16" s="60"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="32"/>
+      <c r="Q16" s="59"/>
+      <c r="R16" s="59"/>
+      <c r="S16" s="60"/>
+      <c r="T16" s="61"/>
+      <c r="V16" s="12"/>
+      <c r="W16" s="32"/>
+      <c r="X16" s="59"/>
+      <c r="Y16" s="59"/>
+      <c r="Z16" s="60"/>
+      <c r="AA16" s="61"/>
     </row>
-    <row r="17" ht="16.95" customHeight="1" spans="1:20">
+    <row r="17" ht="16.95" customHeight="1" spans="1:27">
       <c r="A17" s="12"/>
       <c r="B17" s="13"/>
       <c r="C17" s="15"/>
@@ -1900,14 +2092,20 @@
       <c r="K17" s="15"/>
       <c r="L17" s="17"/>
       <c r="M17" s="8"/>
-      <c r="O17" s="30"/>
-      <c r="P17" s="33"/>
-      <c r="Q17" s="48"/>
-      <c r="R17" s="48"/>
-      <c r="S17" s="51"/>
-      <c r="T17" s="50"/>
+      <c r="O17" s="12"/>
+      <c r="P17" s="32"/>
+      <c r="Q17" s="46"/>
+      <c r="R17" s="46"/>
+      <c r="S17" s="50"/>
+      <c r="T17" s="48"/>
+      <c r="V17" s="12"/>
+      <c r="W17" s="32"/>
+      <c r="X17" s="46"/>
+      <c r="Y17" s="46"/>
+      <c r="Z17" s="50"/>
+      <c r="AA17" s="48"/>
     </row>
-    <row r="18" ht="16.95" customHeight="1" spans="1:20">
+    <row r="18" ht="16.95" customHeight="1" spans="1:27">
       <c r="A18" s="18"/>
       <c r="B18" s="19"/>
       <c r="C18" s="19"/>
@@ -1920,48 +2118,66 @@
       <c r="K18" s="19"/>
       <c r="L18" s="23"/>
       <c r="M18" s="8"/>
-      <c r="O18" s="34"/>
-      <c r="P18" s="35"/>
-      <c r="Q18" s="35"/>
-      <c r="R18" s="35"/>
-      <c r="S18" s="35"/>
-      <c r="T18" s="52"/>
+      <c r="O18" s="18"/>
+      <c r="P18" s="33"/>
+      <c r="Q18" s="33"/>
+      <c r="R18" s="33"/>
+      <c r="S18" s="33"/>
+      <c r="T18" s="51"/>
+      <c r="V18" s="18"/>
+      <c r="W18" s="33"/>
+      <c r="X18" s="33"/>
+      <c r="Y18" s="33"/>
+      <c r="Z18" s="33"/>
+      <c r="AA18" s="51"/>
     </row>
-    <row r="19" ht="16.95" customHeight="1" spans="1:20">
+    <row r="19" ht="16.95" customHeight="1" spans="1:27">
       <c r="A19" s="12" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B19" s="13"/>
       <c r="C19" s="25" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D19" s="25"/>
       <c r="E19" s="25"/>
       <c r="F19" s="8"/>
       <c r="H19" s="12" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I19" s="13"/>
-      <c r="J19" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="K19" s="37"/>
-      <c r="L19" s="37"/>
+      <c r="J19" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="K19" s="35"/>
+      <c r="L19" s="35"/>
       <c r="M19" s="8"/>
-      <c r="O19" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="P19" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q19" s="61" t="s">
-        <v>21</v>
-      </c>
-      <c r="R19" s="61"/>
-      <c r="S19" s="61"/>
+      <c r="O19" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="P19" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q19" s="62" t="s">
+        <v>28</v>
+      </c>
+      <c r="R19" s="62"/>
+      <c r="S19" s="62"/>
       <c r="T19" s="8"/>
+      <c r="V19" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="W19" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="X19" s="62" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y19" s="62"/>
+      <c r="Z19" s="62"/>
+      <c r="AA19" s="8"/>
     </row>
-    <row r="20" ht="16.95" customHeight="1" spans="1:20">
+    <row r="20" ht="16.95" customHeight="1" spans="1:27">
       <c r="A20" s="12"/>
       <c r="B20" s="13"/>
       <c r="C20" s="25"/>
@@ -1970,20 +2186,28 @@
       <c r="F20" s="8"/>
       <c r="H20" s="12"/>
       <c r="I20" s="13"/>
-      <c r="J20" s="37"/>
-      <c r="K20" s="37"/>
-      <c r="L20" s="37"/>
+      <c r="J20" s="35"/>
+      <c r="K20" s="35"/>
+      <c r="L20" s="35"/>
       <c r="M20" s="8"/>
-      <c r="O20" s="30"/>
-      <c r="P20" s="39" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q20" s="61"/>
-      <c r="R20" s="61"/>
-      <c r="S20" s="61"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q20" s="62"/>
+      <c r="R20" s="62"/>
+      <c r="S20" s="62"/>
       <c r="T20" s="8"/>
+      <c r="V20" s="12"/>
+      <c r="W20" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="X20" s="62"/>
+      <c r="Y20" s="62"/>
+      <c r="Z20" s="62"/>
+      <c r="AA20" s="8"/>
     </row>
-    <row r="21" ht="16.95" customHeight="1" spans="1:20">
+    <row r="21" ht="16.95" customHeight="1" spans="1:27">
       <c r="A21" s="12"/>
       <c r="B21" s="13"/>
       <c r="C21" s="25"/>
@@ -1992,18 +2216,24 @@
       <c r="F21" s="8"/>
       <c r="H21" s="12"/>
       <c r="I21" s="13"/>
-      <c r="J21" s="37"/>
-      <c r="K21" s="37"/>
-      <c r="L21" s="37"/>
+      <c r="J21" s="35"/>
+      <c r="K21" s="35"/>
+      <c r="L21" s="35"/>
       <c r="M21" s="8"/>
-      <c r="O21" s="30"/>
+      <c r="O21" s="12"/>
       <c r="P21" s="12"/>
-      <c r="Q21" s="61"/>
-      <c r="R21" s="61"/>
-      <c r="S21" s="61"/>
+      <c r="Q21" s="62"/>
+      <c r="R21" s="62"/>
+      <c r="S21" s="62"/>
       <c r="T21" s="8"/>
+      <c r="V21" s="12"/>
+      <c r="W21" s="12"/>
+      <c r="X21" s="62"/>
+      <c r="Y21" s="62"/>
+      <c r="Z21" s="62"/>
+      <c r="AA21" s="8"/>
     </row>
-    <row r="22" ht="16.95" customHeight="1" spans="1:20">
+    <row r="22" ht="16.95" customHeight="1" spans="1:27">
       <c r="A22" s="12"/>
       <c r="B22" s="13"/>
       <c r="C22" s="25"/>
@@ -2012,52 +2242,70 @@
       <c r="F22" s="8"/>
       <c r="H22" s="12"/>
       <c r="I22" s="13"/>
-      <c r="J22" s="37"/>
-      <c r="K22" s="37"/>
-      <c r="L22" s="37"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="35"/>
       <c r="M22" s="8"/>
-      <c r="O22" s="30"/>
+      <c r="O22" s="12"/>
       <c r="P22" s="12"/>
-      <c r="Q22" s="61"/>
-      <c r="R22" s="61"/>
-      <c r="S22" s="61"/>
+      <c r="Q22" s="62"/>
+      <c r="R22" s="62"/>
+      <c r="S22" s="62"/>
       <c r="T22" s="8"/>
+      <c r="V22" s="12"/>
+      <c r="W22" s="12"/>
+      <c r="X22" s="62"/>
+      <c r="Y22" s="62"/>
+      <c r="Z22" s="62"/>
+      <c r="AA22" s="8"/>
     </row>
-    <row r="23" ht="16.95" customHeight="1" spans="1:20">
+    <row r="23" ht="16.95" customHeight="1" spans="1:27">
       <c r="A23" s="12" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B23" s="13"/>
       <c r="C23" s="25" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="D23" s="25"/>
       <c r="E23" s="25"/>
       <c r="F23" s="8"/>
       <c r="H23" s="12" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="I23" s="13"/>
       <c r="J23" s="25" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="K23" s="25"/>
       <c r="L23" s="25"/>
       <c r="M23" s="8"/>
-      <c r="O23" s="40" t="s">
-        <v>23</v>
-      </c>
-      <c r="P23" s="41" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q23" s="62" t="s">
-        <v>27</v>
-      </c>
-      <c r="R23" s="62"/>
-      <c r="S23" s="62"/>
+      <c r="O23" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="P23" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q23" s="63" t="s">
+        <v>36</v>
+      </c>
+      <c r="R23" s="63"/>
+      <c r="S23" s="63"/>
       <c r="T23" s="8"/>
+      <c r="V23" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="W23" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="X23" s="63" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y23" s="63"/>
+      <c r="Z23" s="63"/>
+      <c r="AA23" s="8"/>
     </row>
-    <row r="24" ht="16.95" customHeight="1" spans="1:20">
+    <row r="24" ht="16.95" customHeight="1" spans="1:27">
       <c r="A24" s="12"/>
       <c r="B24" s="13"/>
       <c r="C24" s="25"/>
@@ -2070,16 +2318,24 @@
       <c r="K24" s="25"/>
       <c r="L24" s="25"/>
       <c r="M24" s="8"/>
-      <c r="O24" s="42"/>
-      <c r="P24" s="43" t="s">
-        <v>28</v>
+      <c r="O24" s="40"/>
+      <c r="P24" s="41" t="s">
+        <v>38</v>
       </c>
       <c r="Q24" s="25"/>
       <c r="R24" s="25"/>
       <c r="S24" s="25"/>
       <c r="T24" s="8"/>
+      <c r="V24" s="40"/>
+      <c r="W24" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="X24" s="25"/>
+      <c r="Y24" s="25"/>
+      <c r="Z24" s="25"/>
+      <c r="AA24" s="8"/>
     </row>
-    <row r="25" ht="16.95" customHeight="1" spans="1:20">
+    <row r="25" ht="16.95" customHeight="1" spans="1:27">
       <c r="A25" s="12"/>
       <c r="B25" s="13"/>
       <c r="C25" s="25"/>
@@ -2092,14 +2348,20 @@
       <c r="K25" s="25"/>
       <c r="L25" s="25"/>
       <c r="M25" s="8"/>
-      <c r="O25" s="42"/>
-      <c r="P25" s="44"/>
+      <c r="O25" s="40"/>
+      <c r="P25" s="42"/>
       <c r="Q25" s="25"/>
       <c r="R25" s="25"/>
       <c r="S25" s="25"/>
       <c r="T25" s="8"/>
+      <c r="V25" s="40"/>
+      <c r="W25" s="42"/>
+      <c r="X25" s="25"/>
+      <c r="Y25" s="25"/>
+      <c r="Z25" s="25"/>
+      <c r="AA25" s="8"/>
     </row>
-    <row r="26" ht="16.95" customHeight="1" spans="1:20">
+    <row r="26" ht="16.95" customHeight="1" spans="1:27">
       <c r="A26" s="26"/>
       <c r="B26" s="27"/>
       <c r="C26" s="28"/>
@@ -2112,74 +2374,103 @@
       <c r="K26" s="28"/>
       <c r="L26" s="28"/>
       <c r="M26" s="29"/>
-      <c r="O26" s="45"/>
-      <c r="P26" s="46"/>
+      <c r="O26" s="43"/>
+      <c r="P26" s="44"/>
       <c r="Q26" s="28"/>
       <c r="R26" s="28"/>
       <c r="S26" s="28"/>
       <c r="T26" s="29"/>
+      <c r="V26" s="43"/>
+      <c r="W26" s="44"/>
+      <c r="X26" s="28"/>
+      <c r="Y26" s="28"/>
+      <c r="Z26" s="28"/>
+      <c r="AA26" s="29"/>
     </row>
   </sheetData>
-  <mergeCells count="75">
+  <mergeCells count="100">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="H1:M1"/>
     <mergeCell ref="O1:T1"/>
+    <mergeCell ref="V1:AA1"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="O3:P3"/>
     <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="X3:Y3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="J4:K4"/>
     <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="X4:Y4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="J5:K5"/>
     <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="X5:Y5"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="X6:Y6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="X7:Y7"/>
     <mergeCell ref="A8:D8"/>
     <mergeCell ref="H8:K8"/>
     <mergeCell ref="O8:T8"/>
+    <mergeCell ref="V8:AA8"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="J9:K9"/>
     <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="X9:Y9"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="J10:K10"/>
     <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="X10:Y10"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="J11:K11"/>
     <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="X11:Y11"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="J12:K12"/>
     <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="X12:Y12"/>
     <mergeCell ref="A13:D13"/>
     <mergeCell ref="H13:K13"/>
     <mergeCell ref="O13:T13"/>
+    <mergeCell ref="V13:AA13"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="J14:K14"/>
     <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="X14:Y14"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="J15:K15"/>
     <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="X15:Y15"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="J16:K16"/>
     <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="X16:Y16"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="J17:K17"/>
     <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="X17:Y17"/>
     <mergeCell ref="A18:D18"/>
     <mergeCell ref="H18:K18"/>
     <mergeCell ref="O18:T18"/>
+    <mergeCell ref="V18:AA18"/>
     <mergeCell ref="O4:O7"/>
     <mergeCell ref="O9:O12"/>
     <mergeCell ref="O14:O17"/>
     <mergeCell ref="O19:O22"/>
     <mergeCell ref="O23:O26"/>
+    <mergeCell ref="V4:V7"/>
+    <mergeCell ref="V9:V12"/>
+    <mergeCell ref="V14:V17"/>
+    <mergeCell ref="V19:V22"/>
+    <mergeCell ref="V23:V26"/>
     <mergeCell ref="H19:I22"/>
     <mergeCell ref="J19:L22"/>
     <mergeCell ref="H23:I26"/>
@@ -2192,7 +2483,9 @@
     <mergeCell ref="A14:B17"/>
     <mergeCell ref="A4:B7"/>
     <mergeCell ref="C19:E22"/>
+    <mergeCell ref="X19:Z22"/>
     <mergeCell ref="C23:E26"/>
+    <mergeCell ref="X23:Z26"/>
     <mergeCell ref="A19:B22"/>
     <mergeCell ref="Q19:S22"/>
     <mergeCell ref="Q23:S26"/>

--- a/学习日志.xlsx
+++ b/学习日志.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="47">
   <si>
     <t>学习日志记录表</t>
   </si>
@@ -60,6 +60,9 @@
     <t>8点~11点</t>
   </si>
   <si>
+    <t>上午有事情</t>
+  </si>
+  <si>
     <t>2.seata 复习与笔记整理</t>
   </si>
   <si>
@@ -78,6 +81,12 @@
     <t>1.Apollo，zipkin持久化与优化，bus消息总线</t>
   </si>
   <si>
+    <t>16~18</t>
+  </si>
+  <si>
+    <t>1.完成了网约车第47节</t>
+  </si>
+  <si>
     <t>晚上</t>
   </si>
   <si>
@@ -88,6 +97,12 @@
   </si>
   <si>
     <t>1.完成网约车的计价，派单，订单状态</t>
+  </si>
+  <si>
+    <t>21~24</t>
+  </si>
+  <si>
+    <t>1.完成到网约车第53节</t>
   </si>
   <si>
     <t>今日总结</t>
@@ -108,6 +123,9 @@
   </si>
   <si>
     <t>1.完成了三天前的任务</t>
+  </si>
+  <si>
+    <t>1.没有达到预期效果，凌晨加班，干</t>
   </si>
   <si>
     <t>1小时</t>
@@ -140,7 +158,15 @@
     <t>1.完成到网约车第71节去</t>
   </si>
   <si>
+    <t>1.直接干完网约车
+2.制作简历，尚医宝
+3.提交简历优化</t>
+  </si>
+  <si>
     <t>10小时</t>
+  </si>
+  <si>
+    <t>16小时</t>
   </si>
 </sst>
 </file>
@@ -148,11 +174,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -177,14 +203,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -193,7 +211,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -201,45 +219,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -275,9 +255,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -293,7 +302,31 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -308,13 +341,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -396,163 +422,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -701,6 +727,39 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -711,6 +770,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -733,56 +807,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -805,10 +831,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -817,137 +843,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1145,6 +1171,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="10" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1494,10 +1532,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AA26"/>
+  <dimension ref="A1:AH26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S7" workbookViewId="0">
-      <selection activeCell="AC23" sqref="AC23"/>
+    <sheetView tabSelected="1" topLeftCell="X7" workbookViewId="0">
+      <selection activeCell="AE19" sqref="AE19:AG22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1511,9 +1549,12 @@
     <col min="23" max="23" width="9.66666666666667"/>
     <col min="24" max="25" width="20.7777777777778" customWidth="1"/>
     <col min="27" max="27" width="15.7777777777778" customWidth="1"/>
+    <col min="30" max="30" width="9.66666666666667"/>
+    <col min="31" max="32" width="20.7777777777778" customWidth="1"/>
+    <col min="34" max="34" width="15.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="30" customHeight="1" spans="1:27">
+    <row r="1" ht="30" customHeight="1" spans="1:34">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1546,8 +1587,16 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
       <c r="AA1" s="3"/>
+      <c r="AC1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="3"/>
     </row>
-    <row r="2" ht="16.95" customHeight="1" spans="1:27">
+    <row r="2" ht="16.95" customHeight="1" spans="1:34">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1612,8 +1661,24 @@
         <v>4</v>
       </c>
       <c r="AA2" s="8"/>
+      <c r="AC2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF2" s="7">
+        <v>44736</v>
+      </c>
+      <c r="AG2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AH2" s="8"/>
     </row>
-    <row r="3" ht="16.95" customHeight="1" spans="1:27">
+    <row r="3" ht="16.95" customHeight="1" spans="1:34">
       <c r="A3" s="9" t="s">
         <v>5</v>
       </c>
@@ -1670,8 +1735,22 @@
       <c r="AA3" s="11" t="s">
         <v>8</v>
       </c>
+      <c r="AC3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD3" s="10"/>
+      <c r="AE3" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF3" s="10"/>
+      <c r="AG3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH3" s="11" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="4" ht="16.95" customHeight="1" spans="1:27">
+    <row r="4" ht="16.95" customHeight="1" spans="1:34">
       <c r="A4" s="12" t="s">
         <v>9</v>
       </c>
@@ -1724,12 +1803,22 @@
         <v>1</v>
       </c>
       <c r="AA4" s="8"/>
+      <c r="AC4" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD4" s="30"/>
+      <c r="AE4" s="14"/>
+      <c r="AF4" s="15"/>
+      <c r="AG4" s="67"/>
+      <c r="AH4" s="8" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="5" ht="16.95" customHeight="1" spans="1:27">
+    <row r="5" ht="16.95" customHeight="1" spans="1:34">
       <c r="A5" s="12"/>
       <c r="B5" s="13"/>
       <c r="C5" s="14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D5" s="15"/>
       <c r="E5" s="16">
@@ -1750,16 +1839,22 @@
       <c r="T5" s="48"/>
       <c r="V5" s="12"/>
       <c r="W5" s="32" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="X5" s="49" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Y5" s="46"/>
       <c r="Z5" s="47"/>
       <c r="AA5" s="48"/>
+      <c r="AC5" s="12"/>
+      <c r="AD5" s="32"/>
+      <c r="AE5" s="49"/>
+      <c r="AF5" s="46"/>
+      <c r="AG5" s="47"/>
+      <c r="AH5" s="48"/>
     </row>
-    <row r="6" ht="16.95" customHeight="1" spans="1:27">
+    <row r="6" ht="16.95" customHeight="1" spans="1:34">
       <c r="A6" s="12"/>
       <c r="B6" s="13"/>
       <c r="C6" s="15"/>
@@ -1784,8 +1879,14 @@
       <c r="Y6" s="65"/>
       <c r="Z6" s="50"/>
       <c r="AA6" s="48"/>
+      <c r="AC6" s="12"/>
+      <c r="AD6" s="32"/>
+      <c r="AE6" s="46"/>
+      <c r="AF6" s="65"/>
+      <c r="AG6" s="50"/>
+      <c r="AH6" s="48"/>
     </row>
-    <row r="7" ht="16.95" customHeight="1" spans="1:27">
+    <row r="7" ht="16.95" customHeight="1" spans="1:34">
       <c r="A7" s="12"/>
       <c r="B7" s="13"/>
       <c r="C7" s="15"/>
@@ -1810,8 +1911,14 @@
       <c r="Y7" s="46"/>
       <c r="Z7" s="50"/>
       <c r="AA7" s="48"/>
+      <c r="AC7" s="12"/>
+      <c r="AD7" s="32"/>
+      <c r="AE7" s="46"/>
+      <c r="AF7" s="46"/>
+      <c r="AG7" s="50"/>
+      <c r="AH7" s="48"/>
     </row>
-    <row r="8" ht="16.95" customHeight="1" spans="1:27">
+    <row r="8" ht="16.95" customHeight="1" spans="1:34">
       <c r="A8" s="18"/>
       <c r="B8" s="19"/>
       <c r="C8" s="19"/>
@@ -1836,10 +1943,16 @@
       <c r="Y8" s="33"/>
       <c r="Z8" s="33"/>
       <c r="AA8" s="51"/>
+      <c r="AC8" s="18"/>
+      <c r="AD8" s="33"/>
+      <c r="AE8" s="52"/>
+      <c r="AF8" s="33"/>
+      <c r="AG8" s="33"/>
+      <c r="AH8" s="51"/>
     </row>
-    <row r="9" ht="16.95" customHeight="1" spans="1:27">
+    <row r="9" ht="16.95" customHeight="1" spans="1:34">
       <c r="A9" s="12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B9" s="13"/>
       <c r="C9" s="15"/>
@@ -1847,7 +1960,7 @@
       <c r="E9" s="22"/>
       <c r="F9" s="8"/>
       <c r="H9" s="12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I9" s="13"/>
       <c r="J9" s="14"/>
@@ -1855,7 +1968,7 @@
       <c r="L9" s="22"/>
       <c r="M9" s="8"/>
       <c r="O9" s="12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="P9" s="30"/>
       <c r="Q9" s="14"/>
@@ -1863,21 +1976,35 @@
       <c r="S9" s="53"/>
       <c r="T9" s="8"/>
       <c r="V9" s="12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="W9" s="54" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="X9" s="49" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Y9" s="46"/>
       <c r="Z9" s="64">
         <v>1</v>
       </c>
       <c r="AA9" s="8"/>
+      <c r="AC9" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD9" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE9" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF9" s="46"/>
+      <c r="AG9" s="68">
+        <v>0.2</v>
+      </c>
+      <c r="AH9" s="8"/>
     </row>
-    <row r="10" ht="16.95" customHeight="1" spans="1:27">
+    <row r="10" ht="16.95" customHeight="1" spans="1:34">
       <c r="A10" s="12"/>
       <c r="B10" s="13"/>
       <c r="C10" s="15"/>
@@ -1902,8 +2029,14 @@
       <c r="Y10" s="46"/>
       <c r="Z10" s="55"/>
       <c r="AA10" s="48"/>
+      <c r="AC10" s="12"/>
+      <c r="AD10" s="32"/>
+      <c r="AE10" s="46"/>
+      <c r="AF10" s="46"/>
+      <c r="AG10" s="55"/>
+      <c r="AH10" s="48"/>
     </row>
-    <row r="11" ht="16.95" customHeight="1" spans="1:27">
+    <row r="11" ht="16.95" customHeight="1" spans="1:34">
       <c r="A11" s="12"/>
       <c r="B11" s="13"/>
       <c r="C11" s="15"/>
@@ -1928,8 +2061,14 @@
       <c r="Y11" s="46"/>
       <c r="Z11" s="50"/>
       <c r="AA11" s="48"/>
+      <c r="AC11" s="12"/>
+      <c r="AD11" s="32"/>
+      <c r="AE11" s="46"/>
+      <c r="AF11" s="46"/>
+      <c r="AG11" s="50"/>
+      <c r="AH11" s="48"/>
     </row>
-    <row r="12" ht="16.95" customHeight="1" spans="1:27">
+    <row r="12" ht="16.95" customHeight="1" spans="1:34">
       <c r="A12" s="12"/>
       <c r="B12" s="13"/>
       <c r="C12" s="15"/>
@@ -1954,8 +2093,14 @@
       <c r="Y12" s="46"/>
       <c r="Z12" s="50"/>
       <c r="AA12" s="48"/>
+      <c r="AC12" s="12"/>
+      <c r="AD12" s="32"/>
+      <c r="AE12" s="46"/>
+      <c r="AF12" s="46"/>
+      <c r="AG12" s="50"/>
+      <c r="AH12" s="48"/>
     </row>
-    <row r="13" ht="16.95" customHeight="1" spans="1:27">
+    <row r="13" ht="16.95" customHeight="1" spans="1:34">
       <c r="A13" s="18"/>
       <c r="B13" s="19"/>
       <c r="C13" s="19"/>
@@ -1980,14 +2125,20 @@
       <c r="Y13" s="33"/>
       <c r="Z13" s="33"/>
       <c r="AA13" s="51"/>
+      <c r="AC13" s="18"/>
+      <c r="AD13" s="33"/>
+      <c r="AE13" s="33"/>
+      <c r="AF13" s="33"/>
+      <c r="AG13" s="33"/>
+      <c r="AH13" s="51"/>
     </row>
-    <row r="14" ht="16.95" customHeight="1" spans="1:27">
+    <row r="14" ht="16.95" customHeight="1" spans="1:34">
       <c r="A14" s="12" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B14" s="13"/>
       <c r="C14" s="14" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D14" s="15"/>
       <c r="E14" s="24">
@@ -1995,7 +2146,7 @@
       </c>
       <c r="F14" s="8"/>
       <c r="H14" s="12" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I14" s="13"/>
       <c r="J14" s="14" t="s">
@@ -2007,7 +2158,7 @@
       </c>
       <c r="M14" s="8"/>
       <c r="O14" s="12" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="P14" s="30"/>
       <c r="Q14" s="56"/>
@@ -2015,19 +2166,33 @@
       <c r="S14" s="58"/>
       <c r="T14" s="8"/>
       <c r="V14" s="12" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="W14" s="30" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="X14" s="56" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Y14" s="57"/>
       <c r="Z14" s="58"/>
       <c r="AA14" s="8"/>
+      <c r="AC14" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD14" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE14" s="56" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF14" s="57"/>
+      <c r="AG14" s="69">
+        <v>0.3</v>
+      </c>
+      <c r="AH14" s="8"/>
     </row>
-    <row r="15" ht="16.95" customHeight="1" spans="1:27">
+    <row r="15" ht="16.95" customHeight="1" spans="1:34">
       <c r="A15" s="12"/>
       <c r="B15" s="13"/>
       <c r="C15" s="15"/>
@@ -2052,8 +2217,14 @@
       <c r="Y15" s="46"/>
       <c r="Z15" s="55"/>
       <c r="AA15" s="48"/>
+      <c r="AC15" s="12"/>
+      <c r="AD15" s="32"/>
+      <c r="AE15" s="46"/>
+      <c r="AF15" s="46"/>
+      <c r="AG15" s="55"/>
+      <c r="AH15" s="48"/>
     </row>
-    <row r="16" ht="16.95" customHeight="1" spans="1:27">
+    <row r="16" ht="16.95" customHeight="1" spans="1:34">
       <c r="A16" s="12"/>
       <c r="B16" s="13"/>
       <c r="C16" s="15"/>
@@ -2078,8 +2249,14 @@
       <c r="Y16" s="59"/>
       <c r="Z16" s="60"/>
       <c r="AA16" s="61"/>
+      <c r="AC16" s="12"/>
+      <c r="AD16" s="32"/>
+      <c r="AE16" s="59"/>
+      <c r="AF16" s="59"/>
+      <c r="AG16" s="60"/>
+      <c r="AH16" s="61"/>
     </row>
-    <row r="17" ht="16.95" customHeight="1" spans="1:27">
+    <row r="17" ht="16.95" customHeight="1" spans="1:34">
       <c r="A17" s="12"/>
       <c r="B17" s="13"/>
       <c r="C17" s="15"/>
@@ -2104,8 +2281,14 @@
       <c r="Y17" s="46"/>
       <c r="Z17" s="50"/>
       <c r="AA17" s="48"/>
+      <c r="AC17" s="12"/>
+      <c r="AD17" s="32"/>
+      <c r="AE17" s="46"/>
+      <c r="AF17" s="46"/>
+      <c r="AG17" s="50"/>
+      <c r="AH17" s="48"/>
     </row>
-    <row r="18" ht="16.95" customHeight="1" spans="1:27">
+    <row r="18" ht="16.95" customHeight="1" spans="1:34">
       <c r="A18" s="18"/>
       <c r="B18" s="19"/>
       <c r="C18" s="19"/>
@@ -2130,54 +2313,72 @@
       <c r="Y18" s="33"/>
       <c r="Z18" s="33"/>
       <c r="AA18" s="51"/>
+      <c r="AC18" s="18"/>
+      <c r="AD18" s="33"/>
+      <c r="AE18" s="33"/>
+      <c r="AF18" s="33"/>
+      <c r="AG18" s="33"/>
+      <c r="AH18" s="51"/>
     </row>
-    <row r="19" ht="16.95" customHeight="1" spans="1:27">
+    <row r="19" ht="16.95" customHeight="1" spans="1:34">
       <c r="A19" s="12" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B19" s="13"/>
       <c r="C19" s="25" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D19" s="25"/>
       <c r="E19" s="25"/>
       <c r="F19" s="8"/>
       <c r="H19" s="12" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="I19" s="13"/>
       <c r="J19" s="35" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="K19" s="35"/>
       <c r="L19" s="35"/>
       <c r="M19" s="8"/>
       <c r="O19" s="12" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="P19" s="36" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="Q19" s="62" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="R19" s="62"/>
       <c r="S19" s="62"/>
       <c r="T19" s="8"/>
       <c r="V19" s="12" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="W19" s="36" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="X19" s="62" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Y19" s="62"/>
       <c r="Z19" s="62"/>
       <c r="AA19" s="8"/>
+      <c r="AC19" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD19" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE19" s="66" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF19" s="66"/>
+      <c r="AG19" s="66"/>
+      <c r="AH19" s="8"/>
     </row>
-    <row r="20" ht="16.95" customHeight="1" spans="1:27">
+    <row r="20" ht="16.95" customHeight="1" spans="1:34">
       <c r="A20" s="12"/>
       <c r="B20" s="13"/>
       <c r="C20" s="25"/>
@@ -2192,7 +2393,7 @@
       <c r="M20" s="8"/>
       <c r="O20" s="12"/>
       <c r="P20" s="37" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="Q20" s="62"/>
       <c r="R20" s="62"/>
@@ -2200,14 +2401,22 @@
       <c r="T20" s="8"/>
       <c r="V20" s="12"/>
       <c r="W20" s="37" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="X20" s="62"/>
       <c r="Y20" s="62"/>
       <c r="Z20" s="62"/>
       <c r="AA20" s="8"/>
+      <c r="AC20" s="12"/>
+      <c r="AD20" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE20" s="66"/>
+      <c r="AF20" s="66"/>
+      <c r="AG20" s="66"/>
+      <c r="AH20" s="8"/>
     </row>
-    <row r="21" ht="16.95" customHeight="1" spans="1:27">
+    <row r="21" ht="16.95" customHeight="1" spans="1:34">
       <c r="A21" s="12"/>
       <c r="B21" s="13"/>
       <c r="C21" s="25"/>
@@ -2232,8 +2441,14 @@
       <c r="Y21" s="62"/>
       <c r="Z21" s="62"/>
       <c r="AA21" s="8"/>
+      <c r="AC21" s="12"/>
+      <c r="AD21" s="12"/>
+      <c r="AE21" s="66"/>
+      <c r="AF21" s="66"/>
+      <c r="AG21" s="66"/>
+      <c r="AH21" s="8"/>
     </row>
-    <row r="22" ht="16.95" customHeight="1" spans="1:27">
+    <row r="22" ht="16.95" customHeight="1" spans="1:34">
       <c r="A22" s="12"/>
       <c r="B22" s="13"/>
       <c r="C22" s="25"/>
@@ -2258,54 +2473,72 @@
       <c r="Y22" s="62"/>
       <c r="Z22" s="62"/>
       <c r="AA22" s="8"/>
+      <c r="AC22" s="12"/>
+      <c r="AD22" s="12"/>
+      <c r="AE22" s="66"/>
+      <c r="AF22" s="66"/>
+      <c r="AG22" s="66"/>
+      <c r="AH22" s="8"/>
     </row>
-    <row r="23" ht="16.95" customHeight="1" spans="1:27">
+    <row r="23" ht="16.95" customHeight="1" spans="1:34">
       <c r="A23" s="12" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B23" s="13"/>
       <c r="C23" s="25" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D23" s="25"/>
       <c r="E23" s="25"/>
       <c r="F23" s="8"/>
       <c r="H23" s="12" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="I23" s="13"/>
       <c r="J23" s="25" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="K23" s="25"/>
       <c r="L23" s="25"/>
       <c r="M23" s="8"/>
       <c r="O23" s="38" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="P23" s="39" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="Q23" s="63" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="R23" s="63"/>
       <c r="S23" s="63"/>
       <c r="T23" s="8"/>
       <c r="V23" s="38" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="W23" s="39" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="X23" s="63" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="Y23" s="63"/>
       <c r="Z23" s="63"/>
       <c r="AA23" s="8"/>
+      <c r="AC23" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD23" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE23" s="63" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF23" s="63"/>
+      <c r="AG23" s="63"/>
+      <c r="AH23" s="8"/>
     </row>
-    <row r="24" ht="16.95" customHeight="1" spans="1:27">
+    <row r="24" ht="16.95" customHeight="1" spans="1:34">
       <c r="A24" s="12"/>
       <c r="B24" s="13"/>
       <c r="C24" s="25"/>
@@ -2320,7 +2553,7 @@
       <c r="M24" s="8"/>
       <c r="O24" s="40"/>
       <c r="P24" s="41" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="Q24" s="25"/>
       <c r="R24" s="25"/>
@@ -2328,14 +2561,22 @@
       <c r="T24" s="8"/>
       <c r="V24" s="40"/>
       <c r="W24" s="41" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="X24" s="25"/>
       <c r="Y24" s="25"/>
       <c r="Z24" s="25"/>
       <c r="AA24" s="8"/>
+      <c r="AC24" s="40"/>
+      <c r="AD24" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE24" s="25"/>
+      <c r="AF24" s="25"/>
+      <c r="AG24" s="25"/>
+      <c r="AH24" s="8"/>
     </row>
-    <row r="25" ht="16.95" customHeight="1" spans="1:27">
+    <row r="25" ht="16.95" customHeight="1" spans="1:34">
       <c r="A25" s="12"/>
       <c r="B25" s="13"/>
       <c r="C25" s="25"/>
@@ -2360,8 +2601,14 @@
       <c r="Y25" s="25"/>
       <c r="Z25" s="25"/>
       <c r="AA25" s="8"/>
+      <c r="AC25" s="40"/>
+      <c r="AD25" s="42"/>
+      <c r="AE25" s="25"/>
+      <c r="AF25" s="25"/>
+      <c r="AG25" s="25"/>
+      <c r="AH25" s="8"/>
     </row>
-    <row r="26" ht="16.95" customHeight="1" spans="1:27">
+    <row r="26" ht="16.95" customHeight="1" spans="1:34">
       <c r="A26" s="26"/>
       <c r="B26" s="27"/>
       <c r="C26" s="28"/>
@@ -2386,13 +2633,20 @@
       <c r="Y26" s="28"/>
       <c r="Z26" s="28"/>
       <c r="AA26" s="29"/>
+      <c r="AC26" s="43"/>
+      <c r="AD26" s="44"/>
+      <c r="AE26" s="28"/>
+      <c r="AF26" s="28"/>
+      <c r="AG26" s="28"/>
+      <c r="AH26" s="29"/>
     </row>
   </sheetData>
-  <mergeCells count="100">
+  <mergeCells count="125">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="H1:M1"/>
     <mergeCell ref="O1:T1"/>
     <mergeCell ref="V1:AA1"/>
+    <mergeCell ref="AC1:AH1"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="H3:I3"/>
@@ -2401,66 +2655,83 @@
     <mergeCell ref="Q3:R3"/>
     <mergeCell ref="V3:W3"/>
     <mergeCell ref="X3:Y3"/>
+    <mergeCell ref="AC3:AD3"/>
+    <mergeCell ref="AE3:AF3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="J4:K4"/>
     <mergeCell ref="Q4:R4"/>
     <mergeCell ref="X4:Y4"/>
+    <mergeCell ref="AE4:AF4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="J5:K5"/>
     <mergeCell ref="Q5:R5"/>
     <mergeCell ref="X5:Y5"/>
+    <mergeCell ref="AE5:AF5"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="Q6:R6"/>
     <mergeCell ref="X6:Y6"/>
+    <mergeCell ref="AE6:AF6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="Q7:R7"/>
     <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="AE7:AF7"/>
     <mergeCell ref="A8:D8"/>
     <mergeCell ref="H8:K8"/>
     <mergeCell ref="O8:T8"/>
     <mergeCell ref="V8:AA8"/>
+    <mergeCell ref="AC8:AH8"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="J9:K9"/>
     <mergeCell ref="Q9:R9"/>
     <mergeCell ref="X9:Y9"/>
+    <mergeCell ref="AE9:AF9"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="J10:K10"/>
     <mergeCell ref="Q10:R10"/>
     <mergeCell ref="X10:Y10"/>
+    <mergeCell ref="AE10:AF10"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="J11:K11"/>
     <mergeCell ref="Q11:R11"/>
     <mergeCell ref="X11:Y11"/>
+    <mergeCell ref="AE11:AF11"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="J12:K12"/>
     <mergeCell ref="Q12:R12"/>
     <mergeCell ref="X12:Y12"/>
+    <mergeCell ref="AE12:AF12"/>
     <mergeCell ref="A13:D13"/>
     <mergeCell ref="H13:K13"/>
     <mergeCell ref="O13:T13"/>
     <mergeCell ref="V13:AA13"/>
+    <mergeCell ref="AC13:AH13"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="J14:K14"/>
     <mergeCell ref="Q14:R14"/>
     <mergeCell ref="X14:Y14"/>
+    <mergeCell ref="AE14:AF14"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="J15:K15"/>
     <mergeCell ref="Q15:R15"/>
     <mergeCell ref="X15:Y15"/>
+    <mergeCell ref="AE15:AF15"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="J16:K16"/>
     <mergeCell ref="Q16:R16"/>
     <mergeCell ref="X16:Y16"/>
+    <mergeCell ref="AE16:AF16"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="J17:K17"/>
     <mergeCell ref="Q17:R17"/>
     <mergeCell ref="X17:Y17"/>
+    <mergeCell ref="AE17:AF17"/>
     <mergeCell ref="A18:D18"/>
     <mergeCell ref="H18:K18"/>
     <mergeCell ref="O18:T18"/>
     <mergeCell ref="V18:AA18"/>
+    <mergeCell ref="AC18:AH18"/>
     <mergeCell ref="O4:O7"/>
     <mergeCell ref="O9:O12"/>
     <mergeCell ref="O14:O17"/>
@@ -2471,10 +2742,17 @@
     <mergeCell ref="V14:V17"/>
     <mergeCell ref="V19:V22"/>
     <mergeCell ref="V23:V26"/>
+    <mergeCell ref="AC4:AC7"/>
+    <mergeCell ref="AC9:AC12"/>
+    <mergeCell ref="AC14:AC17"/>
+    <mergeCell ref="AC19:AC22"/>
+    <mergeCell ref="AC23:AC26"/>
     <mergeCell ref="H19:I22"/>
     <mergeCell ref="J19:L22"/>
+    <mergeCell ref="AE19:AG22"/>
     <mergeCell ref="H23:I26"/>
     <mergeCell ref="J23:L26"/>
+    <mergeCell ref="AE23:AG26"/>
     <mergeCell ref="H14:I17"/>
     <mergeCell ref="H9:I12"/>
     <mergeCell ref="H4:I7"/>

--- a/学习日志.xlsx
+++ b/学习日志.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="53">
   <si>
     <t>学习日志记录表</t>
   </si>
@@ -63,6 +63,15 @@
     <t>上午有事情</t>
   </si>
   <si>
+    <t>0~2:30</t>
+  </si>
+  <si>
+    <t>1.完成到网约车第57节</t>
+  </si>
+  <si>
+    <t>凌晨加班</t>
+  </si>
+  <si>
     <t>2.seata 复习与笔记整理</t>
   </si>
   <si>
@@ -72,6 +81,12 @@
     <t>2.Apollo，zipkin持久化与优化</t>
   </si>
   <si>
+    <t>8~13</t>
+  </si>
+  <si>
+    <t>2.完成到网约车第60节，笔记制作</t>
+  </si>
+  <si>
     <t>下午</t>
   </si>
   <si>
@@ -103,6 +118,9 @@
   </si>
   <si>
     <t>1.完成到网约车第53节</t>
+  </si>
+  <si>
+    <t>1.完成到网约车第64节，网关，坐标系</t>
   </si>
   <si>
     <t>今日总结</t>
@@ -174,11 +192,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -204,14 +222,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -219,14 +237,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -241,76 +274,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -332,22 +296,76 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="41">
+  <fills count="44">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -362,7 +380,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399945066682943"/>
+        <fgColor theme="6" tint="0.399914548173467"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -410,7 +428,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.6"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -422,169 +440,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -726,17 +762,28 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -746,15 +793,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -789,16 +827,25 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -812,17 +859,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -831,10 +867,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -843,137 +879,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="37" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="37" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1175,10 +1211,19 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="10" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="10" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1532,10 +1577,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AH26"/>
+  <dimension ref="A1:AO26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X7" workbookViewId="0">
-      <selection activeCell="AE19" sqref="AE19:AG22"/>
+    <sheetView tabSelected="1" topLeftCell="AE1" workbookViewId="0">
+      <selection activeCell="AL23" sqref="AL23:AN26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1552,9 +1597,12 @@
     <col min="30" max="30" width="9.66666666666667"/>
     <col min="31" max="32" width="20.7777777777778" customWidth="1"/>
     <col min="34" max="34" width="15.7777777777778" customWidth="1"/>
+    <col min="37" max="37" width="9.66666666666667"/>
+    <col min="38" max="39" width="20.7777777777778" customWidth="1"/>
+    <col min="41" max="41" width="15.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="30" customHeight="1" spans="1:34">
+    <row r="1" ht="30" customHeight="1" spans="1:41">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1595,8 +1643,16 @@
       <c r="AF1" s="2"/>
       <c r="AG1" s="2"/>
       <c r="AH1" s="3"/>
+      <c r="AJ1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="2"/>
+      <c r="AM1" s="2"/>
+      <c r="AN1" s="2"/>
+      <c r="AO1" s="3"/>
     </row>
-    <row r="2" ht="16.95" customHeight="1" spans="1:34">
+    <row r="2" ht="16.95" customHeight="1" spans="1:41">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1677,8 +1733,24 @@
         <v>4</v>
       </c>
       <c r="AH2" s="8"/>
+      <c r="AJ2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM2" s="7">
+        <v>44737</v>
+      </c>
+      <c r="AN2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AO2" s="8"/>
     </row>
-    <row r="3" ht="16.95" customHeight="1" spans="1:34">
+    <row r="3" ht="16.95" customHeight="1" spans="1:41">
       <c r="A3" s="9" t="s">
         <v>5</v>
       </c>
@@ -1749,8 +1821,22 @@
       <c r="AH3" s="11" t="s">
         <v>8</v>
       </c>
+      <c r="AJ3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK3" s="10"/>
+      <c r="AL3" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="AM3" s="10"/>
+      <c r="AN3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="AO3" s="11" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="4" ht="16.95" customHeight="1" spans="1:34">
+    <row r="4" ht="16.95" customHeight="1" spans="1:41">
       <c r="A4" s="12" t="s">
         <v>9</v>
       </c>
@@ -1813,12 +1899,28 @@
       <c r="AH4" s="8" t="s">
         <v>14</v>
       </c>
+      <c r="AJ4" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="AK4" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="AL4" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="AM4" s="15"/>
+      <c r="AN4" s="68">
+        <v>0.57</v>
+      </c>
+      <c r="AO4" s="8" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="5" ht="16.95" customHeight="1" spans="1:34">
+    <row r="5" ht="16.95" customHeight="1" spans="1:41">
       <c r="A5" s="12"/>
       <c r="B5" s="13"/>
       <c r="C5" s="14" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D5" s="15"/>
       <c r="E5" s="16">
@@ -1839,10 +1941,10 @@
       <c r="T5" s="48"/>
       <c r="V5" s="12"/>
       <c r="W5" s="32" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="X5" s="49" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="Y5" s="46"/>
       <c r="Z5" s="47"/>
@@ -1853,8 +1955,20 @@
       <c r="AF5" s="46"/>
       <c r="AG5" s="47"/>
       <c r="AH5" s="48"/>
+      <c r="AJ5" s="12"/>
+      <c r="AK5" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="AL5" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="AM5" s="46"/>
+      <c r="AN5" s="69">
+        <v>0.6</v>
+      </c>
+      <c r="AO5" s="48"/>
     </row>
-    <row r="6" ht="16.95" customHeight="1" spans="1:34">
+    <row r="6" ht="16.95" customHeight="1" spans="1:41">
       <c r="A6" s="12"/>
       <c r="B6" s="13"/>
       <c r="C6" s="15"/>
@@ -1885,8 +1999,14 @@
       <c r="AF6" s="65"/>
       <c r="AG6" s="50"/>
       <c r="AH6" s="48"/>
+      <c r="AJ6" s="12"/>
+      <c r="AK6" s="32"/>
+      <c r="AL6" s="46"/>
+      <c r="AM6" s="65"/>
+      <c r="AN6" s="50"/>
+      <c r="AO6" s="48"/>
     </row>
-    <row r="7" ht="16.95" customHeight="1" spans="1:34">
+    <row r="7" ht="16.95" customHeight="1" spans="1:41">
       <c r="A7" s="12"/>
       <c r="B7" s="13"/>
       <c r="C7" s="15"/>
@@ -1917,8 +2037,14 @@
       <c r="AF7" s="46"/>
       <c r="AG7" s="50"/>
       <c r="AH7" s="48"/>
+      <c r="AJ7" s="12"/>
+      <c r="AK7" s="32"/>
+      <c r="AL7" s="46"/>
+      <c r="AM7" s="46"/>
+      <c r="AN7" s="50"/>
+      <c r="AO7" s="48"/>
     </row>
-    <row r="8" ht="16.95" customHeight="1" spans="1:34">
+    <row r="8" ht="16.95" customHeight="1" spans="1:41">
       <c r="A8" s="18"/>
       <c r="B8" s="19"/>
       <c r="C8" s="19"/>
@@ -1949,10 +2075,16 @@
       <c r="AF8" s="33"/>
       <c r="AG8" s="33"/>
       <c r="AH8" s="51"/>
+      <c r="AJ8" s="18"/>
+      <c r="AK8" s="33"/>
+      <c r="AL8" s="52"/>
+      <c r="AM8" s="33"/>
+      <c r="AN8" s="33"/>
+      <c r="AO8" s="51"/>
     </row>
-    <row r="9" ht="16.95" customHeight="1" spans="1:34">
+    <row r="9" ht="16.95" customHeight="1" spans="1:41">
       <c r="A9" s="12" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B9" s="13"/>
       <c r="C9" s="15"/>
@@ -1960,7 +2092,7 @@
       <c r="E9" s="22"/>
       <c r="F9" s="8"/>
       <c r="H9" s="12" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I9" s="13"/>
       <c r="J9" s="14"/>
@@ -1968,7 +2100,7 @@
       <c r="L9" s="22"/>
       <c r="M9" s="8"/>
       <c r="O9" s="12" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="P9" s="30"/>
       <c r="Q9" s="14"/>
@@ -1976,13 +2108,13 @@
       <c r="S9" s="53"/>
       <c r="T9" s="8"/>
       <c r="V9" s="12" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="W9" s="54" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="X9" s="49" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="Y9" s="46"/>
       <c r="Z9" s="64">
@@ -1990,21 +2122,29 @@
       </c>
       <c r="AA9" s="8"/>
       <c r="AC9" s="12" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="AD9" s="54" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AE9" s="49" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="AF9" s="46"/>
-      <c r="AG9" s="68">
+      <c r="AG9" s="70">
         <v>0.2</v>
       </c>
       <c r="AH9" s="8"/>
+      <c r="AJ9" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="AK9" s="54"/>
+      <c r="AL9" s="49"/>
+      <c r="AM9" s="46"/>
+      <c r="AN9" s="71"/>
+      <c r="AO9" s="8"/>
     </row>
-    <row r="10" ht="16.95" customHeight="1" spans="1:34">
+    <row r="10" ht="16.95" customHeight="1" spans="1:41">
       <c r="A10" s="12"/>
       <c r="B10" s="13"/>
       <c r="C10" s="15"/>
@@ -2035,8 +2175,14 @@
       <c r="AF10" s="46"/>
       <c r="AG10" s="55"/>
       <c r="AH10" s="48"/>
+      <c r="AJ10" s="12"/>
+      <c r="AK10" s="32"/>
+      <c r="AL10" s="46"/>
+      <c r="AM10" s="46"/>
+      <c r="AN10" s="55"/>
+      <c r="AO10" s="48"/>
     </row>
-    <row r="11" ht="16.95" customHeight="1" spans="1:34">
+    <row r="11" ht="16.95" customHeight="1" spans="1:41">
       <c r="A11" s="12"/>
       <c r="B11" s="13"/>
       <c r="C11" s="15"/>
@@ -2067,8 +2213,14 @@
       <c r="AF11" s="46"/>
       <c r="AG11" s="50"/>
       <c r="AH11" s="48"/>
+      <c r="AJ11" s="12"/>
+      <c r="AK11" s="32"/>
+      <c r="AL11" s="46"/>
+      <c r="AM11" s="46"/>
+      <c r="AN11" s="50"/>
+      <c r="AO11" s="48"/>
     </row>
-    <row r="12" ht="16.95" customHeight="1" spans="1:34">
+    <row r="12" ht="16.95" customHeight="1" spans="1:41">
       <c r="A12" s="12"/>
       <c r="B12" s="13"/>
       <c r="C12" s="15"/>
@@ -2099,8 +2251,14 @@
       <c r="AF12" s="46"/>
       <c r="AG12" s="50"/>
       <c r="AH12" s="48"/>
+      <c r="AJ12" s="12"/>
+      <c r="AK12" s="32"/>
+      <c r="AL12" s="46"/>
+      <c r="AM12" s="46"/>
+      <c r="AN12" s="50"/>
+      <c r="AO12" s="48"/>
     </row>
-    <row r="13" ht="16.95" customHeight="1" spans="1:34">
+    <row r="13" ht="16.95" customHeight="1" spans="1:41">
       <c r="A13" s="18"/>
       <c r="B13" s="19"/>
       <c r="C13" s="19"/>
@@ -2131,14 +2289,20 @@
       <c r="AF13" s="33"/>
       <c r="AG13" s="33"/>
       <c r="AH13" s="51"/>
+      <c r="AJ13" s="18"/>
+      <c r="AK13" s="33"/>
+      <c r="AL13" s="33"/>
+      <c r="AM13" s="33"/>
+      <c r="AN13" s="33"/>
+      <c r="AO13" s="51"/>
     </row>
-    <row r="14" ht="16.95" customHeight="1" spans="1:34">
+    <row r="14" ht="16.95" customHeight="1" spans="1:41">
       <c r="A14" s="12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B14" s="13"/>
       <c r="C14" s="14" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D14" s="15"/>
       <c r="E14" s="24">
@@ -2146,7 +2310,7 @@
       </c>
       <c r="F14" s="8"/>
       <c r="H14" s="12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="I14" s="13"/>
       <c r="J14" s="14" t="s">
@@ -2158,7 +2322,7 @@
       </c>
       <c r="M14" s="8"/>
       <c r="O14" s="12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="P14" s="30"/>
       <c r="Q14" s="56"/>
@@ -2166,33 +2330,47 @@
       <c r="S14" s="58"/>
       <c r="T14" s="8"/>
       <c r="V14" s="12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="W14" s="30" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="X14" s="56" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="Y14" s="57"/>
       <c r="Z14" s="58"/>
       <c r="AA14" s="8"/>
       <c r="AC14" s="12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="AD14" s="30" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="AE14" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF14" s="57"/>
+      <c r="AG14" s="72">
+        <v>0.3</v>
+      </c>
+      <c r="AH14" s="8"/>
+      <c r="AJ14" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="AF14" s="57"/>
-      <c r="AG14" s="69">
-        <v>0.3</v>
-      </c>
-      <c r="AH14" s="8"/>
+      <c r="AK14" s="54" t="s">
+        <v>19</v>
+      </c>
+      <c r="AL14" s="56" t="s">
+        <v>34</v>
+      </c>
+      <c r="AM14" s="57"/>
+      <c r="AN14" s="69">
+        <v>0.6</v>
+      </c>
+      <c r="AO14" s="8"/>
     </row>
-    <row r="15" ht="16.95" customHeight="1" spans="1:34">
+    <row r="15" ht="16.95" customHeight="1" spans="1:41">
       <c r="A15" s="12"/>
       <c r="B15" s="13"/>
       <c r="C15" s="15"/>
@@ -2223,8 +2401,14 @@
       <c r="AF15" s="46"/>
       <c r="AG15" s="55"/>
       <c r="AH15" s="48"/>
+      <c r="AJ15" s="12"/>
+      <c r="AK15" s="32"/>
+      <c r="AL15" s="46"/>
+      <c r="AM15" s="46"/>
+      <c r="AN15" s="55"/>
+      <c r="AO15" s="48"/>
     </row>
-    <row r="16" ht="16.95" customHeight="1" spans="1:34">
+    <row r="16" ht="16.95" customHeight="1" spans="1:41">
       <c r="A16" s="12"/>
       <c r="B16" s="13"/>
       <c r="C16" s="15"/>
@@ -2255,8 +2439,14 @@
       <c r="AF16" s="59"/>
       <c r="AG16" s="60"/>
       <c r="AH16" s="61"/>
+      <c r="AJ16" s="12"/>
+      <c r="AK16" s="32"/>
+      <c r="AL16" s="59"/>
+      <c r="AM16" s="59"/>
+      <c r="AN16" s="60"/>
+      <c r="AO16" s="61"/>
     </row>
-    <row r="17" ht="16.95" customHeight="1" spans="1:34">
+    <row r="17" ht="16.95" customHeight="1" spans="1:41">
       <c r="A17" s="12"/>
       <c r="B17" s="13"/>
       <c r="C17" s="15"/>
@@ -2287,8 +2477,14 @@
       <c r="AF17" s="46"/>
       <c r="AG17" s="50"/>
       <c r="AH17" s="48"/>
+      <c r="AJ17" s="12"/>
+      <c r="AK17" s="32"/>
+      <c r="AL17" s="46"/>
+      <c r="AM17" s="46"/>
+      <c r="AN17" s="50"/>
+      <c r="AO17" s="48"/>
     </row>
-    <row r="18" ht="16.95" customHeight="1" spans="1:34">
+    <row r="18" ht="16.95" customHeight="1" spans="1:41">
       <c r="A18" s="18"/>
       <c r="B18" s="19"/>
       <c r="C18" s="19"/>
@@ -2319,66 +2515,82 @@
       <c r="AF18" s="33"/>
       <c r="AG18" s="33"/>
       <c r="AH18" s="51"/>
+      <c r="AJ18" s="18"/>
+      <c r="AK18" s="33"/>
+      <c r="AL18" s="33"/>
+      <c r="AM18" s="33"/>
+      <c r="AN18" s="33"/>
+      <c r="AO18" s="51"/>
     </row>
-    <row r="19" ht="16.95" customHeight="1" spans="1:34">
+    <row r="19" ht="16.95" customHeight="1" spans="1:41">
       <c r="A19" s="12" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B19" s="13"/>
       <c r="C19" s="25" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D19" s="25"/>
       <c r="E19" s="25"/>
       <c r="F19" s="8"/>
       <c r="H19" s="12" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="I19" s="13"/>
       <c r="J19" s="35" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="K19" s="35"/>
       <c r="L19" s="35"/>
       <c r="M19" s="8"/>
       <c r="O19" s="12" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="P19" s="36" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="Q19" s="62" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="R19" s="62"/>
       <c r="S19" s="62"/>
       <c r="T19" s="8"/>
       <c r="V19" s="12" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="W19" s="36" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="X19" s="62" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="Y19" s="62"/>
       <c r="Z19" s="62"/>
       <c r="AA19" s="8"/>
       <c r="AC19" s="12" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="AD19" s="36" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="AE19" s="66" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="AF19" s="66"/>
       <c r="AG19" s="66"/>
       <c r="AH19" s="8"/>
+      <c r="AJ19" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK19" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="AL19" s="66"/>
+      <c r="AM19" s="66"/>
+      <c r="AN19" s="66"/>
+      <c r="AO19" s="8"/>
     </row>
-    <row r="20" ht="16.95" customHeight="1" spans="1:34">
+    <row r="20" ht="16.95" customHeight="1" spans="1:41">
       <c r="A20" s="12"/>
       <c r="B20" s="13"/>
       <c r="C20" s="25"/>
@@ -2393,7 +2605,7 @@
       <c r="M20" s="8"/>
       <c r="O20" s="12"/>
       <c r="P20" s="37" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="Q20" s="62"/>
       <c r="R20" s="62"/>
@@ -2401,7 +2613,7 @@
       <c r="T20" s="8"/>
       <c r="V20" s="12"/>
       <c r="W20" s="37" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="X20" s="62"/>
       <c r="Y20" s="62"/>
@@ -2409,14 +2621,22 @@
       <c r="AA20" s="8"/>
       <c r="AC20" s="12"/>
       <c r="AD20" s="37" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="AE20" s="66"/>
       <c r="AF20" s="66"/>
       <c r="AG20" s="66"/>
       <c r="AH20" s="8"/>
+      <c r="AJ20" s="12"/>
+      <c r="AK20" s="37">
+        <v>8</v>
+      </c>
+      <c r="AL20" s="66"/>
+      <c r="AM20" s="66"/>
+      <c r="AN20" s="66"/>
+      <c r="AO20" s="8"/>
     </row>
-    <row r="21" ht="16.95" customHeight="1" spans="1:34">
+    <row r="21" ht="16.95" customHeight="1" spans="1:41">
       <c r="A21" s="12"/>
       <c r="B21" s="13"/>
       <c r="C21" s="25"/>
@@ -2447,8 +2667,14 @@
       <c r="AF21" s="66"/>
       <c r="AG21" s="66"/>
       <c r="AH21" s="8"/>
+      <c r="AJ21" s="12"/>
+      <c r="AK21" s="12"/>
+      <c r="AL21" s="66"/>
+      <c r="AM21" s="66"/>
+      <c r="AN21" s="66"/>
+      <c r="AO21" s="8"/>
     </row>
-    <row r="22" ht="16.95" customHeight="1" spans="1:34">
+    <row r="22" ht="16.95" customHeight="1" spans="1:41">
       <c r="A22" s="12"/>
       <c r="B22" s="13"/>
       <c r="C22" s="25"/>
@@ -2479,66 +2705,82 @@
       <c r="AF22" s="66"/>
       <c r="AG22" s="66"/>
       <c r="AH22" s="8"/>
+      <c r="AJ22" s="12"/>
+      <c r="AK22" s="12"/>
+      <c r="AL22" s="66"/>
+      <c r="AM22" s="66"/>
+      <c r="AN22" s="66"/>
+      <c r="AO22" s="8"/>
     </row>
-    <row r="23" ht="16.95" customHeight="1" spans="1:34">
+    <row r="23" ht="16.95" customHeight="1" spans="1:41">
       <c r="A23" s="12" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B23" s="13"/>
       <c r="C23" s="25" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D23" s="25"/>
       <c r="E23" s="25"/>
       <c r="F23" s="8"/>
       <c r="H23" s="12" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="I23" s="13"/>
       <c r="J23" s="25" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="K23" s="25"/>
       <c r="L23" s="25"/>
       <c r="M23" s="8"/>
       <c r="O23" s="38" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="P23" s="39" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="Q23" s="63" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="R23" s="63"/>
       <c r="S23" s="63"/>
       <c r="T23" s="8"/>
       <c r="V23" s="38" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="W23" s="39" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="X23" s="63" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="Y23" s="63"/>
       <c r="Z23" s="63"/>
       <c r="AA23" s="8"/>
       <c r="AC23" s="38" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="AD23" s="39" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="AE23" s="63" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="AF23" s="63"/>
       <c r="AG23" s="63"/>
       <c r="AH23" s="8"/>
+      <c r="AJ23" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="AK23" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="AL23" s="63"/>
+      <c r="AM23" s="63"/>
+      <c r="AN23" s="63"/>
+      <c r="AO23" s="8"/>
     </row>
-    <row r="24" ht="16.95" customHeight="1" spans="1:34">
+    <row r="24" ht="16.95" customHeight="1" spans="1:41">
       <c r="A24" s="12"/>
       <c r="B24" s="13"/>
       <c r="C24" s="25"/>
@@ -2553,7 +2795,7 @@
       <c r="M24" s="8"/>
       <c r="O24" s="40"/>
       <c r="P24" s="41" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="Q24" s="25"/>
       <c r="R24" s="25"/>
@@ -2561,7 +2803,7 @@
       <c r="T24" s="8"/>
       <c r="V24" s="40"/>
       <c r="W24" s="41" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="X24" s="25"/>
       <c r="Y24" s="25"/>
@@ -2569,14 +2811,22 @@
       <c r="AA24" s="8"/>
       <c r="AC24" s="40"/>
       <c r="AD24" s="41" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="AE24" s="25"/>
       <c r="AF24" s="25"/>
       <c r="AG24" s="25"/>
       <c r="AH24" s="8"/>
+      <c r="AJ24" s="40"/>
+      <c r="AK24" s="41">
+        <v>15</v>
+      </c>
+      <c r="AL24" s="25"/>
+      <c r="AM24" s="25"/>
+      <c r="AN24" s="25"/>
+      <c r="AO24" s="8"/>
     </row>
-    <row r="25" ht="16.95" customHeight="1" spans="1:34">
+    <row r="25" ht="16.95" customHeight="1" spans="1:41">
       <c r="A25" s="12"/>
       <c r="B25" s="13"/>
       <c r="C25" s="25"/>
@@ -2607,8 +2857,14 @@
       <c r="AF25" s="25"/>
       <c r="AG25" s="25"/>
       <c r="AH25" s="8"/>
+      <c r="AJ25" s="40"/>
+      <c r="AK25" s="42"/>
+      <c r="AL25" s="25"/>
+      <c r="AM25" s="25"/>
+      <c r="AN25" s="25"/>
+      <c r="AO25" s="8"/>
     </row>
-    <row r="26" ht="16.95" customHeight="1" spans="1:34">
+    <row r="26" ht="16.95" customHeight="1" spans="1:41">
       <c r="A26" s="26"/>
       <c r="B26" s="27"/>
       <c r="C26" s="28"/>
@@ -2639,14 +2895,21 @@
       <c r="AF26" s="28"/>
       <c r="AG26" s="28"/>
       <c r="AH26" s="29"/>
+      <c r="AJ26" s="43"/>
+      <c r="AK26" s="44"/>
+      <c r="AL26" s="28"/>
+      <c r="AM26" s="28"/>
+      <c r="AN26" s="28"/>
+      <c r="AO26" s="29"/>
     </row>
   </sheetData>
-  <mergeCells count="125">
+  <mergeCells count="150">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="H1:M1"/>
     <mergeCell ref="O1:T1"/>
     <mergeCell ref="V1:AA1"/>
     <mergeCell ref="AC1:AH1"/>
+    <mergeCell ref="AJ1:AO1"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="H3:I3"/>
@@ -2657,81 +2920,98 @@
     <mergeCell ref="X3:Y3"/>
     <mergeCell ref="AC3:AD3"/>
     <mergeCell ref="AE3:AF3"/>
+    <mergeCell ref="AJ3:AK3"/>
+    <mergeCell ref="AL3:AM3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="J4:K4"/>
     <mergeCell ref="Q4:R4"/>
     <mergeCell ref="X4:Y4"/>
     <mergeCell ref="AE4:AF4"/>
+    <mergeCell ref="AL4:AM4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="J5:K5"/>
     <mergeCell ref="Q5:R5"/>
     <mergeCell ref="X5:Y5"/>
     <mergeCell ref="AE5:AF5"/>
+    <mergeCell ref="AL5:AM5"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="Q6:R6"/>
     <mergeCell ref="X6:Y6"/>
     <mergeCell ref="AE6:AF6"/>
+    <mergeCell ref="AL6:AM6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="Q7:R7"/>
     <mergeCell ref="X7:Y7"/>
     <mergeCell ref="AE7:AF7"/>
+    <mergeCell ref="AL7:AM7"/>
     <mergeCell ref="A8:D8"/>
     <mergeCell ref="H8:K8"/>
     <mergeCell ref="O8:T8"/>
     <mergeCell ref="V8:AA8"/>
     <mergeCell ref="AC8:AH8"/>
+    <mergeCell ref="AJ8:AO8"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="J9:K9"/>
     <mergeCell ref="Q9:R9"/>
     <mergeCell ref="X9:Y9"/>
     <mergeCell ref="AE9:AF9"/>
+    <mergeCell ref="AL9:AM9"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="J10:K10"/>
     <mergeCell ref="Q10:R10"/>
     <mergeCell ref="X10:Y10"/>
     <mergeCell ref="AE10:AF10"/>
+    <mergeCell ref="AL10:AM10"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="J11:K11"/>
     <mergeCell ref="Q11:R11"/>
     <mergeCell ref="X11:Y11"/>
     <mergeCell ref="AE11:AF11"/>
+    <mergeCell ref="AL11:AM11"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="J12:K12"/>
     <mergeCell ref="Q12:R12"/>
     <mergeCell ref="X12:Y12"/>
     <mergeCell ref="AE12:AF12"/>
+    <mergeCell ref="AL12:AM12"/>
     <mergeCell ref="A13:D13"/>
     <mergeCell ref="H13:K13"/>
     <mergeCell ref="O13:T13"/>
     <mergeCell ref="V13:AA13"/>
     <mergeCell ref="AC13:AH13"/>
+    <mergeCell ref="AJ13:AO13"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="J14:K14"/>
     <mergeCell ref="Q14:R14"/>
     <mergeCell ref="X14:Y14"/>
     <mergeCell ref="AE14:AF14"/>
+    <mergeCell ref="AL14:AM14"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="J15:K15"/>
     <mergeCell ref="Q15:R15"/>
     <mergeCell ref="X15:Y15"/>
     <mergeCell ref="AE15:AF15"/>
+    <mergeCell ref="AL15:AM15"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="J16:K16"/>
     <mergeCell ref="Q16:R16"/>
     <mergeCell ref="X16:Y16"/>
     <mergeCell ref="AE16:AF16"/>
+    <mergeCell ref="AL16:AM16"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="J17:K17"/>
     <mergeCell ref="Q17:R17"/>
     <mergeCell ref="X17:Y17"/>
     <mergeCell ref="AE17:AF17"/>
+    <mergeCell ref="AL17:AM17"/>
     <mergeCell ref="A18:D18"/>
     <mergeCell ref="H18:K18"/>
     <mergeCell ref="O18:T18"/>
     <mergeCell ref="V18:AA18"/>
     <mergeCell ref="AC18:AH18"/>
+    <mergeCell ref="AJ18:AO18"/>
     <mergeCell ref="O4:O7"/>
     <mergeCell ref="O9:O12"/>
     <mergeCell ref="O14:O17"/>
@@ -2747,6 +3027,24 @@
     <mergeCell ref="AC14:AC17"/>
     <mergeCell ref="AC19:AC22"/>
     <mergeCell ref="AC23:AC26"/>
+    <mergeCell ref="AJ4:AJ7"/>
+    <mergeCell ref="AJ9:AJ12"/>
+    <mergeCell ref="AJ14:AJ17"/>
+    <mergeCell ref="AJ19:AJ22"/>
+    <mergeCell ref="AJ23:AJ26"/>
+    <mergeCell ref="Q19:S22"/>
+    <mergeCell ref="AL19:AN22"/>
+    <mergeCell ref="Q23:S26"/>
+    <mergeCell ref="AL23:AN26"/>
+    <mergeCell ref="A23:B26"/>
+    <mergeCell ref="A9:B12"/>
+    <mergeCell ref="A14:B17"/>
+    <mergeCell ref="A4:B7"/>
+    <mergeCell ref="C19:E22"/>
+    <mergeCell ref="X19:Z22"/>
+    <mergeCell ref="C23:E26"/>
+    <mergeCell ref="X23:Z26"/>
+    <mergeCell ref="A19:B22"/>
     <mergeCell ref="H19:I22"/>
     <mergeCell ref="J19:L22"/>
     <mergeCell ref="AE19:AG22"/>
@@ -2756,17 +3054,6 @@
     <mergeCell ref="H14:I17"/>
     <mergeCell ref="H9:I12"/>
     <mergeCell ref="H4:I7"/>
-    <mergeCell ref="A23:B26"/>
-    <mergeCell ref="A9:B12"/>
-    <mergeCell ref="A14:B17"/>
-    <mergeCell ref="A4:B7"/>
-    <mergeCell ref="C19:E22"/>
-    <mergeCell ref="X19:Z22"/>
-    <mergeCell ref="C23:E26"/>
-    <mergeCell ref="X23:Z26"/>
-    <mergeCell ref="A19:B22"/>
-    <mergeCell ref="Q19:S22"/>
-    <mergeCell ref="Q23:S26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/学习日志.xlsx
+++ b/学习日志.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\35612\Desktop\Notes\学习日志\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0714DE1-B435-44C8-B06D-04DB9C7AD7D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3BC2C1A-4D81-4641-A6E4-EB3CEF50493F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="62">
   <si>
     <t>学习日志记录表</t>
   </si>
@@ -213,6 +213,18 @@
   </si>
   <si>
     <t>1.在白云区找房</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.高频简历msql面试题</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.设计模式-单例、策略、工厂</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.rabbitmq-helloworld、work queues</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -221,7 +233,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -518,7 +530,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -531,7 +543,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
@@ -648,134 +660,143 @@
     <xf numFmtId="9" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1110,62 +1131,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:48" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="45"/>
-      <c r="H1" s="43" t="s">
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="82"/>
+      <c r="H1" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="45"/>
-      <c r="O1" s="43" t="s">
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="82"/>
+      <c r="O1" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="P1" s="44"/>
-      <c r="Q1" s="44"/>
-      <c r="R1" s="44"/>
-      <c r="S1" s="44"/>
-      <c r="T1" s="45"/>
-      <c r="V1" s="43" t="s">
+      <c r="P1" s="81"/>
+      <c r="Q1" s="81"/>
+      <c r="R1" s="81"/>
+      <c r="S1" s="81"/>
+      <c r="T1" s="82"/>
+      <c r="V1" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="W1" s="44"/>
-      <c r="X1" s="44"/>
-      <c r="Y1" s="44"/>
-      <c r="Z1" s="44"/>
-      <c r="AA1" s="45"/>
-      <c r="AC1" s="43" t="s">
+      <c r="W1" s="81"/>
+      <c r="X1" s="81"/>
+      <c r="Y1" s="81"/>
+      <c r="Z1" s="81"/>
+      <c r="AA1" s="82"/>
+      <c r="AC1" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="AD1" s="44"/>
-      <c r="AE1" s="44"/>
-      <c r="AF1" s="44"/>
-      <c r="AG1" s="44"/>
-      <c r="AH1" s="45"/>
-      <c r="AJ1" s="43" t="s">
+      <c r="AD1" s="81"/>
+      <c r="AE1" s="81"/>
+      <c r="AF1" s="81"/>
+      <c r="AG1" s="81"/>
+      <c r="AH1" s="82"/>
+      <c r="AJ1" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="AK1" s="44"/>
-      <c r="AL1" s="44"/>
-      <c r="AM1" s="44"/>
-      <c r="AN1" s="44"/>
-      <c r="AO1" s="45"/>
-      <c r="AQ1" s="43" t="s">
+      <c r="AK1" s="81"/>
+      <c r="AL1" s="81"/>
+      <c r="AM1" s="81"/>
+      <c r="AN1" s="81"/>
+      <c r="AO1" s="82"/>
+      <c r="AQ1" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="AR1" s="44"/>
-      <c r="AS1" s="44"/>
-      <c r="AT1" s="44"/>
-      <c r="AU1" s="44"/>
-      <c r="AV1" s="45"/>
+      <c r="AR1" s="81"/>
+      <c r="AS1" s="81"/>
+      <c r="AT1" s="81"/>
+      <c r="AU1" s="81"/>
+      <c r="AV1" s="82"/>
     </row>
     <row r="2" spans="1:48" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1282,98 +1303,98 @@
       <c r="AV2" s="5"/>
     </row>
     <row r="3" spans="1:48" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47" t="s">
+      <c r="B3" s="84"/>
+      <c r="C3" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="47"/>
+      <c r="D3" s="84"/>
       <c r="E3" s="6" t="s">
         <v>7</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="46" t="s">
+      <c r="H3" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47" t="s">
+      <c r="I3" s="84"/>
+      <c r="J3" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="47"/>
+      <c r="K3" s="84"/>
       <c r="L3" s="6" t="s">
         <v>7</v>
       </c>
       <c r="M3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="46" t="s">
+      <c r="O3" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="P3" s="47"/>
-      <c r="Q3" s="47" t="s">
+      <c r="P3" s="84"/>
+      <c r="Q3" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="47"/>
+      <c r="R3" s="84"/>
       <c r="S3" s="6" t="s">
         <v>7</v>
       </c>
       <c r="T3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="V3" s="46" t="s">
+      <c r="V3" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="W3" s="47"/>
-      <c r="X3" s="47" t="s">
+      <c r="W3" s="84"/>
+      <c r="X3" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="Y3" s="47"/>
+      <c r="Y3" s="84"/>
       <c r="Z3" s="6" t="s">
         <v>7</v>
       </c>
       <c r="AA3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="AC3" s="46" t="s">
+      <c r="AC3" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="AD3" s="47"/>
-      <c r="AE3" s="47" t="s">
+      <c r="AD3" s="84"/>
+      <c r="AE3" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="AF3" s="47"/>
+      <c r="AF3" s="84"/>
       <c r="AG3" s="6" t="s">
         <v>7</v>
       </c>
       <c r="AH3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="AJ3" s="46" t="s">
+      <c r="AJ3" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="AK3" s="47"/>
-      <c r="AL3" s="47" t="s">
+      <c r="AK3" s="84"/>
+      <c r="AL3" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="AM3" s="47"/>
+      <c r="AM3" s="84"/>
       <c r="AN3" s="6" t="s">
         <v>7</v>
       </c>
       <c r="AO3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="AQ3" s="46" t="s">
+      <c r="AQ3" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="AR3" s="47"/>
-      <c r="AS3" s="47" t="s">
+      <c r="AR3" s="84"/>
+      <c r="AS3" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="AT3" s="47"/>
+      <c r="AT3" s="84"/>
       <c r="AU3" s="6" t="s">
         <v>7</v>
       </c>
@@ -1382,1045 +1403,1045 @@
       </c>
     </row>
     <row r="4" spans="1:48" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="71"/>
-      <c r="C4" s="48" t="s">
+      <c r="B4" s="54"/>
+      <c r="C4" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="49"/>
+      <c r="D4" s="70"/>
       <c r="E4" s="27">
         <v>1</v>
       </c>
       <c r="F4" s="5"/>
-      <c r="H4" s="62" t="s">
+      <c r="H4" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="71"/>
-      <c r="J4" s="48" t="s">
+      <c r="I4" s="54"/>
+      <c r="J4" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="49"/>
+      <c r="K4" s="70"/>
       <c r="L4" s="27">
         <v>0.7</v>
       </c>
       <c r="M4" s="5"/>
-      <c r="O4" s="62" t="s">
+      <c r="O4" s="53" t="s">
         <v>9</v>
       </c>
       <c r="P4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="Q4" s="48" t="s">
+      <c r="Q4" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="R4" s="49"/>
+      <c r="R4" s="70"/>
       <c r="S4" s="27">
         <v>0.85</v>
       </c>
       <c r="T4" s="5"/>
-      <c r="V4" s="62" t="s">
+      <c r="V4" s="53" t="s">
         <v>9</v>
       </c>
       <c r="W4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="X4" s="48" t="s">
+      <c r="X4" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="Y4" s="49"/>
+      <c r="Y4" s="70"/>
       <c r="Z4" s="39">
         <v>1</v>
       </c>
       <c r="AA4" s="5"/>
-      <c r="AC4" s="62" t="s">
+      <c r="AC4" s="53" t="s">
         <v>9</v>
       </c>
       <c r="AD4" s="9"/>
-      <c r="AE4" s="48"/>
-      <c r="AF4" s="49"/>
+      <c r="AE4" s="73"/>
+      <c r="AF4" s="70"/>
       <c r="AG4" s="40"/>
       <c r="AH4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="AJ4" s="62" t="s">
+      <c r="AJ4" s="53" t="s">
         <v>9</v>
       </c>
       <c r="AK4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="AL4" s="48" t="s">
+      <c r="AL4" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="AM4" s="49"/>
+      <c r="AM4" s="70"/>
       <c r="AN4" s="10">
         <v>0.56999999999999995</v>
       </c>
       <c r="AO4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="AQ4" s="62" t="s">
+      <c r="AQ4" s="53" t="s">
         <v>9</v>
       </c>
       <c r="AR4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="AS4" s="48" t="s">
+      <c r="AS4" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="AT4" s="49"/>
+      <c r="AT4" s="70"/>
       <c r="AU4" s="10"/>
       <c r="AV4" s="5" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:48" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="62"/>
-      <c r="B5" s="71"/>
-      <c r="C5" s="48" t="s">
+      <c r="A5" s="53"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="49"/>
+      <c r="D5" s="70"/>
       <c r="E5" s="27">
         <v>1</v>
       </c>
       <c r="F5" s="5"/>
-      <c r="H5" s="62"/>
-      <c r="I5" s="71"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="49"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="73"/>
+      <c r="K5" s="70"/>
       <c r="L5" s="34"/>
       <c r="M5" s="5"/>
-      <c r="O5" s="62"/>
+      <c r="O5" s="53"/>
       <c r="P5" s="11"/>
-      <c r="Q5" s="50"/>
-      <c r="R5" s="51"/>
+      <c r="Q5" s="79"/>
+      <c r="R5" s="72"/>
       <c r="S5" s="36"/>
       <c r="T5" s="13"/>
-      <c r="V5" s="62"/>
+      <c r="V5" s="53"/>
       <c r="W5" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="X5" s="52" t="s">
+      <c r="X5" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="Y5" s="51"/>
+      <c r="Y5" s="72"/>
       <c r="Z5" s="36"/>
       <c r="AA5" s="13"/>
-      <c r="AC5" s="62"/>
+      <c r="AC5" s="53"/>
       <c r="AD5" s="11"/>
-      <c r="AE5" s="52"/>
-      <c r="AF5" s="51"/>
+      <c r="AE5" s="77"/>
+      <c r="AF5" s="72"/>
       <c r="AG5" s="36"/>
       <c r="AH5" s="13"/>
-      <c r="AJ5" s="62"/>
+      <c r="AJ5" s="53"/>
       <c r="AK5" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="AL5" s="52" t="s">
+      <c r="AL5" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="AM5" s="51"/>
+      <c r="AM5" s="72"/>
       <c r="AN5" s="12">
         <v>0.6</v>
       </c>
       <c r="AO5" s="13"/>
-      <c r="AQ5" s="62"/>
+      <c r="AQ5" s="53"/>
       <c r="AR5" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="AS5" s="52" t="s">
+      <c r="AS5" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="AT5" s="51"/>
+      <c r="AT5" s="72"/>
       <c r="AU5" s="12">
         <v>0.7</v>
       </c>
       <c r="AV5" s="13"/>
     </row>
     <row r="6" spans="1:48" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="62"/>
-      <c r="B6" s="71"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
+      <c r="A6" s="53"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
       <c r="E6" s="28"/>
       <c r="F6" s="5"/>
-      <c r="H6" s="62"/>
-      <c r="I6" s="71"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="49"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="54"/>
+      <c r="J6" s="70"/>
+      <c r="K6" s="70"/>
       <c r="L6" s="28"/>
       <c r="M6" s="5"/>
-      <c r="O6" s="62"/>
+      <c r="O6" s="53"/>
       <c r="P6" s="11"/>
-      <c r="Q6" s="51"/>
-      <c r="R6" s="51"/>
+      <c r="Q6" s="72"/>
+      <c r="R6" s="72"/>
       <c r="S6" s="14"/>
       <c r="T6" s="13"/>
-      <c r="V6" s="62"/>
+      <c r="V6" s="53"/>
       <c r="W6" s="11"/>
-      <c r="X6" s="51"/>
-      <c r="Y6" s="53"/>
+      <c r="X6" s="72"/>
+      <c r="Y6" s="78"/>
       <c r="Z6" s="14"/>
       <c r="AA6" s="13"/>
-      <c r="AC6" s="62"/>
+      <c r="AC6" s="53"/>
       <c r="AD6" s="11"/>
-      <c r="AE6" s="51"/>
-      <c r="AF6" s="53"/>
+      <c r="AE6" s="72"/>
+      <c r="AF6" s="78"/>
       <c r="AG6" s="14"/>
       <c r="AH6" s="13"/>
-      <c r="AJ6" s="62"/>
+      <c r="AJ6" s="53"/>
       <c r="AK6" s="11"/>
-      <c r="AL6" s="51"/>
-      <c r="AM6" s="53"/>
+      <c r="AL6" s="72"/>
+      <c r="AM6" s="78"/>
       <c r="AN6" s="14"/>
       <c r="AO6" s="13"/>
-      <c r="AQ6" s="62"/>
+      <c r="AQ6" s="53"/>
       <c r="AR6" s="11"/>
-      <c r="AS6" s="51"/>
-      <c r="AT6" s="53"/>
+      <c r="AS6" s="72"/>
+      <c r="AT6" s="78"/>
       <c r="AU6" s="14"/>
       <c r="AV6" s="13"/>
     </row>
     <row r="7" spans="1:48" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="62"/>
-      <c r="B7" s="71"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
+      <c r="A7" s="53"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="70"/>
       <c r="E7" s="28"/>
       <c r="F7" s="5"/>
-      <c r="H7" s="62"/>
-      <c r="I7" s="71"/>
-      <c r="J7" s="49"/>
-      <c r="K7" s="49"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="70"/>
+      <c r="K7" s="70"/>
       <c r="L7" s="28"/>
       <c r="M7" s="5"/>
-      <c r="O7" s="62"/>
+      <c r="O7" s="53"/>
       <c r="P7" s="11"/>
-      <c r="Q7" s="51"/>
-      <c r="R7" s="51"/>
+      <c r="Q7" s="72"/>
+      <c r="R7" s="72"/>
       <c r="S7" s="14"/>
       <c r="T7" s="13"/>
-      <c r="V7" s="62"/>
+      <c r="V7" s="53"/>
       <c r="W7" s="11"/>
-      <c r="X7" s="51"/>
-      <c r="Y7" s="51"/>
+      <c r="X7" s="72"/>
+      <c r="Y7" s="72"/>
       <c r="Z7" s="14"/>
       <c r="AA7" s="13"/>
-      <c r="AC7" s="62"/>
+      <c r="AC7" s="53"/>
       <c r="AD7" s="11"/>
-      <c r="AE7" s="51"/>
-      <c r="AF7" s="51"/>
+      <c r="AE7" s="72"/>
+      <c r="AF7" s="72"/>
       <c r="AG7" s="14"/>
       <c r="AH7" s="13"/>
-      <c r="AJ7" s="62"/>
+      <c r="AJ7" s="53"/>
       <c r="AK7" s="11"/>
-      <c r="AL7" s="51"/>
-      <c r="AM7" s="51"/>
+      <c r="AL7" s="72"/>
+      <c r="AM7" s="72"/>
       <c r="AN7" s="14"/>
       <c r="AO7" s="13"/>
-      <c r="AQ7" s="62"/>
+      <c r="AQ7" s="53"/>
       <c r="AR7" s="11"/>
-      <c r="AS7" s="51"/>
-      <c r="AT7" s="51"/>
+      <c r="AS7" s="72"/>
+      <c r="AT7" s="72"/>
       <c r="AU7" s="14"/>
       <c r="AV7" s="13"/>
     </row>
     <row r="8" spans="1:48" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="54"/>
-      <c r="B8" s="55"/>
-      <c r="C8" s="55"/>
-      <c r="D8" s="55"/>
+      <c r="A8" s="66"/>
+      <c r="B8" s="67"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="67"/>
       <c r="E8" s="29"/>
       <c r="F8" s="30"/>
-      <c r="H8" s="54"/>
-      <c r="I8" s="55"/>
-      <c r="J8" s="55"/>
-      <c r="K8" s="55"/>
+      <c r="H8" s="66"/>
+      <c r="I8" s="67"/>
+      <c r="J8" s="67"/>
+      <c r="K8" s="67"/>
       <c r="L8" s="29"/>
       <c r="M8" s="30"/>
-      <c r="O8" s="54"/>
-      <c r="P8" s="56"/>
-      <c r="Q8" s="56"/>
-      <c r="R8" s="56"/>
-      <c r="S8" s="56"/>
-      <c r="T8" s="57"/>
-      <c r="V8" s="54"/>
-      <c r="W8" s="56"/>
-      <c r="X8" s="58"/>
-      <c r="Y8" s="56"/>
-      <c r="Z8" s="56"/>
-      <c r="AA8" s="57"/>
-      <c r="AC8" s="54"/>
-      <c r="AD8" s="56"/>
-      <c r="AE8" s="58"/>
-      <c r="AF8" s="56"/>
-      <c r="AG8" s="56"/>
-      <c r="AH8" s="57"/>
-      <c r="AJ8" s="54"/>
-      <c r="AK8" s="56"/>
-      <c r="AL8" s="58"/>
-      <c r="AM8" s="56"/>
-      <c r="AN8" s="56"/>
-      <c r="AO8" s="57"/>
-      <c r="AQ8" s="54"/>
-      <c r="AR8" s="56"/>
-      <c r="AS8" s="58"/>
-      <c r="AT8" s="56"/>
-      <c r="AU8" s="56"/>
-      <c r="AV8" s="57"/>
+      <c r="O8" s="66"/>
+      <c r="P8" s="68"/>
+      <c r="Q8" s="68"/>
+      <c r="R8" s="68"/>
+      <c r="S8" s="68"/>
+      <c r="T8" s="69"/>
+      <c r="V8" s="66"/>
+      <c r="W8" s="68"/>
+      <c r="X8" s="76"/>
+      <c r="Y8" s="68"/>
+      <c r="Z8" s="68"/>
+      <c r="AA8" s="69"/>
+      <c r="AC8" s="66"/>
+      <c r="AD8" s="68"/>
+      <c r="AE8" s="76"/>
+      <c r="AF8" s="68"/>
+      <c r="AG8" s="68"/>
+      <c r="AH8" s="69"/>
+      <c r="AJ8" s="66"/>
+      <c r="AK8" s="68"/>
+      <c r="AL8" s="76"/>
+      <c r="AM8" s="68"/>
+      <c r="AN8" s="68"/>
+      <c r="AO8" s="69"/>
+      <c r="AQ8" s="66"/>
+      <c r="AR8" s="68"/>
+      <c r="AS8" s="76"/>
+      <c r="AT8" s="68"/>
+      <c r="AU8" s="68"/>
+      <c r="AV8" s="69"/>
     </row>
     <row r="9" spans="1:48" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="62" t="s">
+      <c r="A9" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="71"/>
-      <c r="C9" s="49"/>
-      <c r="D9" s="49"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="70"/>
+      <c r="D9" s="70"/>
       <c r="E9" s="31"/>
       <c r="F9" s="5"/>
-      <c r="H9" s="62" t="s">
+      <c r="H9" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="I9" s="71"/>
-      <c r="J9" s="48"/>
-      <c r="K9" s="49"/>
+      <c r="I9" s="54"/>
+      <c r="J9" s="73"/>
+      <c r="K9" s="70"/>
       <c r="L9" s="31"/>
       <c r="M9" s="5"/>
-      <c r="O9" s="62" t="s">
+      <c r="O9" s="53" t="s">
         <v>24</v>
       </c>
       <c r="P9" s="9"/>
-      <c r="Q9" s="48"/>
-      <c r="R9" s="49"/>
+      <c r="Q9" s="73"/>
+      <c r="R9" s="70"/>
       <c r="S9" s="37"/>
       <c r="T9" s="5"/>
-      <c r="V9" s="62" t="s">
+      <c r="V9" s="53" t="s">
         <v>24</v>
       </c>
       <c r="W9" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="X9" s="52" t="s">
+      <c r="X9" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="Y9" s="51"/>
+      <c r="Y9" s="72"/>
       <c r="Z9" s="39">
         <v>1</v>
       </c>
       <c r="AA9" s="5"/>
-      <c r="AC9" s="62" t="s">
+      <c r="AC9" s="53" t="s">
         <v>24</v>
       </c>
       <c r="AD9" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="AE9" s="52" t="s">
+      <c r="AE9" s="77" t="s">
         <v>28</v>
       </c>
-      <c r="AF9" s="51"/>
+      <c r="AF9" s="72"/>
       <c r="AG9" s="41">
         <v>0.2</v>
       </c>
       <c r="AH9" s="5"/>
-      <c r="AJ9" s="62" t="s">
+      <c r="AJ9" s="53" t="s">
         <v>24</v>
       </c>
       <c r="AK9" s="15"/>
-      <c r="AL9" s="52"/>
-      <c r="AM9" s="51"/>
+      <c r="AL9" s="77"/>
+      <c r="AM9" s="72"/>
       <c r="AN9" s="16"/>
       <c r="AO9" s="5"/>
-      <c r="AQ9" s="62" t="s">
+      <c r="AQ9" s="53" t="s">
         <v>24</v>
       </c>
       <c r="AR9" s="15"/>
-      <c r="AS9" s="52"/>
-      <c r="AT9" s="51"/>
+      <c r="AS9" s="77"/>
+      <c r="AT9" s="72"/>
       <c r="AU9" s="16"/>
       <c r="AV9" s="5"/>
     </row>
     <row r="10" spans="1:48" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="62"/>
-      <c r="B10" s="71"/>
-      <c r="C10" s="49"/>
-      <c r="D10" s="49"/>
+      <c r="A10" s="53"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="70"/>
+      <c r="D10" s="70"/>
       <c r="E10" s="31"/>
       <c r="F10" s="5"/>
-      <c r="H10" s="62"/>
-      <c r="I10" s="71"/>
-      <c r="J10" s="49"/>
-      <c r="K10" s="49"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="54"/>
+      <c r="J10" s="70"/>
+      <c r="K10" s="70"/>
       <c r="L10" s="31"/>
       <c r="M10" s="5"/>
-      <c r="O10" s="62"/>
+      <c r="O10" s="53"/>
       <c r="P10" s="11"/>
-      <c r="Q10" s="51"/>
-      <c r="R10" s="51"/>
+      <c r="Q10" s="72"/>
+      <c r="R10" s="72"/>
       <c r="S10" s="17"/>
       <c r="T10" s="13"/>
-      <c r="V10" s="62"/>
+      <c r="V10" s="53"/>
       <c r="W10" s="11"/>
-      <c r="X10" s="51"/>
-      <c r="Y10" s="51"/>
+      <c r="X10" s="72"/>
+      <c r="Y10" s="72"/>
       <c r="Z10" s="17"/>
       <c r="AA10" s="13"/>
-      <c r="AC10" s="62"/>
+      <c r="AC10" s="53"/>
       <c r="AD10" s="11"/>
-      <c r="AE10" s="51"/>
-      <c r="AF10" s="51"/>
+      <c r="AE10" s="72"/>
+      <c r="AF10" s="72"/>
       <c r="AG10" s="17"/>
       <c r="AH10" s="13"/>
-      <c r="AJ10" s="62"/>
+      <c r="AJ10" s="53"/>
       <c r="AK10" s="11"/>
-      <c r="AL10" s="51"/>
-      <c r="AM10" s="51"/>
+      <c r="AL10" s="72"/>
+      <c r="AM10" s="72"/>
       <c r="AN10" s="17"/>
       <c r="AO10" s="13"/>
-      <c r="AQ10" s="62"/>
+      <c r="AQ10" s="53"/>
       <c r="AR10" s="11"/>
-      <c r="AS10" s="51"/>
-      <c r="AT10" s="51"/>
+      <c r="AS10" s="72"/>
+      <c r="AT10" s="72"/>
       <c r="AU10" s="17"/>
       <c r="AV10" s="13"/>
     </row>
     <row r="11" spans="1:48" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="62"/>
-      <c r="B11" s="71"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="49"/>
+      <c r="A11" s="53"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="70"/>
+      <c r="D11" s="70"/>
       <c r="E11" s="28"/>
       <c r="F11" s="5"/>
-      <c r="H11" s="62"/>
-      <c r="I11" s="71"/>
-      <c r="J11" s="49"/>
-      <c r="K11" s="49"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="54"/>
+      <c r="J11" s="70"/>
+      <c r="K11" s="70"/>
       <c r="L11" s="28"/>
       <c r="M11" s="5"/>
-      <c r="O11" s="62"/>
+      <c r="O11" s="53"/>
       <c r="P11" s="11"/>
-      <c r="Q11" s="51"/>
-      <c r="R11" s="51"/>
+      <c r="Q11" s="72"/>
+      <c r="R11" s="72"/>
       <c r="S11" s="14"/>
       <c r="T11" s="13"/>
-      <c r="V11" s="62"/>
+      <c r="V11" s="53"/>
       <c r="W11" s="11"/>
-      <c r="X11" s="51"/>
-      <c r="Y11" s="51"/>
+      <c r="X11" s="72"/>
+      <c r="Y11" s="72"/>
       <c r="Z11" s="14"/>
       <c r="AA11" s="13"/>
-      <c r="AC11" s="62"/>
+      <c r="AC11" s="53"/>
       <c r="AD11" s="11"/>
-      <c r="AE11" s="51"/>
-      <c r="AF11" s="51"/>
+      <c r="AE11" s="72"/>
+      <c r="AF11" s="72"/>
       <c r="AG11" s="14"/>
       <c r="AH11" s="13"/>
-      <c r="AJ11" s="62"/>
+      <c r="AJ11" s="53"/>
       <c r="AK11" s="11"/>
-      <c r="AL11" s="51"/>
-      <c r="AM11" s="51"/>
+      <c r="AL11" s="72"/>
+      <c r="AM11" s="72"/>
       <c r="AN11" s="14"/>
       <c r="AO11" s="13"/>
-      <c r="AQ11" s="62"/>
+      <c r="AQ11" s="53"/>
       <c r="AR11" s="11"/>
-      <c r="AS11" s="51"/>
-      <c r="AT11" s="51"/>
+      <c r="AS11" s="72"/>
+      <c r="AT11" s="72"/>
       <c r="AU11" s="14"/>
       <c r="AV11" s="13"/>
     </row>
     <row r="12" spans="1:48" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="62"/>
-      <c r="B12" s="71"/>
-      <c r="C12" s="49"/>
-      <c r="D12" s="49"/>
+      <c r="A12" s="53"/>
+      <c r="B12" s="54"/>
+      <c r="C12" s="70"/>
+      <c r="D12" s="70"/>
       <c r="E12" s="28"/>
       <c r="F12" s="5"/>
-      <c r="H12" s="62"/>
-      <c r="I12" s="71"/>
-      <c r="J12" s="49"/>
-      <c r="K12" s="49"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="54"/>
+      <c r="J12" s="70"/>
+      <c r="K12" s="70"/>
       <c r="L12" s="28"/>
       <c r="M12" s="5"/>
-      <c r="O12" s="62"/>
+      <c r="O12" s="53"/>
       <c r="P12" s="11"/>
-      <c r="Q12" s="51"/>
-      <c r="R12" s="51"/>
+      <c r="Q12" s="72"/>
+      <c r="R12" s="72"/>
       <c r="S12" s="14"/>
       <c r="T12" s="13"/>
-      <c r="V12" s="62"/>
+      <c r="V12" s="53"/>
       <c r="W12" s="11"/>
-      <c r="X12" s="51"/>
-      <c r="Y12" s="51"/>
+      <c r="X12" s="72"/>
+      <c r="Y12" s="72"/>
       <c r="Z12" s="14"/>
       <c r="AA12" s="13"/>
-      <c r="AC12" s="62"/>
+      <c r="AC12" s="53"/>
       <c r="AD12" s="11"/>
-      <c r="AE12" s="51"/>
-      <c r="AF12" s="51"/>
+      <c r="AE12" s="72"/>
+      <c r="AF12" s="72"/>
       <c r="AG12" s="14"/>
       <c r="AH12" s="13"/>
-      <c r="AJ12" s="62"/>
+      <c r="AJ12" s="53"/>
       <c r="AK12" s="11"/>
-      <c r="AL12" s="51"/>
-      <c r="AM12" s="51"/>
+      <c r="AL12" s="72"/>
+      <c r="AM12" s="72"/>
       <c r="AN12" s="14"/>
       <c r="AO12" s="13"/>
-      <c r="AQ12" s="62"/>
+      <c r="AQ12" s="53"/>
       <c r="AR12" s="11"/>
-      <c r="AS12" s="51"/>
-      <c r="AT12" s="51"/>
+      <c r="AS12" s="72"/>
+      <c r="AT12" s="72"/>
       <c r="AU12" s="14"/>
       <c r="AV12" s="13"/>
     </row>
     <row r="13" spans="1:48" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="54"/>
-      <c r="B13" s="55"/>
-      <c r="C13" s="55"/>
-      <c r="D13" s="55"/>
+      <c r="A13" s="66"/>
+      <c r="B13" s="67"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="67"/>
       <c r="E13" s="32"/>
       <c r="F13" s="5"/>
-      <c r="H13" s="54"/>
-      <c r="I13" s="55"/>
-      <c r="J13" s="55"/>
-      <c r="K13" s="55"/>
+      <c r="H13" s="66"/>
+      <c r="I13" s="67"/>
+      <c r="J13" s="67"/>
+      <c r="K13" s="67"/>
       <c r="L13" s="32"/>
       <c r="M13" s="5"/>
-      <c r="O13" s="54"/>
-      <c r="P13" s="56"/>
-      <c r="Q13" s="56"/>
-      <c r="R13" s="56"/>
-      <c r="S13" s="56"/>
-      <c r="T13" s="57"/>
-      <c r="V13" s="54"/>
-      <c r="W13" s="56"/>
-      <c r="X13" s="56"/>
-      <c r="Y13" s="56"/>
-      <c r="Z13" s="56"/>
-      <c r="AA13" s="57"/>
-      <c r="AC13" s="54"/>
-      <c r="AD13" s="56"/>
-      <c r="AE13" s="56"/>
-      <c r="AF13" s="56"/>
-      <c r="AG13" s="56"/>
-      <c r="AH13" s="57"/>
-      <c r="AJ13" s="54"/>
-      <c r="AK13" s="56"/>
-      <c r="AL13" s="56"/>
-      <c r="AM13" s="56"/>
-      <c r="AN13" s="56"/>
-      <c r="AO13" s="57"/>
-      <c r="AQ13" s="54"/>
-      <c r="AR13" s="56"/>
-      <c r="AS13" s="56"/>
-      <c r="AT13" s="56"/>
-      <c r="AU13" s="56"/>
-      <c r="AV13" s="57"/>
+      <c r="O13" s="66"/>
+      <c r="P13" s="68"/>
+      <c r="Q13" s="68"/>
+      <c r="R13" s="68"/>
+      <c r="S13" s="68"/>
+      <c r="T13" s="69"/>
+      <c r="V13" s="66"/>
+      <c r="W13" s="68"/>
+      <c r="X13" s="68"/>
+      <c r="Y13" s="68"/>
+      <c r="Z13" s="68"/>
+      <c r="AA13" s="69"/>
+      <c r="AC13" s="66"/>
+      <c r="AD13" s="68"/>
+      <c r="AE13" s="68"/>
+      <c r="AF13" s="68"/>
+      <c r="AG13" s="68"/>
+      <c r="AH13" s="69"/>
+      <c r="AJ13" s="66"/>
+      <c r="AK13" s="68"/>
+      <c r="AL13" s="68"/>
+      <c r="AM13" s="68"/>
+      <c r="AN13" s="68"/>
+      <c r="AO13" s="69"/>
+      <c r="AQ13" s="66"/>
+      <c r="AR13" s="68"/>
+      <c r="AS13" s="68"/>
+      <c r="AT13" s="68"/>
+      <c r="AU13" s="68"/>
+      <c r="AV13" s="69"/>
     </row>
     <row r="14" spans="1:48" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="62" t="s">
+      <c r="A14" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="71"/>
-      <c r="C14" s="48" t="s">
+      <c r="B14" s="54"/>
+      <c r="C14" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="49"/>
+      <c r="D14" s="70"/>
       <c r="E14" s="33">
         <v>0.4</v>
       </c>
       <c r="F14" s="5"/>
-      <c r="H14" s="62" t="s">
+      <c r="H14" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="I14" s="71"/>
-      <c r="J14" s="48" t="s">
+      <c r="I14" s="54"/>
+      <c r="J14" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="K14" s="49"/>
+      <c r="K14" s="70"/>
       <c r="L14" s="35">
         <v>0.8</v>
       </c>
       <c r="M14" s="5"/>
-      <c r="O14" s="62" t="s">
+      <c r="O14" s="53" t="s">
         <v>29</v>
       </c>
       <c r="P14" s="9"/>
-      <c r="Q14" s="59"/>
-      <c r="R14" s="60"/>
+      <c r="Q14" s="74"/>
+      <c r="R14" s="75"/>
       <c r="S14" s="38"/>
       <c r="T14" s="5"/>
-      <c r="V14" s="62" t="s">
+      <c r="V14" s="53" t="s">
         <v>29</v>
       </c>
       <c r="W14" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="X14" s="59" t="s">
+      <c r="X14" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="Y14" s="60"/>
+      <c r="Y14" s="75"/>
       <c r="Z14" s="38"/>
       <c r="AA14" s="5"/>
-      <c r="AC14" s="62" t="s">
+      <c r="AC14" s="53" t="s">
         <v>29</v>
       </c>
       <c r="AD14" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="AE14" s="59" t="s">
+      <c r="AE14" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="AF14" s="60"/>
+      <c r="AF14" s="75"/>
       <c r="AG14" s="42">
         <v>0.3</v>
       </c>
       <c r="AH14" s="5"/>
-      <c r="AJ14" s="62" t="s">
+      <c r="AJ14" s="53" t="s">
         <v>29</v>
       </c>
       <c r="AK14" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="AL14" s="59" t="s">
+      <c r="AL14" s="74" t="s">
         <v>35</v>
       </c>
-      <c r="AM14" s="60"/>
+      <c r="AM14" s="75"/>
       <c r="AN14" s="12">
         <v>0.6</v>
       </c>
       <c r="AO14" s="5"/>
-      <c r="AQ14" s="62" t="s">
+      <c r="AQ14" s="53" t="s">
         <v>29</v>
       </c>
       <c r="AR14" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="AS14" s="59" t="s">
+      <c r="AS14" s="74" t="s">
         <v>35</v>
       </c>
-      <c r="AT14" s="60"/>
+      <c r="AT14" s="75"/>
       <c r="AU14" s="12">
         <v>0.6</v>
       </c>
       <c r="AV14" s="5"/>
     </row>
     <row r="15" spans="1:48" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="62"/>
-      <c r="B15" s="71"/>
-      <c r="C15" s="49"/>
-      <c r="D15" s="49"/>
+      <c r="A15" s="53"/>
+      <c r="B15" s="54"/>
+      <c r="C15" s="70"/>
+      <c r="D15" s="70"/>
       <c r="E15" s="31"/>
       <c r="F15" s="5"/>
-      <c r="H15" s="62"/>
-      <c r="I15" s="71"/>
-      <c r="J15" s="49"/>
-      <c r="K15" s="49"/>
+      <c r="H15" s="53"/>
+      <c r="I15" s="54"/>
+      <c r="J15" s="70"/>
+      <c r="K15" s="70"/>
       <c r="L15" s="31"/>
       <c r="M15" s="5"/>
-      <c r="O15" s="62"/>
+      <c r="O15" s="53"/>
       <c r="P15" s="11"/>
-      <c r="Q15" s="51"/>
-      <c r="R15" s="51"/>
+      <c r="Q15" s="72"/>
+      <c r="R15" s="72"/>
       <c r="S15" s="17"/>
       <c r="T15" s="13"/>
-      <c r="V15" s="62"/>
+      <c r="V15" s="53"/>
       <c r="W15" s="11"/>
-      <c r="X15" s="51"/>
-      <c r="Y15" s="51"/>
+      <c r="X15" s="72"/>
+      <c r="Y15" s="72"/>
       <c r="Z15" s="17"/>
       <c r="AA15" s="13"/>
-      <c r="AC15" s="62"/>
+      <c r="AC15" s="53"/>
       <c r="AD15" s="11"/>
-      <c r="AE15" s="51"/>
-      <c r="AF15" s="51"/>
+      <c r="AE15" s="72"/>
+      <c r="AF15" s="72"/>
       <c r="AG15" s="17"/>
       <c r="AH15" s="13"/>
-      <c r="AJ15" s="62"/>
+      <c r="AJ15" s="53"/>
       <c r="AK15" s="11"/>
-      <c r="AL15" s="51"/>
-      <c r="AM15" s="51"/>
+      <c r="AL15" s="72"/>
+      <c r="AM15" s="72"/>
       <c r="AN15" s="17"/>
       <c r="AO15" s="13"/>
-      <c r="AQ15" s="62"/>
+      <c r="AQ15" s="53"/>
       <c r="AR15" s="11"/>
-      <c r="AS15" s="51"/>
-      <c r="AT15" s="51"/>
+      <c r="AS15" s="72"/>
+      <c r="AT15" s="72"/>
       <c r="AU15" s="17"/>
       <c r="AV15" s="13"/>
     </row>
     <row r="16" spans="1:48" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="62"/>
-      <c r="B16" s="71"/>
-      <c r="C16" s="49"/>
-      <c r="D16" s="49"/>
+      <c r="A16" s="53"/>
+      <c r="B16" s="54"/>
+      <c r="C16" s="70"/>
+      <c r="D16" s="70"/>
       <c r="E16" s="28"/>
       <c r="F16" s="5"/>
-      <c r="H16" s="62"/>
-      <c r="I16" s="71"/>
-      <c r="J16" s="49"/>
-      <c r="K16" s="49"/>
+      <c r="H16" s="53"/>
+      <c r="I16" s="54"/>
+      <c r="J16" s="70"/>
+      <c r="K16" s="70"/>
       <c r="L16" s="28"/>
       <c r="M16" s="5"/>
-      <c r="O16" s="62"/>
+      <c r="O16" s="53"/>
       <c r="P16" s="11"/>
-      <c r="Q16" s="61"/>
-      <c r="R16" s="61"/>
+      <c r="Q16" s="71"/>
+      <c r="R16" s="71"/>
       <c r="S16" s="18"/>
       <c r="T16" s="19"/>
-      <c r="V16" s="62"/>
+      <c r="V16" s="53"/>
       <c r="W16" s="11"/>
-      <c r="X16" s="61"/>
-      <c r="Y16" s="61"/>
+      <c r="X16" s="71"/>
+      <c r="Y16" s="71"/>
       <c r="Z16" s="18"/>
       <c r="AA16" s="19"/>
-      <c r="AC16" s="62"/>
+      <c r="AC16" s="53"/>
       <c r="AD16" s="11"/>
-      <c r="AE16" s="61"/>
-      <c r="AF16" s="61"/>
+      <c r="AE16" s="71"/>
+      <c r="AF16" s="71"/>
       <c r="AG16" s="18"/>
       <c r="AH16" s="19"/>
-      <c r="AJ16" s="62"/>
+      <c r="AJ16" s="53"/>
       <c r="AK16" s="11"/>
-      <c r="AL16" s="61"/>
-      <c r="AM16" s="61"/>
+      <c r="AL16" s="71"/>
+      <c r="AM16" s="71"/>
       <c r="AN16" s="18"/>
       <c r="AO16" s="19"/>
-      <c r="AQ16" s="62"/>
+      <c r="AQ16" s="53"/>
       <c r="AR16" s="11"/>
-      <c r="AS16" s="61"/>
-      <c r="AT16" s="61"/>
+      <c r="AS16" s="71"/>
+      <c r="AT16" s="71"/>
       <c r="AU16" s="18"/>
       <c r="AV16" s="19"/>
     </row>
     <row r="17" spans="1:48" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="62"/>
-      <c r="B17" s="71"/>
-      <c r="C17" s="49"/>
-      <c r="D17" s="49"/>
+      <c r="A17" s="53"/>
+      <c r="B17" s="54"/>
+      <c r="C17" s="70"/>
+      <c r="D17" s="70"/>
       <c r="E17" s="28"/>
       <c r="F17" s="5"/>
-      <c r="H17" s="62"/>
-      <c r="I17" s="71"/>
-      <c r="J17" s="49"/>
-      <c r="K17" s="49"/>
+      <c r="H17" s="53"/>
+      <c r="I17" s="54"/>
+      <c r="J17" s="70"/>
+      <c r="K17" s="70"/>
       <c r="L17" s="28"/>
       <c r="M17" s="5"/>
-      <c r="O17" s="62"/>
+      <c r="O17" s="53"/>
       <c r="P17" s="11"/>
-      <c r="Q17" s="51"/>
-      <c r="R17" s="51"/>
+      <c r="Q17" s="72"/>
+      <c r="R17" s="72"/>
       <c r="S17" s="14"/>
       <c r="T17" s="13"/>
-      <c r="V17" s="62"/>
+      <c r="V17" s="53"/>
       <c r="W17" s="11"/>
-      <c r="X17" s="51"/>
-      <c r="Y17" s="51"/>
+      <c r="X17" s="72"/>
+      <c r="Y17" s="72"/>
       <c r="Z17" s="14"/>
       <c r="AA17" s="13"/>
-      <c r="AC17" s="62"/>
+      <c r="AC17" s="53"/>
       <c r="AD17" s="11"/>
-      <c r="AE17" s="51"/>
-      <c r="AF17" s="51"/>
+      <c r="AE17" s="72"/>
+      <c r="AF17" s="72"/>
       <c r="AG17" s="14"/>
       <c r="AH17" s="13"/>
-      <c r="AJ17" s="62"/>
+      <c r="AJ17" s="53"/>
       <c r="AK17" s="11"/>
-      <c r="AL17" s="51"/>
-      <c r="AM17" s="51"/>
+      <c r="AL17" s="72"/>
+      <c r="AM17" s="72"/>
       <c r="AN17" s="14"/>
       <c r="AO17" s="13"/>
-      <c r="AQ17" s="62"/>
+      <c r="AQ17" s="53"/>
       <c r="AR17" s="11"/>
-      <c r="AS17" s="51"/>
-      <c r="AT17" s="51"/>
+      <c r="AS17" s="72"/>
+      <c r="AT17" s="72"/>
       <c r="AU17" s="14"/>
       <c r="AV17" s="13"/>
     </row>
     <row r="18" spans="1:48" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="54"/>
-      <c r="B18" s="55"/>
-      <c r="C18" s="55"/>
-      <c r="D18" s="55"/>
+      <c r="A18" s="66"/>
+      <c r="B18" s="67"/>
+      <c r="C18" s="67"/>
+      <c r="D18" s="67"/>
       <c r="E18" s="32"/>
       <c r="F18" s="5"/>
-      <c r="H18" s="54"/>
-      <c r="I18" s="55"/>
-      <c r="J18" s="55"/>
-      <c r="K18" s="55"/>
+      <c r="H18" s="66"/>
+      <c r="I18" s="67"/>
+      <c r="J18" s="67"/>
+      <c r="K18" s="67"/>
       <c r="L18" s="32"/>
       <c r="M18" s="5"/>
-      <c r="O18" s="54"/>
-      <c r="P18" s="56"/>
-      <c r="Q18" s="56"/>
-      <c r="R18" s="56"/>
-      <c r="S18" s="56"/>
-      <c r="T18" s="57"/>
-      <c r="V18" s="54"/>
-      <c r="W18" s="56"/>
-      <c r="X18" s="56"/>
-      <c r="Y18" s="56"/>
-      <c r="Z18" s="56"/>
-      <c r="AA18" s="57"/>
-      <c r="AC18" s="54"/>
-      <c r="AD18" s="56"/>
-      <c r="AE18" s="56"/>
-      <c r="AF18" s="56"/>
-      <c r="AG18" s="56"/>
-      <c r="AH18" s="57"/>
-      <c r="AJ18" s="54"/>
-      <c r="AK18" s="56"/>
-      <c r="AL18" s="56"/>
-      <c r="AM18" s="56"/>
-      <c r="AN18" s="56"/>
-      <c r="AO18" s="57"/>
-      <c r="AQ18" s="54"/>
-      <c r="AR18" s="56"/>
-      <c r="AS18" s="56"/>
-      <c r="AT18" s="56"/>
-      <c r="AU18" s="56"/>
-      <c r="AV18" s="57"/>
+      <c r="O18" s="66"/>
+      <c r="P18" s="68"/>
+      <c r="Q18" s="68"/>
+      <c r="R18" s="68"/>
+      <c r="S18" s="68"/>
+      <c r="T18" s="69"/>
+      <c r="V18" s="66"/>
+      <c r="W18" s="68"/>
+      <c r="X18" s="68"/>
+      <c r="Y18" s="68"/>
+      <c r="Z18" s="68"/>
+      <c r="AA18" s="69"/>
+      <c r="AC18" s="66"/>
+      <c r="AD18" s="68"/>
+      <c r="AE18" s="68"/>
+      <c r="AF18" s="68"/>
+      <c r="AG18" s="68"/>
+      <c r="AH18" s="69"/>
+      <c r="AJ18" s="66"/>
+      <c r="AK18" s="68"/>
+      <c r="AL18" s="68"/>
+      <c r="AM18" s="68"/>
+      <c r="AN18" s="68"/>
+      <c r="AO18" s="69"/>
+      <c r="AQ18" s="66"/>
+      <c r="AR18" s="68"/>
+      <c r="AS18" s="68"/>
+      <c r="AT18" s="68"/>
+      <c r="AU18" s="68"/>
+      <c r="AV18" s="69"/>
     </row>
     <row r="19" spans="1:48" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="62" t="s">
+      <c r="A19" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="71"/>
-      <c r="C19" s="69" t="s">
+      <c r="B19" s="54"/>
+      <c r="C19" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="D19" s="69"/>
-      <c r="E19" s="69"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="57"/>
       <c r="F19" s="5"/>
-      <c r="H19" s="62" t="s">
+      <c r="H19" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="I19" s="71"/>
-      <c r="J19" s="74" t="s">
+      <c r="I19" s="54"/>
+      <c r="J19" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="K19" s="74"/>
-      <c r="L19" s="74"/>
+      <c r="K19" s="62"/>
+      <c r="L19" s="62"/>
       <c r="M19" s="5"/>
-      <c r="O19" s="62" t="s">
+      <c r="O19" s="53" t="s">
         <v>36</v>
       </c>
       <c r="P19" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="Q19" s="66" t="s">
+      <c r="Q19" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="R19" s="66"/>
-      <c r="S19" s="66"/>
+      <c r="R19" s="58"/>
+      <c r="S19" s="58"/>
       <c r="T19" s="5"/>
-      <c r="V19" s="62" t="s">
+      <c r="V19" s="53" t="s">
         <v>36</v>
       </c>
       <c r="W19" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="X19" s="66" t="s">
+      <c r="X19" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="Y19" s="66"/>
-      <c r="Z19" s="66"/>
+      <c r="Y19" s="58"/>
+      <c r="Z19" s="58"/>
       <c r="AA19" s="5"/>
-      <c r="AC19" s="62" t="s">
+      <c r="AC19" s="53" t="s">
         <v>36</v>
       </c>
       <c r="AD19" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="AE19" s="67" t="s">
+      <c r="AE19" s="59" t="s">
         <v>42</v>
       </c>
-      <c r="AF19" s="67"/>
-      <c r="AG19" s="67"/>
+      <c r="AF19" s="59"/>
+      <c r="AG19" s="59"/>
       <c r="AH19" s="5"/>
-      <c r="AJ19" s="62" t="s">
+      <c r="AJ19" s="53" t="s">
         <v>36</v>
       </c>
       <c r="AK19" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="AL19" s="67"/>
-      <c r="AM19" s="67"/>
-      <c r="AN19" s="67"/>
+      <c r="AL19" s="59"/>
+      <c r="AM19" s="59"/>
+      <c r="AN19" s="59"/>
       <c r="AO19" s="5"/>
-      <c r="AQ19" s="62" t="s">
+      <c r="AQ19" s="53" t="s">
         <v>36</v>
       </c>
       <c r="AR19" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="AS19" s="67"/>
-      <c r="AT19" s="67"/>
-      <c r="AU19" s="67"/>
+      <c r="AS19" s="59"/>
+      <c r="AT19" s="59"/>
+      <c r="AU19" s="59"/>
       <c r="AV19" s="5"/>
     </row>
     <row r="20" spans="1:48" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="62"/>
-      <c r="B20" s="71"/>
-      <c r="C20" s="69"/>
-      <c r="D20" s="69"/>
-      <c r="E20" s="69"/>
+      <c r="A20" s="53"/>
+      <c r="B20" s="54"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="57"/>
       <c r="F20" s="5"/>
-      <c r="H20" s="62"/>
-      <c r="I20" s="71"/>
-      <c r="J20" s="74"/>
-      <c r="K20" s="74"/>
-      <c r="L20" s="74"/>
+      <c r="H20" s="53"/>
+      <c r="I20" s="54"/>
+      <c r="J20" s="62"/>
+      <c r="K20" s="62"/>
+      <c r="L20" s="62"/>
       <c r="M20" s="5"/>
-      <c r="O20" s="62"/>
+      <c r="O20" s="53"/>
       <c r="P20" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="Q20" s="66"/>
-      <c r="R20" s="66"/>
-      <c r="S20" s="66"/>
+      <c r="Q20" s="58"/>
+      <c r="R20" s="58"/>
+      <c r="S20" s="58"/>
       <c r="T20" s="5"/>
-      <c r="V20" s="62"/>
+      <c r="V20" s="53"/>
       <c r="W20" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="X20" s="66"/>
-      <c r="Y20" s="66"/>
-      <c r="Z20" s="66"/>
+      <c r="X20" s="58"/>
+      <c r="Y20" s="58"/>
+      <c r="Z20" s="58"/>
       <c r="AA20" s="5"/>
-      <c r="AC20" s="62"/>
+      <c r="AC20" s="53"/>
       <c r="AD20" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="AE20" s="67"/>
-      <c r="AF20" s="67"/>
-      <c r="AG20" s="67"/>
+      <c r="AE20" s="59"/>
+      <c r="AF20" s="59"/>
+      <c r="AG20" s="59"/>
       <c r="AH20" s="5"/>
-      <c r="AJ20" s="62"/>
+      <c r="AJ20" s="53"/>
       <c r="AK20" s="21">
         <v>8</v>
       </c>
-      <c r="AL20" s="67"/>
-      <c r="AM20" s="67"/>
-      <c r="AN20" s="67"/>
+      <c r="AL20" s="59"/>
+      <c r="AM20" s="59"/>
+      <c r="AN20" s="59"/>
       <c r="AO20" s="5"/>
-      <c r="AQ20" s="62"/>
+      <c r="AQ20" s="53"/>
       <c r="AR20" s="21">
         <v>8</v>
       </c>
-      <c r="AS20" s="67"/>
-      <c r="AT20" s="67"/>
-      <c r="AU20" s="67"/>
+      <c r="AS20" s="59"/>
+      <c r="AT20" s="59"/>
+      <c r="AU20" s="59"/>
       <c r="AV20" s="5"/>
     </row>
     <row r="21" spans="1:48" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="62"/>
-      <c r="B21" s="71"/>
-      <c r="C21" s="69"/>
-      <c r="D21" s="69"/>
-      <c r="E21" s="69"/>
+      <c r="A21" s="53"/>
+      <c r="B21" s="54"/>
+      <c r="C21" s="57"/>
+      <c r="D21" s="57"/>
+      <c r="E21" s="57"/>
       <c r="F21" s="5"/>
-      <c r="H21" s="62"/>
-      <c r="I21" s="71"/>
-      <c r="J21" s="74"/>
-      <c r="K21" s="74"/>
-      <c r="L21" s="74"/>
+      <c r="H21" s="53"/>
+      <c r="I21" s="54"/>
+      <c r="J21" s="62"/>
+      <c r="K21" s="62"/>
+      <c r="L21" s="62"/>
       <c r="M21" s="5"/>
-      <c r="O21" s="62"/>
+      <c r="O21" s="53"/>
       <c r="P21" s="8"/>
-      <c r="Q21" s="66"/>
-      <c r="R21" s="66"/>
-      <c r="S21" s="66"/>
+      <c r="Q21" s="58"/>
+      <c r="R21" s="58"/>
+      <c r="S21" s="58"/>
       <c r="T21" s="5"/>
-      <c r="V21" s="62"/>
+      <c r="V21" s="53"/>
       <c r="W21" s="8"/>
-      <c r="X21" s="66"/>
-      <c r="Y21" s="66"/>
-      <c r="Z21" s="66"/>
+      <c r="X21" s="58"/>
+      <c r="Y21" s="58"/>
+      <c r="Z21" s="58"/>
       <c r="AA21" s="5"/>
-      <c r="AC21" s="62"/>
+      <c r="AC21" s="53"/>
       <c r="AD21" s="8"/>
-      <c r="AE21" s="67"/>
-      <c r="AF21" s="67"/>
-      <c r="AG21" s="67"/>
+      <c r="AE21" s="59"/>
+      <c r="AF21" s="59"/>
+      <c r="AG21" s="59"/>
       <c r="AH21" s="5"/>
-      <c r="AJ21" s="62"/>
+      <c r="AJ21" s="53"/>
       <c r="AK21" s="8"/>
-      <c r="AL21" s="67"/>
-      <c r="AM21" s="67"/>
-      <c r="AN21" s="67"/>
+      <c r="AL21" s="59"/>
+      <c r="AM21" s="59"/>
+      <c r="AN21" s="59"/>
       <c r="AO21" s="5"/>
-      <c r="AQ21" s="62"/>
+      <c r="AQ21" s="53"/>
       <c r="AR21" s="8"/>
-      <c r="AS21" s="67"/>
-      <c r="AT21" s="67"/>
-      <c r="AU21" s="67"/>
+      <c r="AS21" s="59"/>
+      <c r="AT21" s="59"/>
+      <c r="AU21" s="59"/>
       <c r="AV21" s="5"/>
     </row>
     <row r="22" spans="1:48" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="62"/>
-      <c r="B22" s="71"/>
-      <c r="C22" s="69"/>
-      <c r="D22" s="69"/>
-      <c r="E22" s="69"/>
+      <c r="A22" s="53"/>
+      <c r="B22" s="54"/>
+      <c r="C22" s="57"/>
+      <c r="D22" s="57"/>
+      <c r="E22" s="57"/>
       <c r="F22" s="5"/>
-      <c r="H22" s="62"/>
-      <c r="I22" s="71"/>
-      <c r="J22" s="74"/>
-      <c r="K22" s="74"/>
-      <c r="L22" s="74"/>
+      <c r="H22" s="53"/>
+      <c r="I22" s="54"/>
+      <c r="J22" s="62"/>
+      <c r="K22" s="62"/>
+      <c r="L22" s="62"/>
       <c r="M22" s="5"/>
-      <c r="O22" s="62"/>
+      <c r="O22" s="53"/>
       <c r="P22" s="8"/>
-      <c r="Q22" s="66"/>
-      <c r="R22" s="66"/>
-      <c r="S22" s="66"/>
+      <c r="Q22" s="58"/>
+      <c r="R22" s="58"/>
+      <c r="S22" s="58"/>
       <c r="T22" s="5"/>
-      <c r="V22" s="62"/>
+      <c r="V22" s="53"/>
       <c r="W22" s="8"/>
-      <c r="X22" s="66"/>
-      <c r="Y22" s="66"/>
-      <c r="Z22" s="66"/>
+      <c r="X22" s="58"/>
+      <c r="Y22" s="58"/>
+      <c r="Z22" s="58"/>
       <c r="AA22" s="5"/>
-      <c r="AC22" s="62"/>
+      <c r="AC22" s="53"/>
       <c r="AD22" s="8"/>
-      <c r="AE22" s="67"/>
-      <c r="AF22" s="67"/>
-      <c r="AG22" s="67"/>
+      <c r="AE22" s="59"/>
+      <c r="AF22" s="59"/>
+      <c r="AG22" s="59"/>
       <c r="AH22" s="5"/>
-      <c r="AJ22" s="62"/>
+      <c r="AJ22" s="53"/>
       <c r="AK22" s="8"/>
-      <c r="AL22" s="67"/>
-      <c r="AM22" s="67"/>
-      <c r="AN22" s="67"/>
+      <c r="AL22" s="59"/>
+      <c r="AM22" s="59"/>
+      <c r="AN22" s="59"/>
       <c r="AO22" s="5"/>
-      <c r="AQ22" s="62"/>
+      <c r="AQ22" s="53"/>
       <c r="AR22" s="8"/>
-      <c r="AS22" s="67"/>
-      <c r="AT22" s="67"/>
-      <c r="AU22" s="67"/>
+      <c r="AS22" s="59"/>
+      <c r="AT22" s="59"/>
+      <c r="AU22" s="59"/>
       <c r="AV22" s="5"/>
     </row>
     <row r="23" spans="1:48" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="62" t="s">
+      <c r="A23" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="B23" s="71"/>
-      <c r="C23" s="69" t="s">
+      <c r="B23" s="54"/>
+      <c r="C23" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="D23" s="69"/>
-      <c r="E23" s="69"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="57"/>
       <c r="F23" s="5"/>
-      <c r="H23" s="62" t="s">
+      <c r="H23" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="I23" s="71"/>
-      <c r="J23" s="69" t="s">
+      <c r="I23" s="54"/>
+      <c r="J23" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="K23" s="69"/>
-      <c r="L23" s="69"/>
+      <c r="K23" s="57"/>
+      <c r="L23" s="57"/>
       <c r="M23" s="5"/>
       <c r="O23" s="63" t="s">
         <v>45</v>
@@ -2428,11 +2449,11 @@
       <c r="P23" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="Q23" s="68" t="s">
+      <c r="Q23" s="61" t="s">
         <v>49</v>
       </c>
-      <c r="R23" s="68"/>
-      <c r="S23" s="68"/>
+      <c r="R23" s="61"/>
+      <c r="S23" s="61"/>
       <c r="T23" s="5"/>
       <c r="V23" s="63" t="s">
         <v>45</v>
@@ -2440,11 +2461,11 @@
       <c r="W23" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="X23" s="68" t="s">
+      <c r="X23" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="Y23" s="68"/>
-      <c r="Z23" s="68"/>
+      <c r="Y23" s="61"/>
+      <c r="Z23" s="61"/>
       <c r="AA23" s="5"/>
       <c r="AC23" s="63" t="s">
         <v>45</v>
@@ -2452,11 +2473,11 @@
       <c r="AD23" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="AE23" s="68" t="s">
+      <c r="AE23" s="61" t="s">
         <v>51</v>
       </c>
-      <c r="AF23" s="68"/>
-      <c r="AG23" s="68"/>
+      <c r="AF23" s="61"/>
+      <c r="AG23" s="61"/>
       <c r="AH23" s="5"/>
       <c r="AJ23" s="63" t="s">
         <v>45</v>
@@ -2464,9 +2485,9 @@
       <c r="AK23" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="AL23" s="68"/>
-      <c r="AM23" s="68"/>
-      <c r="AN23" s="68"/>
+      <c r="AL23" s="61"/>
+      <c r="AM23" s="61"/>
+      <c r="AN23" s="61"/>
       <c r="AO23" s="5"/>
       <c r="AQ23" s="63" t="s">
         <v>45</v>
@@ -2474,155 +2495,306 @@
       <c r="AR23" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="AS23" s="68"/>
-      <c r="AT23" s="68"/>
-      <c r="AU23" s="68"/>
+      <c r="AS23" s="61"/>
+      <c r="AT23" s="61"/>
+      <c r="AU23" s="61"/>
       <c r="AV23" s="5"/>
     </row>
     <row r="24" spans="1:48" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="62"/>
-      <c r="B24" s="71"/>
-      <c r="C24" s="69"/>
-      <c r="D24" s="69"/>
-      <c r="E24" s="69"/>
+      <c r="A24" s="53"/>
+      <c r="B24" s="54"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="57"/>
       <c r="F24" s="5"/>
-      <c r="H24" s="62"/>
-      <c r="I24" s="71"/>
-      <c r="J24" s="69"/>
-      <c r="K24" s="69"/>
-      <c r="L24" s="69"/>
+      <c r="H24" s="53"/>
+      <c r="I24" s="54"/>
+      <c r="J24" s="57"/>
+      <c r="K24" s="57"/>
+      <c r="L24" s="57"/>
       <c r="M24" s="5"/>
       <c r="O24" s="64"/>
       <c r="P24" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="Q24" s="69"/>
-      <c r="R24" s="69"/>
-      <c r="S24" s="69"/>
+      <c r="Q24" s="57"/>
+      <c r="R24" s="57"/>
+      <c r="S24" s="57"/>
       <c r="T24" s="5"/>
       <c r="V24" s="64"/>
       <c r="W24" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="X24" s="69"/>
-      <c r="Y24" s="69"/>
-      <c r="Z24" s="69"/>
+      <c r="X24" s="57"/>
+      <c r="Y24" s="57"/>
+      <c r="Z24" s="57"/>
       <c r="AA24" s="5"/>
       <c r="AC24" s="64"/>
       <c r="AD24" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="AE24" s="69"/>
-      <c r="AF24" s="69"/>
-      <c r="AG24" s="69"/>
+      <c r="AE24" s="57"/>
+      <c r="AF24" s="57"/>
+      <c r="AG24" s="57"/>
       <c r="AH24" s="5"/>
       <c r="AJ24" s="64"/>
       <c r="AK24" s="23">
         <v>15</v>
       </c>
-      <c r="AL24" s="69"/>
-      <c r="AM24" s="69"/>
-      <c r="AN24" s="69"/>
+      <c r="AL24" s="57"/>
+      <c r="AM24" s="57"/>
+      <c r="AN24" s="57"/>
       <c r="AO24" s="5"/>
       <c r="AQ24" s="64"/>
       <c r="AR24" s="23">
         <v>15</v>
       </c>
-      <c r="AS24" s="69"/>
-      <c r="AT24" s="69"/>
-      <c r="AU24" s="69"/>
+      <c r="AS24" s="57"/>
+      <c r="AT24" s="57"/>
+      <c r="AU24" s="57"/>
       <c r="AV24" s="5"/>
     </row>
     <row r="25" spans="1:48" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="62"/>
-      <c r="B25" s="71"/>
-      <c r="C25" s="69"/>
-      <c r="D25" s="69"/>
-      <c r="E25" s="69"/>
+      <c r="A25" s="53"/>
+      <c r="B25" s="54"/>
+      <c r="C25" s="57"/>
+      <c r="D25" s="57"/>
+      <c r="E25" s="57"/>
       <c r="F25" s="5"/>
-      <c r="H25" s="62"/>
-      <c r="I25" s="71"/>
-      <c r="J25" s="69"/>
-      <c r="K25" s="69"/>
-      <c r="L25" s="69"/>
+      <c r="H25" s="53"/>
+      <c r="I25" s="54"/>
+      <c r="J25" s="57"/>
+      <c r="K25" s="57"/>
+      <c r="L25" s="57"/>
       <c r="M25" s="5"/>
       <c r="O25" s="64"/>
       <c r="P25" s="24"/>
-      <c r="Q25" s="69"/>
-      <c r="R25" s="69"/>
-      <c r="S25" s="69"/>
+      <c r="Q25" s="57"/>
+      <c r="R25" s="57"/>
+      <c r="S25" s="57"/>
       <c r="T25" s="5"/>
       <c r="V25" s="64"/>
       <c r="W25" s="24"/>
-      <c r="X25" s="69"/>
-      <c r="Y25" s="69"/>
-      <c r="Z25" s="69"/>
+      <c r="X25" s="57"/>
+      <c r="Y25" s="57"/>
+      <c r="Z25" s="57"/>
       <c r="AA25" s="5"/>
       <c r="AC25" s="64"/>
       <c r="AD25" s="24"/>
-      <c r="AE25" s="69"/>
-      <c r="AF25" s="69"/>
-      <c r="AG25" s="69"/>
+      <c r="AE25" s="57"/>
+      <c r="AF25" s="57"/>
+      <c r="AG25" s="57"/>
       <c r="AH25" s="5"/>
       <c r="AJ25" s="64"/>
       <c r="AK25" s="24"/>
-      <c r="AL25" s="69"/>
-      <c r="AM25" s="69"/>
-      <c r="AN25" s="69"/>
+      <c r="AL25" s="57"/>
+      <c r="AM25" s="57"/>
+      <c r="AN25" s="57"/>
       <c r="AO25" s="5"/>
       <c r="AQ25" s="64"/>
       <c r="AR25" s="24"/>
-      <c r="AS25" s="69"/>
-      <c r="AT25" s="69"/>
-      <c r="AU25" s="69"/>
+      <c r="AS25" s="57"/>
+      <c r="AT25" s="57"/>
+      <c r="AU25" s="57"/>
       <c r="AV25" s="5"/>
     </row>
     <row r="26" spans="1:48" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="72"/>
-      <c r="B26" s="73"/>
-      <c r="C26" s="70"/>
-      <c r="D26" s="70"/>
-      <c r="E26" s="70"/>
+      <c r="A26" s="55"/>
+      <c r="B26" s="56"/>
+      <c r="C26" s="60"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="60"/>
       <c r="F26" s="26"/>
-      <c r="H26" s="72"/>
-      <c r="I26" s="73"/>
-      <c r="J26" s="70"/>
-      <c r="K26" s="70"/>
-      <c r="L26" s="70"/>
+      <c r="H26" s="55"/>
+      <c r="I26" s="56"/>
+      <c r="J26" s="60"/>
+      <c r="K26" s="60"/>
+      <c r="L26" s="60"/>
       <c r="M26" s="26"/>
       <c r="O26" s="65"/>
       <c r="P26" s="25"/>
-      <c r="Q26" s="70"/>
-      <c r="R26" s="70"/>
-      <c r="S26" s="70"/>
+      <c r="Q26" s="60"/>
+      <c r="R26" s="60"/>
+      <c r="S26" s="60"/>
       <c r="T26" s="26"/>
       <c r="V26" s="65"/>
       <c r="W26" s="25"/>
-      <c r="X26" s="70"/>
-      <c r="Y26" s="70"/>
-      <c r="Z26" s="70"/>
+      <c r="X26" s="60"/>
+      <c r="Y26" s="60"/>
+      <c r="Z26" s="60"/>
       <c r="AA26" s="26"/>
       <c r="AC26" s="65"/>
       <c r="AD26" s="25"/>
-      <c r="AE26" s="70"/>
-      <c r="AF26" s="70"/>
-      <c r="AG26" s="70"/>
+      <c r="AE26" s="60"/>
+      <c r="AF26" s="60"/>
+      <c r="AG26" s="60"/>
       <c r="AH26" s="26"/>
       <c r="AJ26" s="65"/>
       <c r="AK26" s="25"/>
-      <c r="AL26" s="70"/>
-      <c r="AM26" s="70"/>
-      <c r="AN26" s="70"/>
+      <c r="AL26" s="60"/>
+      <c r="AM26" s="60"/>
+      <c r="AN26" s="60"/>
       <c r="AO26" s="26"/>
       <c r="AQ26" s="65"/>
       <c r="AR26" s="25"/>
-      <c r="AS26" s="70"/>
-      <c r="AT26" s="70"/>
-      <c r="AU26" s="70"/>
+      <c r="AS26" s="60"/>
+      <c r="AT26" s="60"/>
+      <c r="AU26" s="60"/>
       <c r="AV26" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="175">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="H1:M1"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="V1:AA1"/>
+    <mergeCell ref="AC1:AH1"/>
+    <mergeCell ref="AJ1:AO1"/>
+    <mergeCell ref="AQ1:AV1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="X3:Y3"/>
+    <mergeCell ref="AC3:AD3"/>
+    <mergeCell ref="AE3:AF3"/>
+    <mergeCell ref="AJ3:AK3"/>
+    <mergeCell ref="AL3:AM3"/>
+    <mergeCell ref="AQ3:AR3"/>
+    <mergeCell ref="AS3:AT3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="X4:Y4"/>
+    <mergeCell ref="AE4:AF4"/>
+    <mergeCell ref="AL4:AM4"/>
+    <mergeCell ref="AS4:AT4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="X5:Y5"/>
+    <mergeCell ref="AE5:AF5"/>
+    <mergeCell ref="AL5:AM5"/>
+    <mergeCell ref="AS5:AT5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="X6:Y6"/>
+    <mergeCell ref="AE6:AF6"/>
+    <mergeCell ref="AL6:AM6"/>
+    <mergeCell ref="AS6:AT6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="AE7:AF7"/>
+    <mergeCell ref="AL7:AM7"/>
+    <mergeCell ref="AS7:AT7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="O8:T8"/>
+    <mergeCell ref="V8:AA8"/>
+    <mergeCell ref="AC8:AH8"/>
+    <mergeCell ref="AJ8:AO8"/>
+    <mergeCell ref="AQ8:AV8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="X9:Y9"/>
+    <mergeCell ref="AE9:AF9"/>
+    <mergeCell ref="AL9:AM9"/>
+    <mergeCell ref="AS9:AT9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="X10:Y10"/>
+    <mergeCell ref="AE10:AF10"/>
+    <mergeCell ref="AL10:AM10"/>
+    <mergeCell ref="AS10:AT10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="X11:Y11"/>
+    <mergeCell ref="AE11:AF11"/>
+    <mergeCell ref="AL11:AM11"/>
+    <mergeCell ref="AS11:AT11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="X12:Y12"/>
+    <mergeCell ref="AE12:AF12"/>
+    <mergeCell ref="AL12:AM12"/>
+    <mergeCell ref="AS12:AT12"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="O13:T13"/>
+    <mergeCell ref="V13:AA13"/>
+    <mergeCell ref="AC13:AH13"/>
+    <mergeCell ref="AJ13:AO13"/>
+    <mergeCell ref="AQ13:AV13"/>
+    <mergeCell ref="AS17:AT17"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="X14:Y14"/>
+    <mergeCell ref="AE14:AF14"/>
+    <mergeCell ref="AL14:AM14"/>
+    <mergeCell ref="AS14:AT14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="X15:Y15"/>
+    <mergeCell ref="AE15:AF15"/>
+    <mergeCell ref="AL15:AM15"/>
+    <mergeCell ref="AS15:AT15"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="O18:T18"/>
+    <mergeCell ref="V18:AA18"/>
+    <mergeCell ref="AC18:AH18"/>
+    <mergeCell ref="AJ18:AO18"/>
+    <mergeCell ref="AQ18:AV18"/>
+    <mergeCell ref="O4:O7"/>
+    <mergeCell ref="O9:O12"/>
+    <mergeCell ref="O14:O17"/>
+    <mergeCell ref="AJ4:AJ7"/>
+    <mergeCell ref="AJ9:AJ12"/>
+    <mergeCell ref="AJ14:AJ17"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="X16:Y16"/>
+    <mergeCell ref="AE16:AF16"/>
+    <mergeCell ref="AL16:AM16"/>
+    <mergeCell ref="AS16:AT16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="X17:Y17"/>
+    <mergeCell ref="V4:V7"/>
+    <mergeCell ref="V9:V12"/>
+    <mergeCell ref="V14:V17"/>
+    <mergeCell ref="V19:V22"/>
+    <mergeCell ref="V23:V26"/>
+    <mergeCell ref="AC4:AC7"/>
+    <mergeCell ref="AC9:AC12"/>
+    <mergeCell ref="AC14:AC17"/>
+    <mergeCell ref="AC19:AC22"/>
+    <mergeCell ref="AC23:AC26"/>
+    <mergeCell ref="AQ14:AQ17"/>
+    <mergeCell ref="AQ19:AQ22"/>
+    <mergeCell ref="AQ23:AQ26"/>
+    <mergeCell ref="Q19:S22"/>
+    <mergeCell ref="AL19:AN22"/>
+    <mergeCell ref="Q23:S26"/>
+    <mergeCell ref="AL23:AN26"/>
+    <mergeCell ref="O19:O22"/>
+    <mergeCell ref="O23:O26"/>
+    <mergeCell ref="AE17:AF17"/>
+    <mergeCell ref="AL17:AM17"/>
     <mergeCell ref="A23:B26"/>
     <mergeCell ref="A9:B12"/>
     <mergeCell ref="A14:B17"/>
@@ -2647,157 +2819,6 @@
     <mergeCell ref="AJ23:AJ26"/>
     <mergeCell ref="AQ4:AQ7"/>
     <mergeCell ref="AQ9:AQ12"/>
-    <mergeCell ref="AQ14:AQ17"/>
-    <mergeCell ref="AQ19:AQ22"/>
-    <mergeCell ref="AQ23:AQ26"/>
-    <mergeCell ref="Q19:S22"/>
-    <mergeCell ref="AL19:AN22"/>
-    <mergeCell ref="Q23:S26"/>
-    <mergeCell ref="AL23:AN26"/>
-    <mergeCell ref="O19:O22"/>
-    <mergeCell ref="O23:O26"/>
-    <mergeCell ref="V4:V7"/>
-    <mergeCell ref="V9:V12"/>
-    <mergeCell ref="V14:V17"/>
-    <mergeCell ref="V19:V22"/>
-    <mergeCell ref="V23:V26"/>
-    <mergeCell ref="AC4:AC7"/>
-    <mergeCell ref="AC9:AC12"/>
-    <mergeCell ref="AC14:AC17"/>
-    <mergeCell ref="AC19:AC22"/>
-    <mergeCell ref="AC23:AC26"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="H18:K18"/>
-    <mergeCell ref="O18:T18"/>
-    <mergeCell ref="V18:AA18"/>
-    <mergeCell ref="AC18:AH18"/>
-    <mergeCell ref="AJ18:AO18"/>
-    <mergeCell ref="AQ18:AV18"/>
-    <mergeCell ref="O4:O7"/>
-    <mergeCell ref="O9:O12"/>
-    <mergeCell ref="O14:O17"/>
-    <mergeCell ref="AJ4:AJ7"/>
-    <mergeCell ref="AJ9:AJ12"/>
-    <mergeCell ref="AJ14:AJ17"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="X16:Y16"/>
-    <mergeCell ref="AE16:AF16"/>
-    <mergeCell ref="AL16:AM16"/>
-    <mergeCell ref="AS16:AT16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="X17:Y17"/>
-    <mergeCell ref="AE17:AF17"/>
-    <mergeCell ref="AL17:AM17"/>
-    <mergeCell ref="AS17:AT17"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="X14:Y14"/>
-    <mergeCell ref="AE14:AF14"/>
-    <mergeCell ref="AL14:AM14"/>
-    <mergeCell ref="AS14:AT14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="X15:Y15"/>
-    <mergeCell ref="AE15:AF15"/>
-    <mergeCell ref="AL15:AM15"/>
-    <mergeCell ref="AS15:AT15"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="X12:Y12"/>
-    <mergeCell ref="AE12:AF12"/>
-    <mergeCell ref="AL12:AM12"/>
-    <mergeCell ref="AS12:AT12"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="O13:T13"/>
-    <mergeCell ref="V13:AA13"/>
-    <mergeCell ref="AC13:AH13"/>
-    <mergeCell ref="AJ13:AO13"/>
-    <mergeCell ref="AQ13:AV13"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="X10:Y10"/>
-    <mergeCell ref="AE10:AF10"/>
-    <mergeCell ref="AL10:AM10"/>
-    <mergeCell ref="AS10:AT10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="X11:Y11"/>
-    <mergeCell ref="AE11:AF11"/>
-    <mergeCell ref="AL11:AM11"/>
-    <mergeCell ref="AS11:AT11"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="O8:T8"/>
-    <mergeCell ref="V8:AA8"/>
-    <mergeCell ref="AC8:AH8"/>
-    <mergeCell ref="AJ8:AO8"/>
-    <mergeCell ref="AQ8:AV8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="X9:Y9"/>
-    <mergeCell ref="AE9:AF9"/>
-    <mergeCell ref="AL9:AM9"/>
-    <mergeCell ref="AS9:AT9"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="X6:Y6"/>
-    <mergeCell ref="AE6:AF6"/>
-    <mergeCell ref="AL6:AM6"/>
-    <mergeCell ref="AS6:AT6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="X7:Y7"/>
-    <mergeCell ref="AE7:AF7"/>
-    <mergeCell ref="AL7:AM7"/>
-    <mergeCell ref="AS7:AT7"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="X4:Y4"/>
-    <mergeCell ref="AE4:AF4"/>
-    <mergeCell ref="AL4:AM4"/>
-    <mergeCell ref="AS4:AT4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="X5:Y5"/>
-    <mergeCell ref="AE5:AF5"/>
-    <mergeCell ref="AL5:AM5"/>
-    <mergeCell ref="AS5:AT5"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="H1:M1"/>
-    <mergeCell ref="O1:T1"/>
-    <mergeCell ref="V1:AA1"/>
-    <mergeCell ref="AC1:AH1"/>
-    <mergeCell ref="AJ1:AO1"/>
-    <mergeCell ref="AQ1:AV1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="X3:Y3"/>
-    <mergeCell ref="AC3:AD3"/>
-    <mergeCell ref="AE3:AF3"/>
-    <mergeCell ref="AJ3:AK3"/>
-    <mergeCell ref="AL3:AM3"/>
-    <mergeCell ref="AQ3:AR3"/>
-    <mergeCell ref="AS3:AT3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2807,10 +2828,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="J19" sqref="J19:L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2818,19 +2839,29 @@
     <col min="2" max="2" width="9.6640625"/>
     <col min="3" max="4" width="20.77734375" customWidth="1"/>
     <col min="6" max="6" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="20.77734375" customWidth="1"/>
+    <col min="13" max="13" width="18.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+    <row r="1" spans="1:13" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A1" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="45"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="82"/>
+      <c r="H1" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="82"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2847,240 +2878,451 @@
         <v>4</v>
       </c>
       <c r="F2" s="5"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="46" t="s">
+      <c r="H2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="4">
+        <v>44744</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" s="5"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47" t="s">
+      <c r="B3" s="84"/>
+      <c r="C3" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="47"/>
+      <c r="D3" s="84"/>
       <c r="E3" s="6" t="s">
         <v>7</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="62" t="s">
+      <c r="H3" s="83" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" s="84"/>
+      <c r="L3" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="76" t="s">
+      <c r="B4" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="75" t="s">
+      <c r="C4" s="87" t="s">
         <v>55</v>
       </c>
-      <c r="D4" s="49"/>
+      <c r="D4" s="70"/>
       <c r="E4" s="40"/>
-      <c r="F4" s="78" t="s">
+      <c r="F4" s="47" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="62"/>
+      <c r="H4" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="45"/>
+      <c r="J4" s="87" t="s">
+        <v>59</v>
+      </c>
+      <c r="K4" s="70"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="47"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="53"/>
       <c r="B5" s="11"/>
-      <c r="C5" s="52"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="77"/>
+      <c r="C5" s="77"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="46"/>
       <c r="F5" s="13"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="62"/>
-      <c r="B6" s="81"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="53"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="86" t="s">
+        <v>60</v>
+      </c>
+      <c r="K5" s="72"/>
+      <c r="L5" s="46"/>
+      <c r="M5" s="13"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="53"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="78"/>
       <c r="E6" s="14"/>
       <c r="F6" s="13"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="62"/>
-      <c r="B7" s="80"/>
-      <c r="C7" s="53"/>
-      <c r="D7" s="79"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="88" t="s">
+        <v>61</v>
+      </c>
+      <c r="K6" s="78"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="13"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="53"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="85"/>
       <c r="E7" s="14"/>
       <c r="F7" s="13"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="54"/>
-      <c r="B8" s="56"/>
-      <c r="C8" s="55"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="57"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="62" t="s">
+      <c r="H7" s="53"/>
+      <c r="I7" s="48"/>
+      <c r="J7" s="78"/>
+      <c r="K7" s="85"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="13"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="66"/>
+      <c r="B8" s="68"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="69"/>
+      <c r="H8" s="66"/>
+      <c r="I8" s="68"/>
+      <c r="J8" s="67"/>
+      <c r="K8" s="68"/>
+      <c r="L8" s="68"/>
+      <c r="M8" s="69"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="82" t="s">
+      <c r="B9" s="50" t="s">
         <v>57</v>
       </c>
-      <c r="C9" s="83" t="s">
+      <c r="C9" s="86" t="s">
         <v>58</v>
       </c>
-      <c r="D9" s="51"/>
+      <c r="D9" s="72"/>
       <c r="E9" s="16"/>
       <c r="F9" s="5"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="62"/>
+      <c r="H9" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" s="50"/>
+      <c r="J9" s="86"/>
+      <c r="K9" s="72"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="5"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="53"/>
       <c r="B10" s="11"/>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
+      <c r="C10" s="72"/>
+      <c r="D10" s="72"/>
       <c r="E10" s="17"/>
       <c r="F10" s="13"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="62"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="72"/>
+      <c r="K10" s="72"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="13"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="53"/>
       <c r="B11" s="11"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51"/>
+      <c r="C11" s="72"/>
+      <c r="D11" s="72"/>
       <c r="E11" s="14"/>
       <c r="F11" s="13"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="62"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="72"/>
+      <c r="K11" s="72"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="13"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="53"/>
       <c r="B12" s="11"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="51"/>
+      <c r="C12" s="72"/>
+      <c r="D12" s="72"/>
       <c r="E12" s="14"/>
       <c r="F12" s="13"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="54"/>
-      <c r="B13" s="56"/>
-      <c r="C13" s="56"/>
-      <c r="D13" s="56"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="57"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="62" t="s">
+      <c r="H12" s="53"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="72"/>
+      <c r="K12" s="72"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="13"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="66"/>
+      <c r="B13" s="68"/>
+      <c r="C13" s="68"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="68"/>
+      <c r="F13" s="69"/>
+      <c r="H13" s="66"/>
+      <c r="I13" s="68"/>
+      <c r="J13" s="68"/>
+      <c r="K13" s="68"/>
+      <c r="L13" s="68"/>
+      <c r="M13" s="69"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="53" t="s">
         <v>29</v>
       </c>
       <c r="B14" s="15"/>
-      <c r="C14" s="59"/>
-      <c r="D14" s="60"/>
-      <c r="E14" s="77"/>
+      <c r="C14" s="74"/>
+      <c r="D14" s="75"/>
+      <c r="E14" s="46"/>
       <c r="F14" s="5"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="62"/>
+      <c r="H14" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="I14" s="15"/>
+      <c r="J14" s="74"/>
+      <c r="K14" s="75"/>
+      <c r="L14" s="46"/>
+      <c r="M14" s="5"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="53"/>
       <c r="B15" s="11"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
+      <c r="C15" s="72"/>
+      <c r="D15" s="72"/>
       <c r="E15" s="17"/>
       <c r="F15" s="13"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="62"/>
+      <c r="H15" s="53"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="72"/>
+      <c r="K15" s="72"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="13"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="53"/>
       <c r="B16" s="11"/>
-      <c r="C16" s="61"/>
-      <c r="D16" s="61"/>
+      <c r="C16" s="71"/>
+      <c r="D16" s="71"/>
       <c r="E16" s="18"/>
       <c r="F16" s="19"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="62"/>
+      <c r="H16" s="53"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="71"/>
+      <c r="K16" s="71"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="19"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="53"/>
       <c r="B17" s="11"/>
-      <c r="C17" s="51"/>
-      <c r="D17" s="51"/>
+      <c r="C17" s="72"/>
+      <c r="D17" s="72"/>
       <c r="E17" s="14"/>
       <c r="F17" s="13"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="54"/>
-      <c r="B18" s="56"/>
-      <c r="C18" s="56"/>
-      <c r="D18" s="56"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="57"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="62" t="s">
+      <c r="H17" s="53"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="72"/>
+      <c r="K17" s="72"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="13"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="66"/>
+      <c r="B18" s="68"/>
+      <c r="C18" s="68"/>
+      <c r="D18" s="68"/>
+      <c r="E18" s="68"/>
+      <c r="F18" s="69"/>
+      <c r="H18" s="66"/>
+      <c r="I18" s="68"/>
+      <c r="J18" s="68"/>
+      <c r="K18" s="68"/>
+      <c r="L18" s="68"/>
+      <c r="M18" s="69"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="53" t="s">
         <v>36</v>
       </c>
       <c r="B19" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="67"/>
-      <c r="D19" s="67"/>
-      <c r="E19" s="67"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="59"/>
       <c r="F19" s="5"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="62"/>
-      <c r="B20" s="84"/>
-      <c r="C20" s="67"/>
-      <c r="D20" s="67"/>
-      <c r="E20" s="67"/>
+      <c r="H19" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="I19" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="J19" s="59"/>
+      <c r="K19" s="59"/>
+      <c r="L19" s="59"/>
+      <c r="M19" s="5"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="53"/>
+      <c r="B20" s="51"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="59"/>
       <c r="F20" s="5"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="62"/>
+      <c r="H20" s="53"/>
+      <c r="I20" s="51"/>
+      <c r="J20" s="59"/>
+      <c r="K20" s="59"/>
+      <c r="L20" s="59"/>
+      <c r="M20" s="5"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="53"/>
       <c r="B21" s="8"/>
-      <c r="C21" s="67"/>
-      <c r="D21" s="67"/>
-      <c r="E21" s="67"/>
+      <c r="C21" s="59"/>
+      <c r="D21" s="59"/>
+      <c r="E21" s="59"/>
       <c r="F21" s="5"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="62"/>
+      <c r="H21" s="53"/>
+      <c r="I21" s="44"/>
+      <c r="J21" s="59"/>
+      <c r="K21" s="59"/>
+      <c r="L21" s="59"/>
+      <c r="M21" s="5"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="53"/>
       <c r="B22" s="8"/>
-      <c r="C22" s="67"/>
-      <c r="D22" s="67"/>
-      <c r="E22" s="67"/>
+      <c r="C22" s="59"/>
+      <c r="D22" s="59"/>
+      <c r="E22" s="59"/>
       <c r="F22" s="5"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H22" s="53"/>
+      <c r="I22" s="44"/>
+      <c r="J22" s="59"/>
+      <c r="K22" s="59"/>
+      <c r="L22" s="59"/>
+      <c r="M22" s="5"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="63" t="s">
         <v>45</v>
       </c>
       <c r="B23" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="C23" s="68"/>
-      <c r="D23" s="68"/>
-      <c r="E23" s="68"/>
+      <c r="C23" s="61"/>
+      <c r="D23" s="61"/>
+      <c r="E23" s="61"/>
       <c r="F23" s="5"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H23" s="63" t="s">
+        <v>45</v>
+      </c>
+      <c r="I23" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="J23" s="61"/>
+      <c r="K23" s="61"/>
+      <c r="L23" s="61"/>
+      <c r="M23" s="5"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="64"/>
-      <c r="B24" s="85"/>
-      <c r="C24" s="69"/>
-      <c r="D24" s="69"/>
-      <c r="E24" s="69"/>
+      <c r="B24" s="52"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="57"/>
       <c r="F24" s="5"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H24" s="64"/>
+      <c r="I24" s="52"/>
+      <c r="J24" s="57"/>
+      <c r="K24" s="57"/>
+      <c r="L24" s="57"/>
+      <c r="M24" s="5"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="64"/>
       <c r="B25" s="24"/>
-      <c r="C25" s="69"/>
-      <c r="D25" s="69"/>
-      <c r="E25" s="69"/>
+      <c r="C25" s="57"/>
+      <c r="D25" s="57"/>
+      <c r="E25" s="57"/>
       <c r="F25" s="5"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H25" s="64"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="57"/>
+      <c r="K25" s="57"/>
+      <c r="L25" s="57"/>
+      <c r="M25" s="5"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="65"/>
       <c r="B26" s="25"/>
-      <c r="C26" s="70"/>
-      <c r="D26" s="70"/>
-      <c r="E26" s="70"/>
+      <c r="C26" s="60"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="60"/>
       <c r="F26" s="26"/>
+      <c r="H26" s="65"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="60"/>
+      <c r="K26" s="60"/>
+      <c r="L26" s="60"/>
+      <c r="M26" s="26"/>
     </row>
   </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="C19:E22"/>
-    <mergeCell ref="C23:E26"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="A18:F18"/>
+  <mergeCells count="50">
+    <mergeCell ref="H18:M18"/>
+    <mergeCell ref="H19:H22"/>
+    <mergeCell ref="J19:L22"/>
+    <mergeCell ref="H23:H26"/>
+    <mergeCell ref="J23:L26"/>
+    <mergeCell ref="H13:M13"/>
+    <mergeCell ref="H14:H17"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="H8:M8"/>
+    <mergeCell ref="H9:H12"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="H1:M1"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="H4:H7"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A9:A12"/>
     <mergeCell ref="A14:A17"/>
@@ -3094,11 +3336,13 @@
     <mergeCell ref="A8:F8"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="C10:D10"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="C19:E22"/>
+    <mergeCell ref="C23:E26"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="A18:F18"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
